--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,453 +627,782 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uncle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pancake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nervous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四，十四分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液，血统，家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊恐的，恐惧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积，区域，地方，领域，范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游者，观光者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不舒服的，不舒适的，感到不安的，不自在的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把…借给，出借，贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子，实例，榜样，楷模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的，目标，瞄准，对准，目的是，旨在，针对，力争做到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看，观看，参见，会晤，理解，想象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咀嚼，（因为紧张等）咬住，不停的啃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答，答复，以…作答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现，完成，获得，达到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡，消失，停止运行，渴望，消逝，熄灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的，新到的，新鲜的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶，顶部，上部，上端，首位，最高位，居于…之上，高过，超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有东西，没有事情，一点也没有，无关紧要的人或事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖，依靠，信赖，相信，取决于…，视…而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂静的，沉默的，无声的，不发出声音的（silence 沉寂，沉默）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬，敬意，荣誉，光荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗鲁的，无礼的，粗糙的，粗陋的，猛烈的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贼，小偷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板，上司，领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废旧物品，破烂，丢弃，废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量，体重，砝码，秤砣，重压，负担，重要性，重大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为，以为，想，思索，想要，打算，思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动，活动，活跃，活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船长，机长，上尉，队长，领队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢的，无畏的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依然，还，仍旧，然而，尽管如此，甚至更，还要，静止的，寂静的，平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬挂，吊，徘徊，绞死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生，碰巧，恰好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六，十六个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三个，十三分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂，天国，天空，上帝，神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空的，空闲的，空虚的，倒出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者都不，也不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天(空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向，朝，面对，接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三，三分之一，第三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生（小)，瞳孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极好的，级出色的，了不起的，不实际的，奇异的，古怪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敢，敢做，竟敢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对待，处理，治疗，医疗，款待，招待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该，将要，应当，万一，竟然，可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程师，机械师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接，衔接，联合，关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.业余爱好;嗜好，兴趣;小马</t>
+  </si>
+  <si>
+    <t>磨损;穿着，戴着;面露;留着，穿着;穿戴物，衣物;磨损，穿旧;耐用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆，记忆力;回忆，往事;[计]存储器，内存</t>
+  </si>
+  <si>
+    <t>盘;餐具;一盘食物;外貌有吸引力的人，盛于碟盘中;分发;使某人的希望破灭;说（某人）闲话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括;包含;计入;包住</t>
+  </si>
+  <si>
+    <t>赛跑;民族;人种;竞争，参加比赛;使比赛;快速移动;剧烈跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚，今夜</t>
+  </si>
+  <si>
+    <t>地图，天体图;类似地图的事物;〈美俚〉脸，面孔;绘制图;勘查;详细规划;[遗传学]比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝;回绝;推却，垃圾;废弃物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步，脚步;步骤，手段;步调;级别 跳舞;迈步;使成阶梯状 走;踏，踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差别，差异;[数]差数，差额;意见分歧;特色 辨别，区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七;月的第十七日;十七分之一，第十七的;十七分之一的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略，战略;战略学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔叔;伯父;舅父;姑父，姨父</t>
+  </si>
+  <si>
+    <t>抱怨，诉苦;申诉，控诉，抗议 诉说，申诉，控告[后面常跟从句]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色的;未熟的，青春的;未成熟的;主张保护环境的 绿色蔬菜;绿色的衣服;植物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车;摩托车;电动自行车</t>
+  </si>
+  <si>
+    <t>工作;努力，尝试;成就;杰作</t>
+  </si>
+  <si>
+    <t>语法;语法书;（学术的）基本原理;（人的）语言知识及运用能力</t>
+  </si>
+  <si>
+    <t>烙饼，薄煎饼;粉饼;[航]平降，平坠，使平坠著陆;使平展，平坠着陆;平展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散文;随笔，杂记文;尝试，企图;试验</t>
+  </si>
+  <si>
+    <t>到国外，在海外;广为流传地 海外，异国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咳嗽;（引擎等）发噗噗声;咳出</t>
+  </si>
+  <si>
+    <t>喜欢;（与 would 或 should 连用表示客气）想;想要;喜欢做 如同;好像;像…一样;仿佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入;参加;连接;联结 连接;结合;接合处;接合点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在外部;户外;缺少;没有或不显示某事物 没有，缺乏;在外面 除非，如果不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经质的;紧张不安的;焦虑的</t>
+  </si>
+  <si>
+    <t>快;立刻，马上;一会儿，不久;宁愿</t>
+  </si>
+  <si>
+    <t>唯一的;仅有的;最好的，最适当的 只，仅仅;结果却，不料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招贴画;海报，招贴，公告;张贴者;[古语]急行的人，匆忙赶路的人</t>
+  </si>
+  <si>
+    <t>餐馆;饭店;饭馆;菜馆</t>
+  </si>
+  <si>
+    <t>完成;结束;吃光;使筋疲力尽 结束;结尾;最后阶段;抛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深的;深远的，深奥;重大的，深刻的;强烈的，痛切的，深厚的 深处，深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长者;长辈;元老;比…年长的人 年纪较大的;资格老的;老练的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片，相片   .（给…）拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于…价值的，值得…的,价值，财产（值得做某事：be worth doing sth）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>march</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理，照料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see sb . Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某人送行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相信，信赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌都啃的垃圾，破烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去 我们 rist 观光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S(蛇)在关心着‘d' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish 现在是 fresh 状态！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长胖：put on weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事故;意外事件;机遇，偶然;附属品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten：十  / sixteen --&gt; 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neither … nor … 既不，也不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ward 守卫，保卫，防止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF57527"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hobbies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>are letter writing, photography, and tennis.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step by step 一步一步的，逐步的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uncle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pancake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>essay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abroad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>without</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nervous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restaurant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十四，十四分之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牙科医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相当于…价值的，值得…的,价值，财产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血液，血统，家族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊恐的，恐惧的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积，区域，地方，领域，范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅游者，观光者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不舒服的，不舒适的，感到不安的，不自在的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把…借给，出借，贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例子，实例，榜样，楷模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的，目标，瞄准，对准，目的是，旨在，针对，力争做到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看，观看，参见，会晤，理解，想象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咀嚼，（因为紧张等）咬住，不停的啃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答，答复，以…作答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现，完成，获得，达到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡，消失，停止运行，渴望，消逝，熄灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的，新到的，新鲜的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶，顶部，上部，上端，首位，最高位，居于…之上，高过，超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有东西，没有事情，一点也没有，无关紧要的人或事物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖，依靠，信赖，相信，取决于…，视…而定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寂静的，沉默的，无声的，不发出声音的（silence 沉寂，沉默）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊敬，敬意，荣誉，光荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗鲁的，无礼的，粗糙的，粗陋的，猛烈的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贼，小偷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板，上司，领导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废旧物品，破烂，丢弃，废弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量，体重，砝码，秤砣，重压，负担，重要性，重大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认为，以为，想，思索，想要，打算，思考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动，活动，活跃，活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船长，机长，上尉，队长，领队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇敢的，无畏的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依然，还，仍旧，然而，尽管如此，甚至更，还要，静止的，寂静的，平静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬挂，吊，徘徊，绞死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生，碰巧，恰好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六，十六个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十三个，十三分之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂，天国，天空，上帝，神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空的，空闲的，空虚的，倒出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两者都不，也不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天(空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向，朝，面对，接近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三，三分之一，第三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生（小)，瞳孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极好的，级出色的，了不起的，不实际的，奇异的，古怪的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敢，敢做，竟敢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对待，处理，治疗，医疗，款待，招待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该，将要，应当，万一，竟然，可能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程师，机械师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接，衔接，联合，关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.业余爱好;嗜好，兴趣;小马</t>
-  </si>
-  <si>
-    <t>磨损;穿着，戴着;面露;留着，穿着;穿戴物，衣物;磨损，穿旧;耐用性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记忆，记忆力;回忆，往事;[计]存储器，内存</t>
-  </si>
-  <si>
-    <t>盘;餐具;一盘食物;外貌有吸引力的人，盛于碟盘中;分发;使某人的希望破灭;说（某人）闲话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括;包含;计入;包住</t>
-  </si>
-  <si>
-    <t>赛跑;民族;人种;竞争，参加比赛;使比赛;快速移动;剧烈跳动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今晚，今夜</t>
-  </si>
-  <si>
-    <t>地图，天体图;类似地图的事物;〈美俚〉脸，面孔;绘制图;勘查;详细规划;[遗传学]比对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒绝;回绝;推却，垃圾;废弃物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步，脚步;步骤，手段;步调;级别 跳舞;迈步;使成阶梯状 走;踏，踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差别，差异;[数]差数，差额;意见分歧;特色 辨别，区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十七;月的第十七日;十七分之一，第十七的;十七分之一的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略，战略;战略学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叔叔;伯父;舅父;姑父，姨父</t>
-  </si>
-  <si>
-    <t>抱怨，诉苦;申诉，控诉，抗议 诉说，申诉，控告[后面常跟从句]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色的;未熟的，青春的;未成熟的;主张保护环境的 绿色蔬菜;绿色的衣服;植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车;摩托车;电动自行车</t>
-  </si>
-  <si>
-    <t>工作;努力，尝试;成就;杰作</t>
-  </si>
-  <si>
-    <t>语法;语法书;（学术的）基本原理;（人的）语言知识及运用能力</t>
-  </si>
-  <si>
-    <t>烙饼，薄煎饼;粉饼;[航]平降，平坠，使平坠著陆;使平展，平坠着陆;平展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散文;随笔，杂记文;尝试，企图;试验</t>
-  </si>
-  <si>
-    <t>到国外，在海外;广为流传地 海外，异国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咳嗽;（引擎等）发噗噗声;咳出</t>
-  </si>
-  <si>
-    <t>喜欢;（与 would 或 should 连用表示客气）想;想要;喜欢做 如同;好像;像…一样;仿佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入;参加;连接;联结 连接;结合;接合处;接合点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在外部;户外;缺少;没有或不显示某事物 没有，缺乏;在外面 除非，如果不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经质的;紧张不安的;焦虑的</t>
-  </si>
-  <si>
-    <t>快;立刻，马上;一会儿，不久;宁愿</t>
-  </si>
-  <si>
-    <t>唯一的;仅有的;最好的，最适当的 只，仅仅;结果却，不料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招贴画;海报，招贴，公告;张贴者;[古语]急行的人，匆忙赶路的人</t>
-  </si>
-  <si>
-    <t>餐馆;饭店;饭馆;菜馆</t>
-  </si>
-  <si>
-    <t>完成;结束;吃光;使筋疲力尽 结束;结尾;最后阶段;抛光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深的;深远的，深奥;重大的，深刻的;强烈的，痛切的，深厚的 深处，深渊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长者;长辈;元老;比…年长的人 年纪较大的;资格老的;老练的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片，相片   .（给…）拍照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance</t>
+    <r>
+      <t>I went home and mapped out my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF57527"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>strategy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">来抱怨，p赖着一个a在…里面... </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿饿呃额都是为了for它t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake饼，盘子里的就是薄饼，煎饼了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es来说"say" ---&gt; 杂文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We had dinner in the hotel's restaurant</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食欲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胃口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肚子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腹部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欲望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>志趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忍受</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1455,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF57527"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1162,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1220,6 +1561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1253,10 +1600,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B1048576" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C1048576" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="中文" dataDxfId="1"/>
     <tableColumn id="2" name="英文" dataDxfId="0"/>
+    <tableColumn id="3" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1525,16 +1873,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,12 +1893,15 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1558,12 +1910,12 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1630,7 +1982,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,7 +2097,7 @@
       <c r="A24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1813,7 +2165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -1821,7 +2173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>69</v>
       </c>
@@ -1829,7 +2181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>71</v>
       </c>
@@ -1837,740 +2189,857 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="11"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B96" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+      <c r="B107" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="B108" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="B109" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="B110" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="B111" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="B112" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="B113" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="B114" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+      <c r="B115" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+      <c r="B116" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+      <c r="B117" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="B118" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
+      <c r="B119" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+      <c r="B120" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="B121" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+      <c r="B122" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="B123" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="B124" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="B125" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>254</v>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="21"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,6 +1403,156 @@
       </rPr>
       <t>忍受</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入节目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1873,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3040,6 +3190,14 @@
       </c>
       <c r="B135" s="11" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,9 +1038,6 @@
     <t>招贴画;海报，招贴，公告;张贴者;[古语]急行的人，匆忙赶路的人</t>
   </si>
   <si>
-    <t>餐馆;饭店;饭馆;菜馆</t>
-  </si>
-  <si>
     <t>完成;结束;吃光;使筋疲力尽 结束;结尾;最后阶段;抛光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,10 +1222,6 @@
   </si>
   <si>
     <t>cake饼，盘子里的就是薄饼，煎饼了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>es来说"say" ---&gt; 杂文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1553,6 +1546,449 @@
   </si>
   <si>
     <t>program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我儿的 （有价值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个吃的（引起的疼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米唷 英里的称呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱（m：目标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃w~ 咀嚼…….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辱的  （"粗"）鲁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap（带帽子的领导）ta（他）在里面 in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆太斯替客 最好 的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>care 关心 ---&gt; d了之后就是竟敢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr+吃 --&gt;治疗，款待了..（tr Linux删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es来说"say" ---&gt; 杂文，联想：容易的说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛斯特儿广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆;饭店;饭馆;菜馆（rest 休息，a urant ---&gt; 饭店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cigarette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirtieth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anymore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eastern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>december</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everywhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daugter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>its</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infinitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>late</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sixty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>november</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +2089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1710,6 +2146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2023,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2044,14 +2483,14 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2060,12 +2499,12 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2132,7 +2571,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,10 +2804,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,7 +2872,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,6 +2898,9 @@
       <c r="B49" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="C49" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2472,6 +2917,9 @@
       <c r="B51" s="11" t="s">
         <v>88</v>
       </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2488,6 +2936,9 @@
       <c r="B53" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="C53" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -2521,7 +2972,7 @@
         <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,7 +3015,7 @@
         <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,6 +3025,9 @@
       <c r="B63" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2599,7 +3053,7 @@
         <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,7 +3064,7 @@
         <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,6 +3090,9 @@
       <c r="B70" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="C70" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -2677,15 +3134,15 @@
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>113</v>
+      <c r="A76" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,7 +3169,7 @@
         <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,7 +3188,7 @@
         <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,10 +3201,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>120</v>
+        <v>201</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,6 +3230,9 @@
       <c r="B86" s="18" t="s">
         <v>123</v>
       </c>
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -2781,6 +3241,9 @@
       <c r="B87" s="11" t="s">
         <v>124</v>
       </c>
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2789,6 +3252,9 @@
       <c r="B88" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="C88" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -2831,7 +3297,7 @@
         <v>130</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,7 +3372,7 @@
         <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,10 +3396,10 @@
         <v>230</v>
       </c>
       <c r="B105" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" t="s">
         <v>283</v>
-      </c>
-      <c r="C105" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +3418,7 @@
         <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,11 +3441,11 @@
       <c r="A110" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="18" t="s">
         <v>146</v>
       </c>
       <c r="C110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,7 +3464,7 @@
         <v>148</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,7 +3475,7 @@
         <v>149</v>
       </c>
       <c r="C113" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,21 +3549,24 @@
       <c r="B122" s="18" t="s">
         <v>158</v>
       </c>
+      <c r="C122" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>160</v>
@@ -3105,7 +3574,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>161</v>
@@ -3113,91 +3582,575 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" s="21"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="986">
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1158">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3104,1223 +3100,1845 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>let</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maybe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞图玩day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟瑟 --&gt; 伟大的智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s print read 展开才可以阅读..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ache for --&gt;渴望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭吻嗯 ---&gt;女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯壳儿特 ---&gt;外围，裙子，边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f附着耳朵（ear）说 ----&gt; 害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夯嗝儿 ---&gt; 饿了饿了..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多的吃 ---&gt; 数字3月，进展，行军…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈锐 ---&gt; 催促，加快，匆忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S蛇 ---&gt; 成熟的(old) I 我 er 人称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客乐而可 ---&gt; 店员，职员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con（来)ference 三只鹅来开会，会议…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in在，dus大肆try尝试 ---&gt; 产业，勤劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新，第1次，出现--&gt;描述，象征，扮演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包土墓 ---&gt; 底部， 臀部，底下的，最下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到鲸鱼时惊奇的声音：whale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansible里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瞬家傻瞪着了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be属于一个长队伍（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im表示反转?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样撸掉问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导奥博偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东部，向东方，来自东方的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>west</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外斯特（外国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（lab实验室)or或者去劳动…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上up，st爱rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烦哎特（me)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝来丝 ---&gt; 切成片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a一个挂载，里面有总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s力pp人（PP人穿拖鞋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音-土耳其，涂儿（钥匙）吃火鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么长的单词一定是国际的世界性的了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才第二个啊，se kern de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 railway station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>captain 船长 / capital 首都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛博坦被儿（太热的季节9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S爱l --》 (自由的）航行！！【mail 邮件】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC文件（I我）all（全部）Y 对的-&gt;特别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock - 锁住，加B就是苏塞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屁扰的骄傲…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！谁特（么的浪费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXE R塞泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send送，ab-&gt;反义  absent 缺席没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend …. On ….. 花XXX在XXX方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip--&gt;装备 ment“修饰equip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森斯（审视） SEnSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;美&gt;妈妈</t>
+  </si>
+  <si>
+    <t>标准，规格;旗，军旗;度量衡标准;直立支柱 标准的，合格的;普遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的，有智慧的;博学的，博识的;明白的;像智者的 了解，知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开;伸开;（使）传播;（使）散布 涂;把…覆盖在…上(over);把…敲平;散发（气、烟等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况;例子，实例;要求，建议;[法]诉讼手续</t>
+  </si>
+  <si>
+    <t>疼痛;渴望</t>
+  </si>
+  <si>
+    <t>女王;王后;杰出女性;（纸牌中的）王后， （国际象棋中的）后</t>
+  </si>
+  <si>
+    <t>裙子;边缘; 位于…的边缘;沿…的边缘走;绕开;避开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕;可能性;（对神等的）敬畏;忧虑 害怕;畏惧;为…忧虑（或担心、焦虑）;敬畏（神等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女朋友;女性朋友</t>
+  </si>
+  <si>
+    <t>饿，饥饿;欲望</t>
+  </si>
+  <si>
+    <t>（坚定地向某地）前进;行军，进军;游行示威;进展，进行 使前进;使行军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告，告诫;通知;预告</t>
+  </si>
+  <si>
+    <t>匆忙，急忙 仓促（做某事）;催促;（朝某方向）迅速移动;迅速处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意;商业，交易;事务，业务;职业，行业</t>
+  </si>
+  <si>
+    <t>士兵;战士;军人 坚持;硬挺着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员;书记员;办事员，职员;&lt;古&gt;牧师，教士</t>
+  </si>
+  <si>
+    <t>方法;道路;方向;某方面</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>会议;讨论;（正式）讨论会;[工会、工党用语]（每年的）大会  举行或参加（系列）会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业;产业（经济词汇）;工业界;勤劳</t>
+  </si>
+  <si>
+    <t>表现，象征;代表，代理;扮演;作为示范</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>底部;末端;臀部;尽头 到达底部;建立基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独的;独一无二的;独自的  单独地;独自地;孤独地;只，只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[动]鲸，鲸鱼;巨大的事物</t>
+  </si>
+  <si>
+    <t>X光照片</t>
+  </si>
+  <si>
+    <t>奶牛，乳牛;母兽;雌（象，鲸等）;&lt;侮辱&gt;对女性的蔑称</t>
+  </si>
+  <si>
+    <t>问，询问;需要;要求，请求;邀请 询问;邀请;请求允许;要价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然的，未预见到的;急躁的，仓促的;快的，迅速的;急剧</t>
+  </si>
+  <si>
+    <t>自从;从…以来;自从…之后</t>
+  </si>
+  <si>
+    <t>属于;是…的成员;应被放在;适应</t>
+  </si>
+  <si>
+    <t>鲨鱼;坑蒙拐骗的人，诈骗者;[俚]老手</t>
+  </si>
+  <si>
+    <t>每天的;日常的，平常的;普通的;经常</t>
+  </si>
+  <si>
+    <t>礼貌的;有教养的，文雅的;上流社会的;应酬的，客套的</t>
+  </si>
+  <si>
+    <t>不礼貌的，失礼的，粗鲁的;不客气;悖礼;非礼</t>
+  </si>
+  <si>
+    <t>溶液;解决;溶解;答案 处理问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过;（表示等级）在…之上;（表示位置）在…正上方 上述的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每;每个;所有可能的;充足的</t>
+  </si>
+  <si>
+    <t>脸;表面;面容;方面 面对;面向…;正视;承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤，羹;浓雾;硝化甘油炸药;困境</t>
+  </si>
+  <si>
+    <t>双的;两倍的;两面派的;双人用的 使加倍;把…对折;重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自豪的，得意的;光荣的，高尚的;傲慢的;有自尊心的</t>
+  </si>
+  <si>
+    <t>害羞的;怕羞的;害怕（做）;&lt;美&gt;缺乏的</t>
+  </si>
+  <si>
+    <t>功课;家庭作业</t>
+  </si>
+  <si>
+    <t>永远;曾经，这以前;究竟，到底;可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小的;难为情的;低级的，卑劣的;细微的，微弱的</t>
+  </si>
+  <si>
+    <t>西，西部，西方 向西，朝西;自西方;向西方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力争取(for);苦干;详细分析 劳动;劳工;努力;工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间，太空;空白，间隔;空隙;片刻</t>
+  </si>
+  <si>
+    <t>钥匙;（打字机等的）键;关键，线索，秘诀;（音乐的）调 关键的;主要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老的;古老的;以前的;（用于指称被替代的东西）原来的</t>
+  </si>
+  <si>
+    <t>游戏，运动;比赛，竞赛;诡计;猎物 打赌，赌输赢;赌输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大地;夸大地;详细地;顺风地 大的;大规模的;大型号的;广泛的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗅，闻;闻出，发觉，查出;发出…的气味</t>
+  </si>
+  <si>
+    <t>星期日，星期天;每逢星期日出版的报纸;星期日报;[人名] 森迪</t>
+  </si>
+  <si>
+    <t>一个;（数字）一;（基数）一，第一</t>
+  </si>
+  <si>
+    <t>喜欢;欣赏;享有，享受;使过得快活</t>
+  </si>
+  <si>
+    <t>我们的</t>
+  </si>
+  <si>
+    <t>丑陋的;难看的;有敌意的;不祥的</t>
+  </si>
+  <si>
+    <t>羊，绵羊;胆小鬼;易受人摆布的人;缺乏主见或轻易盲从的人</t>
+  </si>
+  <si>
+    <t>人民;人，人类;居民;种族   居住于，布满;使住满人，在…殖民;把动物放养在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在楼上，往楼上;在高空</t>
+  </si>
+  <si>
+    <t>鸟，禽;&lt;俚&gt;少女，姑娘，人，家伙，东西;&lt;口&gt;飞机，火箭，导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻烦;故障;烦恼;动乱 使烦恼;折磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗;斗争;打架;吵架</t>
+  </si>
+  <si>
+    <t>鸭肉;鸭子，野鸭;（表示友好的称呼）躲避，回避;潜入;忽然低下头（或弯下腰）;迅速行进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快的;走得快;感光快的;紧的</t>
+  </si>
+  <si>
+    <t>他们的;他的或她的</t>
+  </si>
+  <si>
+    <t>发音，读 宣布，宣称;演讲，讲述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己，自身;亲自，自行;其;亲手</t>
+  </si>
+  <si>
+    <t>切成片;切下;划分 薄片;一部分;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚;底部;英尺(=12 英寸或 30。48 厘米);脚步</t>
+  </si>
+  <si>
+    <t>量，数量;总额;本利之和;全部效果，全部含义 等同，接近;合计，总共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋，（室内）便鞋;</t>
+  </si>
+  <si>
+    <t>火鸡;蠢货;失败之作</t>
+  </si>
+  <si>
+    <t>国际的;两国（或以上）国家的;超越国界的;国际关系的 国际组织;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敞开的，开着的;公开的，公共的;坦率的;有议论余地的  打开;开始;睁开;启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二的;次要的;居第二位的;另外的  秒;瞬间;次货;第二份食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>百万的;无数的</t>
+  </si>
+  <si>
+    <t>各位;每人，人人;大伙儿</t>
+  </si>
+  <si>
+    <t>车站;所，局;身份;电视台 配置，安置;驻扎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美好的，愉快的;正派的;友好的，亲切的;细致的</t>
+  </si>
+  <si>
+    <t>树;木料;树状图;宗谱 把…赶上树;使处于困境;把鞋型插入（鞋内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸;一口气;呼吸力;微量</t>
+  </si>
+  <si>
+    <t>资本;首都;资源;大写字母 资本的;首都的;极好的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做，制造;生产，制定;使成为;使产生</t>
+  </si>
+  <si>
+    <t>十二;十二个;十二点钟;十二岁</t>
+  </si>
+  <si>
+    <t>九月;[电影]情怀九月天</t>
+  </si>
+  <si>
+    <t>动词;动词结构</t>
+  </si>
+  <si>
+    <t>象，大象</t>
+  </si>
+  <si>
+    <t>航行;起航;驾驶帆船 帆状物;航行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是;或，或者;不然，否则;左右</t>
+  </si>
+  <si>
+    <t>特别地;专门地;特意地;格外地</t>
+  </si>
+  <si>
+    <t>块;街区;&lt;英&gt;大楼，大厦;障碍物，阻碍 阻止;阻塞;限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许，任由;让，随;假设;出租</t>
+  </si>
+  <si>
+    <t>磅;英镑;兽栏;重击声 连续重击;咚咚地走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许;可能;大概</t>
+  </si>
+  <si>
+    <t>失去;错过;遗失;耽搁</t>
+  </si>
+  <si>
+    <t>杯子;一杯（的量）;（胸罩的）罩杯;优胜杯</t>
+  </si>
+  <si>
+    <t>（表示方向）向;（表示对象）对;（表示位置）在…上;（表示时间）在…之时</t>
+  </si>
+  <si>
+    <t>义务;职责，责任;职责或工作;税收</t>
+  </si>
+  <si>
+    <t>浪费，白费，挥霍钱财;废料，废品，废物;荒地，荒芜;</t>
+  </si>
+  <si>
+    <t>旅行指南</t>
+  </si>
+  <si>
+    <t>富有的;肥沃的;丰富多彩的;油腻的</t>
+  </si>
+  <si>
+    <t>物主，所有人</t>
+  </si>
+  <si>
+    <t>女人，妇女;成年女子;女拥人或女下属;女人本能</t>
+  </si>
+  <si>
+    <t>（人或车辆）行列，长队;辫子 （使）排队，列队等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线条;排;行列;界线 形成一层;排队;击出平直球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习;运动，训练;运用;典礼</t>
+  </si>
+  <si>
+    <t>提高（土地、地产）的价值;利用（机会）;改善，改良</t>
+  </si>
+  <si>
+    <t>缺席的，不在场的;缺少的，缺乏的;不在意的，茫然的</t>
+  </si>
+  <si>
+    <t>自己的事物;自己人</t>
+  </si>
+  <si>
+    <t>花费;度过;消耗;花（时间） 花销，花费，开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备，装备;器材，配件;（工作必需的）知识，素养</t>
+  </si>
+  <si>
+    <t>感觉，官能;意识，观念;理性;识别力 感到;理解，领会;检测出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样;很;（表示程度）这么;同样 如此;这样;大约;左右 如此的;真的;事实如此的;整齐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去的;迷路的;不知所措 遗失，失去（ lose的过去式和过去分词）;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串;绳子，带子;线丝，植物纤维; 使排成一行或一系列; [计算机科学]字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪;情感，感情;感动，激动</t>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesterday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outstanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>especially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>president</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>july</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jungle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifteenth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpleasant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indoors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>such</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>army</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e某tion（心神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故意的家伙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了自由free而逃跑flee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我un不（能）的伤口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su - PP屁屁 er人 ---&gt; 2个PP人去吃晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个,rm动作 ---&gt; 前肢，扶手，装备，支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 出，stand站，ing 站出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸我I喜欢Like的简写：silk ---&gt; 丝绸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC文件CI费可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change am --&gt;cham(成为PI匹克）ON冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个好朋友：probably &amp; maybe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serv服务ant蚂蚁 ---&gt;服务的蚂蚁是公务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specially</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>let</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maybe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guidebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exercise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>improve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>absent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞图玩day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伟瑟 --&gt; 伟大的智慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s print read 展开才可以阅读..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ache for --&gt;渴望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哭吻嗯 ---&gt;女王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯壳儿特 ---&gt;外围，裙子，边缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f附着耳朵（ear）说 ----&gt; 害怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夯嗝儿 ---&gt; 饿了饿了..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多的吃 ---&gt; 数字3月，进展，行军…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈锐 ---&gt; 催促，加快，匆忙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S蛇 ---&gt; 成熟的(old) I 我 er 人称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客乐而可 ---&gt; 店员，职员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>con（来)ference 三只鹅来开会，会议…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in在，dus大肆try尝试 ---&gt; 产业，勤劳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新，第1次，出现--&gt;描述，象征，扮演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包土墓 ---&gt; 底部， 臀部，底下的，最下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到鲸鱼时惊奇的声音：whale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ansible里面的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一瞬家傻瞪着了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be属于一个长队伍（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im表示反转?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样撸掉问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导奥博偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东部，向东方，来自东方的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义斯特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>west</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西方的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外斯特（外国）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（lab实验室)or或者去劳动…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上up，st爱rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烦哎特（me)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝来丝 ---&gt; 切成片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a一个挂载，里面有总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s力pp人（PP人穿拖鞋）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音-土耳其，涂儿（钥匙）吃火鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这么长的单词一定是国际的世界性的了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>才第二个啊，se kern de</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海 railway station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain 船长 / capital 首都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛博坦被儿（太热的季节9）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S爱l --》 (自由的）航行！！【mail 邮件】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEC文件（I我）all（全部）Y 对的-&gt;特别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock - 锁住，加B就是苏塞了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屁扰的骄傲…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇！谁特（么的浪费）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXE R塞泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send送，ab-&gt;反义  absent 缺席没来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spend …. On ….. 花XXX在XXX方面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip--&gt;装备 ment“修饰equip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>森斯（审视） SEnSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e某tion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;美&gt;妈妈</t>
-  </si>
-  <si>
-    <t>标准，规格;旗，军旗;度量衡标准;直立支柱 标准的，合格的;普遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的，有智慧的;博学的，博识的;明白的;像智者的 了解，知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开;伸开;（使）传播;（使）散布 涂;把…覆盖在…上(over);把…敲平;散发（气、烟等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况;例子，实例;要求，建议;[法]诉讼手续</t>
-  </si>
-  <si>
-    <t>疼痛;渴望</t>
-  </si>
-  <si>
-    <t>女王;王后;杰出女性;（纸牌中的）王后， （国际象棋中的）后</t>
-  </si>
-  <si>
-    <t>裙子;边缘; 位于…的边缘;沿…的边缘走;绕开;避开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>害怕;可能性;（对神等的）敬畏;忧虑 害怕;畏惧;为…忧虑（或担心、焦虑）;敬畏（神等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女朋友;女性朋友</t>
-  </si>
-  <si>
-    <t>饿，饥饿;欲望</t>
-  </si>
-  <si>
-    <t>（坚定地向某地）前进;行军，进军;游行示威;进展，进行 使前进;使行军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告，告诫;通知;预告</t>
-  </si>
-  <si>
-    <t>匆忙，急忙 仓促（做某事）;催促;（朝某方向）迅速移动;迅速处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生意;商业，交易;事务，业务;职业，行业</t>
-  </si>
-  <si>
-    <t>士兵;战士;军人 坚持;硬挺着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员;书记员;办事员，职员;&lt;古&gt;牧师，教士</t>
-  </si>
-  <si>
-    <t>方法;道路;方向;某方面</t>
-  </si>
-  <si>
-    <t>conference</t>
-  </si>
-  <si>
-    <t>会议;讨论;（正式）讨论会;[工会、工党用语]（每年的）大会  举行或参加（系列）会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业;产业（经济词汇）;工业界;勤劳</t>
-  </si>
-  <si>
-    <t>表现，象征;代表，代理;扮演;作为示范</t>
-  </si>
-  <si>
-    <t>represent</t>
-  </si>
-  <si>
-    <t>底部;末端;臀部;尽头 到达底部;建立基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单独的;独一无二的;独自的  单独地;独自地;孤独地;只，只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[动]鲸，鲸鱼;巨大的事物</t>
-  </si>
-  <si>
-    <t>X光照片</t>
-  </si>
-  <si>
-    <t>奶牛，乳牛;母兽;雌（象，鲸等）;&lt;侮辱&gt;对女性的蔑称</t>
-  </si>
-  <si>
-    <t>问，询问;需要;要求，请求;邀请 询问;邀请;请求允许;要价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然的，未预见到的;急躁的，仓促的;快的，迅速的;急剧</t>
-  </si>
-  <si>
-    <t>自从;从…以来;自从…之后</t>
-  </si>
-  <si>
-    <t>属于;是…的成员;应被放在;适应</t>
-  </si>
-  <si>
-    <t>鲨鱼;坑蒙拐骗的人，诈骗者;[俚]老手</t>
-  </si>
-  <si>
-    <t>每天的;日常的，平常的;普通的;经常</t>
-  </si>
-  <si>
-    <t>礼貌的;有教养的，文雅的;上流社会的;应酬的，客套的</t>
-  </si>
-  <si>
-    <t>不礼貌的，失礼的，粗鲁的;不客气;悖礼;非礼</t>
-  </si>
-  <si>
-    <t>溶液;解决;溶解;答案 处理问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过;（表示等级）在…之上;（表示位置）在…正上方 上述的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每;每个;所有可能的;充足的</t>
-  </si>
-  <si>
-    <t>脸;表面;面容;方面 面对;面向…;正视;承认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤，羹;浓雾;硝化甘油炸药;困境</t>
-  </si>
-  <si>
-    <t>双的;两倍的;两面派的;双人用的 使加倍;把…对折;重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自豪的，得意的;光荣的，高尚的;傲慢的;有自尊心的</t>
-  </si>
-  <si>
-    <t>害羞的;怕羞的;害怕（做）;&lt;美&gt;缺乏的</t>
-  </si>
-  <si>
-    <t>功课;家庭作业</t>
-  </si>
-  <si>
-    <t>永远;曾经，这以前;究竟，到底;可能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小的;难为情的;低级的，卑劣的;细微的，微弱的</t>
-  </si>
-  <si>
-    <t>西，西部，西方 向西，朝西;自西方;向西方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力争取(for);苦干;详细分析 劳动;劳工;努力;工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间，太空;空白，间隔;空隙;片刻</t>
-  </si>
-  <si>
-    <t>钥匙;（打字机等的）键;关键，线索，秘诀;（音乐的）调 关键的;主要的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老的;古老的;以前的;（用于指称被替代的东西）原来的</t>
-  </si>
-  <si>
-    <t>游戏，运动;比赛，竞赛;诡计;猎物 打赌，赌输赢;赌输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大地;夸大地;详细地;顺风地 大的;大规模的;大型号的;广泛的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗅，闻;闻出，发觉，查出;发出…的气味</t>
-  </si>
-  <si>
-    <t>星期日，星期天;每逢星期日出版的报纸;星期日报;[人名] 森迪</t>
-  </si>
-  <si>
-    <t>一个;（数字）一;（基数）一，第一</t>
-  </si>
-  <si>
-    <t>喜欢;欣赏;享有，享受;使过得快活</t>
-  </si>
-  <si>
-    <t>我们的</t>
-  </si>
-  <si>
-    <t>丑陋的;难看的;有敌意的;不祥的</t>
-  </si>
-  <si>
-    <t>羊，绵羊;胆小鬼;易受人摆布的人;缺乏主见或轻易盲从的人</t>
-  </si>
-  <si>
-    <t>人民;人，人类;居民;种族   居住于，布满;使住满人，在…殖民;把动物放养在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在楼上，往楼上;在高空</t>
-  </si>
-  <si>
-    <t>鸟，禽;&lt;俚&gt;少女，姑娘，人，家伙，东西;&lt;口&gt;飞机，火箭，导弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻烦;故障;烦恼;动乱 使烦恼;折磨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗;斗争;打架;吵架</t>
-  </si>
-  <si>
-    <t>鸭肉;鸭子，野鸭;（表示友好的称呼）躲避，回避;潜入;忽然低下头（或弯下腰）;迅速行进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快的;走得快;感光快的;紧的</t>
-  </si>
-  <si>
-    <t>他们的;他的或她的</t>
-  </si>
-  <si>
-    <t>发音，读 宣布，宣称;演讲，讲述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己，自身;亲自，自行;其;亲手</t>
-  </si>
-  <si>
-    <t>切成片;切下;划分 薄片;一部分;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚;底部;英尺(=12 英寸或 30。48 厘米);脚步</t>
-  </si>
-  <si>
-    <t>量，数量;总额;本利之和;全部效果，全部含义 等同，接近;合计，总共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖鞋，（室内）便鞋;</t>
-  </si>
-  <si>
-    <t>火鸡;蠢货;失败之作</t>
-  </si>
-  <si>
-    <t>国际的;两国（或以上）国家的;超越国界的;国际关系的 国际组织;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敞开的，开着的;公开的，公共的;坦率的;有议论余地的  打开;开始;睁开;启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二的;次要的;居第二位的;另外的  秒;瞬间;次货;第二份食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>百万的;无数的</t>
-  </si>
-  <si>
-    <t>各位;每人，人人;大伙儿</t>
-  </si>
-  <si>
-    <t>车站;所，局;身份;电视台 配置，安置;驻扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美好的，愉快的;正派的;友好的，亲切的;细致的</t>
-  </si>
-  <si>
-    <t>树;木料;树状图;宗谱 把…赶上树;使处于困境;把鞋型插入（鞋内）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吸;一口气;呼吸力;微量</t>
-  </si>
-  <si>
-    <t>资本;首都;资源;大写字母 资本的;首都的;极好的;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做，制造;生产，制定;使成为;使产生</t>
-  </si>
-  <si>
-    <t>十二;十二个;十二点钟;十二岁</t>
-  </si>
-  <si>
-    <t>九月;[电影]情怀九月天</t>
-  </si>
-  <si>
-    <t>动词;动词结构</t>
-  </si>
-  <si>
-    <t>象，大象</t>
-  </si>
-  <si>
-    <t>航行;起航;驾驶帆船 帆状物;航行距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是;或，或者;不然，否则;左右</t>
-  </si>
-  <si>
-    <t>特别地;专门地;特意地;格外地</t>
-  </si>
-  <si>
-    <t>块;街区;&lt;英&gt;大楼，大厦;障碍物，阻碍 阻止;阻塞;限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许，任由;让，随;假设;出租</t>
-  </si>
-  <si>
-    <t>磅;英镑;兽栏;重击声 连续重击;咚咚地走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也许;可能;大概</t>
-  </si>
-  <si>
-    <t>失去;错过;遗失;耽搁</t>
-  </si>
-  <si>
-    <t>杯子;一杯（的量）;（胸罩的）罩杯;优胜杯</t>
-  </si>
-  <si>
-    <t>（表示方向）向;（表示对象）对;（表示位置）在…上;（表示时间）在…之时</t>
-  </si>
-  <si>
-    <t>义务;职责，责任;职责或工作;税收</t>
-  </si>
-  <si>
-    <t>浪费，白费，挥霍钱财;废料，废品，废物;荒地，荒芜;</t>
-  </si>
-  <si>
-    <t>旅行指南</t>
-  </si>
-  <si>
-    <t>富有的;肥沃的;丰富多彩的;油腻的</t>
-  </si>
-  <si>
-    <t>物主，所有人</t>
-  </si>
-  <si>
-    <t>女人，妇女;成年女子;女拥人或女下属;女人本能</t>
-  </si>
-  <si>
-    <t>（人或车辆）行列，长队;辫子 （使）排队，列队等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线条;排;行列;界线 形成一层;排队;击出平直球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练习;运动，训练;运用;典礼</t>
-  </si>
-  <si>
-    <t>提高（土地、地产）的价值;利用（机会）;改善，改良</t>
-  </si>
-  <si>
-    <t>缺席的，不在场的;缺少的，缺乏的;不在意的，茫然的</t>
-  </si>
-  <si>
-    <t>自己的事物;自己人</t>
-  </si>
-  <si>
-    <t>花费;度过;消耗;花（时间） 花销，花费，开销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备，装备;器材，配件;（工作必需的）知识，素养</t>
-  </si>
-  <si>
-    <t>感觉，官能;意识，观念;理性;识别力 感到;理解，领会;检测出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样;很;（表示程度）这么;同样 如此;这样;大约;左右 如此的;真的;事实如此的;整齐的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去的;迷路的;不知所措 遗失，失去（ lose的过去式和过去分词）;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>串;绳子，带子;线丝，植物纤维; 使排成一行或一系列; [计算机科学]字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情绪;情感，感情;感动，激动</t>
-  </si>
-  <si>
-    <t>program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>love</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yesterday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avoid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ninth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>know</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>care</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outstanding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>produce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>champion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>her</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>probably</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>especially</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>immediately</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phrase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>five</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>president</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>because</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>travel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>behind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>english</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>young</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thrill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>july</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jungle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>couple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fifteenth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>laugh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>math</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unpleasant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>natual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>translate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indoors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dessert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>three</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eighth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>such</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>also</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>either</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>army</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retain</t>
+    <t>specific  / specially /都和特别有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mate  同伴/配偶 rial ----&gt; 材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯屁吃 吃屁斯 ---&gt; 说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rase 消除; 破坏 phrase ---&gt; 短语…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累test（测试） ---&gt; 最近的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  事件, 原因, 物质</t>
+    </r>
+  </si>
+  <si>
+    <t>matter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU IT 一套IT系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">渴rea么 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th R ill病的 生病的人不宜太激动，颤抖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis miss放出，送…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿钢笔pen的母鸡hen （母鸡hen好吃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a couple of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个，一对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEE看到的过去式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dargen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux里的快捷方式 ln -s（symbol）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个e都收到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P迟到late ---&gt; 盘子迟的东西早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵 害怕---&gt; fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan计划很清晰明白质朴朴素--&gt;plain（I）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fri  ---&gt;星期里表示5 five</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleased高兴/满足的 ,un不高兴的蚂蚁pleasant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door门，s在门里面 indoors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ten 10 里面有个e 青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭后弟瑟儿特甜~~！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster 是广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序;节目，节目单;计划，安排</t>
+  </si>
+  <si>
+    <t>七;七个;第七</t>
+  </si>
+  <si>
+    <t>向下;（坐、倒、躺）下;（表示范围或顺序的限度）下至</t>
+  </si>
+  <si>
+    <t>喜欢;爱，热爱;爱戴;赞美，称赞</t>
+  </si>
+  <si>
+    <t>藏书;图书馆，藏书楼;书屋，书斋;图书出租处</t>
+  </si>
+  <si>
+    <t>两次;两倍;两遍</t>
+  </si>
+  <si>
+    <t>昨天;往昔;&lt;正式&gt;过去</t>
+  </si>
+  <si>
+    <t>家伙，伙计;</t>
+  </si>
+  <si>
+    <t>明星;星;星级;星状物</t>
+  </si>
+  <si>
+    <t>危险;危险物，威胁</t>
+  </si>
+  <si>
+    <t>成功;继承 继承，继任，继位;随…之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑板</t>
+  </si>
+  <si>
+    <t>逃走，逃掉;消失</t>
+  </si>
+  <si>
+    <t>避开，避免，预防;[法]使无效，撤销，废止</t>
+  </si>
+  <si>
+    <t>主题，话题;学科，科目;[哲]主观</t>
+  </si>
+  <si>
+    <t>带子;卷尺;胶带，磁带</t>
+  </si>
+  <si>
+    <t>关于;大约;在…周围 在起作用的;在流行中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;美&gt;公用厕所，盥洗室，卫生间</t>
+  </si>
+  <si>
+    <t>第九;九分之一</t>
+  </si>
+  <si>
+    <t>月，月份;一个月的时间</t>
+  </si>
+  <si>
+    <t>剩余物，残骸;残余;遗迹;遗体 保持;依然;留下;留待 逗留;终属，归于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤口;创伤;伤害</t>
+  </si>
+  <si>
+    <t>建议;劝告，忠告;（商业）通知;（政治，外交上的）报导，报告</t>
+  </si>
+  <si>
+    <t>兔子，野兔;兔子皮毛;兔子肉;</t>
+  </si>
+  <si>
+    <t>晚饭，晚餐;夜点心;晚餐会</t>
+  </si>
+  <si>
+    <t>知道;了解;认识;确信</t>
+  </si>
+  <si>
+    <t>臂;武器;[复数]战事;权力 准备（斗争），准备行动（against）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开;放弃，抛弃;停止，中断;偿清</t>
+  </si>
+  <si>
+    <t>照顾;关心;担心;喜爱</t>
+  </si>
+  <si>
+    <t>十，十个;第十</t>
+  </si>
+  <si>
+    <t>客人;旅客;特邀嘉宾;[动]寄生虫</t>
+  </si>
+  <si>
+    <t>狗;蹩脚货;丑女人;卑鄙小人</t>
+  </si>
+  <si>
+    <t>杰出的;显著的;凸出的;未完成的</t>
+  </si>
+  <si>
+    <t>丝，蚕丝;丝绸，丝织物;（用于缝纫的）丝线; 丝绸的;丝的;丝制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集，联合（起来） 带;乐队;衣带;价值 给…镶边;用带绑扎;划分档次;把…联合起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的;明确的;特种的;[免疫学]特效的 特效药;特性;细节;显著的性质，特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生;生产;制作;创作 制造;出示;引起;[经济学]生利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠军;捍卫者，拥护者;战士 优胜的;第一流的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部的;地方的;当地的，本地的;褊狭的</t>
+  </si>
+  <si>
+    <t>(she的宾格)她;(she的所有格)她的;她，指某个国家，（一艘）船</t>
+  </si>
+  <si>
+    <t>大概;或许;很可能;备不住</t>
+  </si>
+  <si>
+    <t>远处;距离，路程;疏远;（时间的）间隔，长久 把…远远甩在后面;疏远;与…保持距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河，江;溪，巨流</t>
+  </si>
+  <si>
+    <t>仆人，佣人，雇工;[美]奴仆，奴隶;官吏，公务员，服务员;随员，献身…的人</t>
+  </si>
+  <si>
+    <t>组，团体;群，批;（雕塑等的）群像;（英美的）空军大队 使成群，集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上面，在高处;起床，起来;向上;由低到高 向上的;上升的;竖立的，垂直的;举起的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员;分子;身体部位（尤指胳膊或腿）;构件，部件</t>
+  </si>
+  <si>
+    <t>尤其地;主要地，格外地;显著地;异常地</t>
+  </si>
+  <si>
+    <t>立即，马上;直接地;紧接地 一…就，即刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材;材料，原料;布，织物;适当人选 物质的;肉体的;重要的，决定性的;辩证的，推论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语;乐句;说法;&lt;语&gt;短语 叙述，措词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演说，演讲，发言;说话，谈话，说话能力或方式;</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五;五，五个;与某人击掌问候（或庆祝胜利） 五，五个;5美元钞票;[板]得五分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字架;十字形饰物;杂交品种;痛苦 交错而行;横渡;越境  杂交;横跨，穿越;划掉;使相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新事物;最新消息 最新的;最近的;最现代的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;金属元素;成色;金色 以金属覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总统;总裁;校长;董事长</t>
+  </si>
+  <si>
+    <t>谢谢，感谢;责怪，把…归于</t>
+  </si>
+  <si>
+    <t>因为</t>
+  </si>
+  <si>
+    <t>诉讼;一套外衣;西装，套装;恳求  适合于（某人）;尤指服装、颜色等相配;合身;适宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行;（条形的）堆;（河的）岸;库存</t>
+  </si>
+  <si>
+    <t>晚餐;宴会;正餐，主餐</t>
+  </si>
+  <si>
+    <t>飞;飞行;（旗）飘荡;过得快 乘（…的）飞机;驾驶（飞机等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行;进行;移动;漫游 旅行;传送;前进，行进;[篮球]走步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿的;下雨的;懦弱的;（儿童）尿湿尿布的 湿地;液体;窝囊废;雨天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（表示位置）在…的后面;支持;（表示顺序）在身后;（表示比较）落后于</t>
+  </si>
+  <si>
+    <t>英语的;英国的;英格兰的;英格兰人的</t>
+  </si>
+  <si>
+    <t>平静的;镇定的;（海洋，天气等）安静的，平静的;（人）从容不迫的</t>
+  </si>
+  <si>
+    <t>cal M（空么）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年幼的;青年的;有朝气的;年轻人的</t>
+  </si>
+  <si>
+    <t>乳霜;精英;奶油色;乳脂，奶油</t>
+  </si>
+  <si>
+    <t>场面，现场;（戏剧的）一场;景色，风景;事件</t>
+  </si>
+  <si>
+    <t>使激动;使陶醉;使颤动、战栗或振动  [病]震颤;震颤感;兴奋感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>（热带）丛林;丛林音乐;乱七八糟的一堆事物;尔虞我诈的环境</t>
+  </si>
+  <si>
+    <t>解雇，把…免职;遣散，解散（队伍等）;驳回，拒绝受理;搁置</t>
+  </si>
+  <si>
+    <t>母鸡;雌禽;女人</t>
+  </si>
+  <si>
+    <t>对，双;配偶，夫妻;&lt;口&gt;几个，两三个  连在一起，连接;成双，结婚;性交，交配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公鸡;龙头;成熟雄鸟;首领，领导 翘起，竖起;大摇大摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡;少妇;小鸟;&lt;口&gt;小姐</t>
+  </si>
+  <si>
+    <t>符号;象征;标志;记号</t>
+  </si>
+  <si>
+    <t>第十五;十五分之一</t>
+  </si>
+  <si>
+    <t>收到;接待;接到;接纳</t>
+  </si>
+  <si>
+    <t>盘子，盆子;金属板;均匀厚度的片状硬物体;[摄]底片，感光版</t>
+  </si>
+  <si>
+    <t>走;步行;散步  牵着（动物）走，遛，赶着…走</t>
+  </si>
+  <si>
+    <t>零度;（数字）0  全无的，没有的 聚焦，集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情，友谊;友善的关系;友善，好意</t>
+  </si>
+  <si>
+    <t>耳朵;穗;听觉，听力;耳状物</t>
+  </si>
+  <si>
+    <t>平原;平地;朴实无华的东西 平的;素的;清晰的;相貌平平的 清楚地，明白地;平易地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器，机械;机械般的人;核心 用机器制造，用机器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待;等候;（尤指长期地）希望;盼望</t>
+  </si>
+  <si>
+    <t>笑;发笑;嘲笑;（特别表示因成功而）处于有利地位  笑;笑声;引人发笑的事或人;笑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学（等于mathematics）</t>
+  </si>
+  <si>
+    <t>星期五，周五，礼拜五;</t>
+  </si>
+  <si>
+    <t>吃，喝  吃完;吃得使;侵蚀成</t>
+  </si>
+  <si>
+    <t>讨厌的;使人不愉快的;不合意的;不客气的</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>自然的;天生的;物质的;不做作的</t>
+  </si>
+  <si>
+    <t>睡着的;休眠的;麻木的;已死的 熟睡地;处于麻木不仁的状态;长眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有的，私人的;秘密的;内心的;平民的，无官职的，士兵的 古〉私人，个人;阴部，生殖器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译;转化;解释;被翻译</t>
+  </si>
+  <si>
+    <t>刀;匕首;刃部;手术刀  切割，刺;伤害  劈开;划过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屋里;在室内，在户内</t>
+  </si>
+  <si>
+    <t>奶;母乳;乳液  挤奶;榨取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉;认为;触摸;试探  感觉，觉得;认为，以为;触摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型;铅字;（印刷或打印的）文字;于…类型的</t>
+  </si>
+  <si>
+    <t>（使）急速行进，仓促完成;猛攻;急速流动，奔腾 突袭;（使）仓促行事;催促;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青少年（等于teenager）;伤害，损坏;痛苦，悲伤;愤怒</t>
+  </si>
+  <si>
+    <t>偶像，崇拜物;幽灵;谬论;幻觉</t>
+  </si>
+  <si>
+    <t>甜点;餐后甜食</t>
+  </si>
+  <si>
+    <t>ID偶乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使）落下;投下;（使）降低;减少 放弃;停止;（故意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三;三个;第三（章，页等）</t>
+  </si>
+  <si>
+    <t>岗位;邮政;邮件;柱，桩， 张贴;邮寄;宣布;设岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八分之一;第八，八号</t>
+  </si>
+  <si>
+    <t>这样的;如此的;这么大的;非常的</t>
+  </si>
+  <si>
+    <t>将（某物）切开（或分割 削减;切成;剪切;删剪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵;鸡蛋，蛋;&lt;俚&gt;家伙 煽动，怂恿;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也;同样;并且</t>
+  </si>
+  <si>
+    <t>方法;条理</t>
+  </si>
+  <si>
+    <t>（两者之中）任何一个 （两者中）任一的;非此即彼的，两者择一的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑，笑容  以微笑表示;以微笑完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光滑的;流畅的;柔软的;温和的，安详的  使平滑;排除，消除;安抚，平息;使优雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队;陆军;团体;野战军</t>
+  </si>
+  <si>
+    <t>武装的;有把手的;有防卫器官的  “arm”的过去式和过去分词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持;留在心中，记住;雇用;付定金保留</t>
+  </si>
+  <si>
+    <t>臂;武器;[复数]战事;权力 准备（斗争），准备行动（against）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接来（某人）;使发出;吸引;  取来;抵达，到达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4463,7 +5081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4499,6 +5117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4818,31 +5437,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -4850,13 +5469,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -4864,3939 +5483,4467 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" t="s">
         <v>280</v>
-      </c>
-      <c r="C105" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C147" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" t="s">
         <v>413</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C160" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C172" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C178" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C183" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C184" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C190" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B191" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C191" t="s">
         <v>434</v>
-      </c>
-      <c r="C191" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C192" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C199" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C200" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C201" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C205" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C206" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C207" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C208" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C210" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C224" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C228" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C229" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B246" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C259" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C260" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C262" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C263" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C264" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C265" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C267" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C268" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C270" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C272" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C273" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C275" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C276" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C277" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C278" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C280" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C282" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C284" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C286" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C290" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C291" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C296" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C297" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B298" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C298" t="s">
         <v>714</v>
-      </c>
-      <c r="C298" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C299" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C305" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C319" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C322" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C328" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C330" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C331" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C332" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C333" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C335" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C339" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C343" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C346" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C349" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>662</v>
+        <v>995</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C352" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C360" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C367" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C369" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C371" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C372" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C373" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C377" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B377" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C377" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B378" s="7" t="s">
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B381" s="7" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="7" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B382" s="7" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B380" s="7" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B383" s="7" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="7" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B384" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="7" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B385" s="7" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="7" t="s">
+      <c r="C385" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B386" s="7" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="7" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B387" s="7" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="7" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B388" s="8" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="7" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B389" s="7" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="7" t="s">
+      <c r="C389" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B390" s="7" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="7" t="s">
+      <c r="C390" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B391" s="8" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="7" t="s">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B392" s="7" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="7" t="s">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B393" s="7" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="7" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B394" s="7" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="7" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B395" s="7" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="7" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B396" s="8" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="7" t="s">
+      <c r="C396" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B397" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="7" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B398" s="7" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="7" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B399" s="7" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="7" t="s">
+      <c r="C399" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B400" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="7" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="7" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="7" t="s">
+      <c r="C402" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B403" s="7" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="7" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B404" s="8" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="7" t="s">
+      <c r="C404" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B406" s="7" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="7" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B407" s="7" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="7" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B408" s="7" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="7" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B409" s="7" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="7" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="7" t="s">
+      <c r="C410" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B411" s="7" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="7" t="s">
+      <c r="C411" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B412" s="8" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="7" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B413" s="7" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="7" t="s">
+      <c r="C413" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B414" s="7" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="7" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B415" s="8" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="7" t="s">
+      <c r="C415" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B416" s="7" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="7" t="s">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B417" s="7" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="7" t="s">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B418" s="7" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="7" t="s">
+      <c r="C418" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B419" s="7" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="7" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B420" s="7" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="7" t="s">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B421" s="7" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="7" t="s">
+      <c r="C421" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B422" s="7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="7" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B423" s="7" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="7" t="s">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B424" s="7" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="7" t="s">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B425" s="7" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="7" t="s">
+      <c r="C425" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B426" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="7" t="s">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B427" s="8" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="7" t="s">
+      <c r="C427" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B428" s="8" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="7" t="s">
+      <c r="C428" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B429" s="7" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="7" t="s">
+      <c r="C429" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B430" s="7" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="7" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B431" s="7" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="7" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B432" s="7" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="7" t="s">
+      <c r="C432" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B433" s="7" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="7" t="s">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B434" s="7" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="7" t="s">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B435" s="7" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="7" t="s">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B436" s="7" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="7" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B437" s="7" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="7" t="s">
+      <c r="C437" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B438" s="7" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="7" t="s">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B439" s="7" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="7" t="s">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B440" s="7" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="7" t="s">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B441" s="7" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="7" t="s">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B442" s="8" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="7" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B443" s="7" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="7" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B444" s="7" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="7" t="s">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B445" s="7" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="7" t="s">
+      <c r="C445" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B446" s="7" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="7" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B447" s="7" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="7" t="s">
+      <c r="C447" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B448" s="8" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="7" t="s">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B449" s="7" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" s="7" t="s">
+      <c r="C449" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B450" s="7" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="7" t="s">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B451" s="7" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="7" t="s">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B452" s="7" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="7" t="s">
+      <c r="C452" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B453" s="7" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="7" t="s">
+      <c r="C453" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B454" s="7" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="7" t="s">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B455" s="7" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="7" t="s">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B456" s="7" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="7" t="s">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B457" s="7" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="7" t="s">
+      <c r="C457" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B458" s="7" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="7" t="s">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B459" s="7" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="7" t="s">
+      <c r="C459" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B460" s="7" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="7" t="s">
+      <c r="C460" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B461" s="7" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="7" t="s">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B462" s="7" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="7" t="s">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B463" s="7" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="7" t="s">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B464" s="7" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="7" t="s">
+      <c r="C464" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B465" s="7" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="7" t="s">
+      <c r="C465" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B466" s="7" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="7" t="s">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B467" s="7" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="7" t="s">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B468" s="7" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="7" t="s">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B469" s="7" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="7" t="s">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B470" s="7" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="7" t="s">
+      <c r="C470" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B471" s="7" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="7" t="s">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B472" s="8" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="7" t="s">
+      <c r="C472" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B474" s="7" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="7" t="s">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B475" s="7" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="7" t="s">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B476" s="7" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="7" t="s">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B477" s="7" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="7" t="s">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B478" s="7" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" s="7" t="s">
+      <c r="C478" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B479" s="7" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="7" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B480" s="7" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="7" t="s">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B481" s="7" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="7" t="s">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B482" s="8" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="7" t="s">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B483" s="7" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="7" t="s">
+      <c r="C483" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B485" s="7" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="7" t="s">
+      <c r="C485" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B486" s="7" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="7" t="s">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B487" s="7" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="7" t="s">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B488" s="7" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="7" t="s">
+      <c r="C488" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B489" s="7" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="7" t="s">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B490" s="7" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="7" t="s">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B491" s="7" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="7" t="s">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B492" s="7" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="7" t="s">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B493" s="7" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="7" t="s">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B494" s="7" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="7" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B495" s="7" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="7" t="s">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B496" s="7" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="7" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B497" s="7" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="7" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B498" s="7" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="7" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B499" s="7" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="7" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B500" s="7" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="7" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="7" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="7" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="7" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="7" t="s">
-        <v>985</v>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1165">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,9 +146,6 @@
   <si>
     <t>n 密切关系，姻亲关系;（男女之间的）吸引力，吸引人的异性;类同;类似，近似</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify</t>
   </si>
   <si>
     <t>vt.通知;布告</t>
@@ -4939,6 +4936,38 @@
   </si>
   <si>
     <t>接来（某人）;使发出;吸引;  取来;抵达，到达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5114,10 +5143,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5437,10 +5466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A397" sqref="A397"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5452,20 +5481,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F1" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -5474,12 +5503,12 @@
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="F2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5546,7 +5575,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5557,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5611,4339 +5640,4374 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
         <v>279</v>
-      </c>
-      <c r="C105" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C139" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="s">
         <v>412</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C160" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C161" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C170" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C178" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C183" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C184" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C190" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B191" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C191" t="s">
         <v>433</v>
-      </c>
-      <c r="C191" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C200" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C201" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C206" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C208" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C210" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C224" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C229" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B246" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C259" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C260" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C262" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C263" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C264" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C265" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C267" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C268" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C270" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C272" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C273" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C275" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C276" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="B277" s="7" t="s">
-        <v>760</v>
-      </c>
       <c r="C277" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B278" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="B278" s="7" t="s">
-        <v>762</v>
-      </c>
       <c r="C278" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C280" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C282" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C284" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C286" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C290" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C291" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C296" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C297" t="s">
         <v>710</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C297" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C298" t="s">
         <v>713</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C298" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C305" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C319" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C322" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C328" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C330" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C331" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B332" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C332" t="s">
         <v>721</v>
-      </c>
-      <c r="C332" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C333" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C335" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C339" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C343" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C346" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C351" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C352" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C360" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C367" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C369" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C371" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C372" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C373" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C377" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C385" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C389" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C390" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C396" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C399" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C402" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C404" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C410" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C411" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C413" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C415" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C418" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C421" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C427" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C428" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C429" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C432" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C437" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C445" t="s">
         <v>1097</v>
-      </c>
-      <c r="B445" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C447" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C449" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C452" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C453" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C457" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C459" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C460" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C464" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C465" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C470" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C472" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C473" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C478" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C483" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C484" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C485" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C488" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="15" t="s">
+      <c r="A502" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B502" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="B502" s="7" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="B506" s="7" t="s">
-        <v>1023</v>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="7" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="7" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1234">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2067,13 +2067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主题;话题，论题;标题，细目</t>
-  </si>
-  <si>
-    <t>消极的，否认的;[数]负的;[心]反抗性的; 否定;拒绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肉;食物;实质 重要的;基本的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5314,6 +5307,36 @@
   </si>
   <si>
     <t>光滑的;流畅的;柔软的;温和/安详/优雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>摘要, 概要</t>
+  </si>
+  <si>
+    <t>redistribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新分配; 再分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由重分发里的（注入路由信息到其他路由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题;话题/论题;标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消极的，否认的;[数]负的;[心]反抗性/拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5505,9 +5528,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5539,31 +5559,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5586,6 +5589,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5602,8 +5625,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C1048576" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="0"/>
-    <tableColumn id="2" name="英文" dataDxfId="1"/>
+    <tableColumn id="1" name="中文" dataDxfId="1"/>
+    <tableColumn id="2" name="英文" dataDxfId="0"/>
     <tableColumn id="3" name="联想 / 例句"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5874,55 +5897,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B530" sqref="B530"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
@@ -5931,395 +5954,395 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>1032</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>1035</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>1039</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1041</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>1053</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B35" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
         <v>1057</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1059</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C46" t="s">
@@ -6327,26 +6350,26 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C49" t="s">
@@ -6354,18 +6377,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C51" t="s">
@@ -6373,18 +6396,18 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C53" t="s">
@@ -6392,34 +6415,34 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C57" t="s">
@@ -6427,94 +6450,94 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
         <v>1064</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B66" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1070</v>
-      </c>
-    </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C67" t="s">
@@ -6522,26 +6545,26 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C70" t="s">
@@ -6549,42 +6572,42 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C75" t="s">
@@ -6592,34 +6615,34 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C79" t="s">
@@ -6627,61 +6650,61 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>1072</v>
+      <c r="B81" s="8" t="s">
+        <v>1070</v>
       </c>
       <c r="C81" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C86" t="s">
@@ -6689,21 +6712,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C88" t="s">
@@ -6711,43 +6734,43 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -6755,74 +6778,74 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="B100" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C102" t="s">
@@ -6830,26 +6853,26 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="A104" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B105" s="10" t="s">
+      <c r="A105" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C105" t="s">
@@ -6857,18 +6880,18 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C107" t="s">
@@ -6876,26 +6899,26 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C110" t="s">
@@ -6903,18 +6926,18 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C112" t="s">
@@ -6922,91 +6945,91 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C113" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B117" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="B118" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" t="s">
         <v>1089</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="B121" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C122" t="s">
@@ -7014,10 +7037,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C123" t="s">
@@ -7025,45 +7048,45 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C126" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C128" t="s">
@@ -7071,78 +7094,78 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B135" s="10" t="s">
+      <c r="A135" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C137" t="s">
@@ -7150,10 +7173,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B138" s="10" t="s">
+      <c r="A138" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C138" t="s">
@@ -7161,10 +7184,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B139" s="9" t="s">
+      <c r="A139" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C139" t="s">
@@ -7172,101 +7195,101 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" t="s">
         <v>1101</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1103</v>
-      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C151" t="s">
@@ -7274,91 +7297,91 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" t="s">
         <v>1104</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" t="s">
         <v>1105</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1108</v>
-      </c>
-    </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>355</v>
       </c>
       <c r="C161" t="s">
@@ -7366,61 +7389,61 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C168" t="s">
@@ -7428,18 +7451,18 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C170" t="s">
@@ -7447,72 +7470,72 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C173" t="s">
         <v>1112</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B175" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C178" t="s">
@@ -7520,45 +7543,45 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" t="s">
         <v>1117</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1119</v>
-      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B183" s="10" t="s">
+      <c r="A183" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C183" t="s">
@@ -7566,10 +7589,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B184" s="10" t="s">
+      <c r="A184" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>291</v>
       </c>
       <c r="C184" t="s">
@@ -7577,53 +7600,53 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
+      <c r="A185" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
+      <c r="B187" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="B188" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B190" s="9" t="s">
+      <c r="A190" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C190" t="s">
@@ -7631,10 +7654,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B191" s="9" t="s">
+      <c r="A191" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>376</v>
       </c>
       <c r="C191" t="s">
@@ -7642,10 +7665,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B192" s="10" t="s">
+      <c r="A192" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C192" t="s">
@@ -7653,58 +7676,58 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
+      <c r="B195" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
+      <c r="B196" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
+      <c r="B197" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
+      <c r="B198" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C199" t="s">
@@ -7712,10 +7735,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B200" s="10" t="s">
+      <c r="A200" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C200" t="s">
@@ -7723,45 +7746,45 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
+      <c r="B203" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>304</v>
       </c>
       <c r="C205" t="s">
@@ -7769,10 +7792,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>311</v>
       </c>
       <c r="C206" t="s">
@@ -7780,10 +7803,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C207" t="s">
@@ -7791,10 +7814,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>313</v>
       </c>
       <c r="C208" t="s">
@@ -7802,10 +7825,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>314</v>
       </c>
       <c r="C209" t="s">
@@ -7813,21 +7836,21 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C210" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>316</v>
       </c>
       <c r="C211" t="s">
@@ -7835,106 +7858,106 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B212" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
+      <c r="B214" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
+      <c r="B215" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
+      <c r="B216" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
+      <c r="B217" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
+      <c r="B218" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
+      <c r="B220" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="12" t="s">
+      <c r="B221" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+      <c r="B222" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B221" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
+      <c r="B223" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B222" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C224" t="s">
@@ -7942,34 +7965,34 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="12" t="s">
+      <c r="A225" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="12" t="s">
+      <c r="B227" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B226" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>339</v>
       </c>
       <c r="C228" t="s">
@@ -7977,10 +8000,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="B229" s="10" t="s">
+      <c r="A229" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C229" t="s">
@@ -7988,2657 +8011,2681 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="12" t="s">
+      <c r="B232" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B231" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="12" t="s">
+      <c r="B233" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+      <c r="B236" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="B237" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
+      <c r="B239" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="12" t="s">
+      <c r="B241" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C242" t="s">
         <v>1125</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="12" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B243" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="11" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="12" t="s">
+      <c r="B247" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B248" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B242" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="B250" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="11" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="12" t="s">
+      <c r="B254" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="12" t="s">
+      <c r="B259" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C259" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C260" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="B254" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+      <c r="B261" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B258" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="12" t="s">
+      <c r="B262" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C262" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C263" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C264" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C265" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C267" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="B259" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C259" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C260" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+      <c r="B268" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C268" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C270" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C272" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="11" t="s">
         <v>1135</v>
       </c>
-      <c r="B261" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C262" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C263" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C264" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C265" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C267" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="12" t="s">
+      <c r="B275" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C275" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C276" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C280" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C282" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C284" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C286" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C290" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C291" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="B268" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C268" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="B270" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C270" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C272" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="B273" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C273" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="12" t="s">
+      <c r="B295" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C296" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C297" t="s">
         <v>1137</v>
       </c>
-      <c r="B275" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="C275" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C276" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C278" t="s">
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C298" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C299" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C305" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C319" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C322" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C330" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C331" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C332" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C333" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C335" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C339" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C346" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C351" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C360" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C369" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C371" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C372" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C385" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C389" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="C390" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C280" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C282" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C284" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B286" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C286" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C290" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C291" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C296" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C298" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C299" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B305" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C305" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B311" s="10" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C396" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C399" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C404" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C410" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C411" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C418" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C421" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C428" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="B434" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C437" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B442" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C445" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="C319" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="12" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C322" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="12" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B326" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="12" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C330" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="C331" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="C332" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="B333" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C333" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="B335" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C335" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B336" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C339" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B340" s="9" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="12" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="12" t="s">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C447" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C449" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C451" s="17" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="B452" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C452" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C453" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="B456" s="9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C457" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C459" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="C460" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C464" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C465" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C470" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B472" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C472" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="B473" s="9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C478" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C483" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C485" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B508" s="8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B509" s="8" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B510" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B511" s="8" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B512" s="8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B516" s="9" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B518" s="9" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B519" s="9" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="B343" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="B345" s="10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="12" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B346" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C346" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="B347" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B349" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="B351" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C351" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="B354" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="B360" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C360" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="B364" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="B367" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C369" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="C371" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="B372" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C372" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="B377" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="B380" s="9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="12" t="s">
-        <v>918</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="12" t="s">
-        <v>919</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="12" t="s">
-        <v>920</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="12" t="s">
-        <v>922</v>
-      </c>
-      <c r="B385" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="C385" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="B386" s="9" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="12" t="s">
-        <v>924</v>
-      </c>
-      <c r="B387" s="9" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="B388" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="12" t="s">
-        <v>926</v>
-      </c>
-      <c r="B389" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="C389" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="12" t="s">
-        <v>927</v>
-      </c>
-      <c r="B390" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="B391" s="10" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="B392" s="9" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="B393" s="9" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="12" t="s">
-        <v>932</v>
-      </c>
-      <c r="B395" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="B396" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C396" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="B398" s="10" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="B399" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="C399" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="B400" s="9" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="B401" s="9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="12" t="s">
-        <v>939</v>
-      </c>
-      <c r="B402" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="12" t="s">
-        <v>940</v>
-      </c>
-      <c r="B403" s="9" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="B404" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C404" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="B405" s="9" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="B406" s="9" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="B407" s="9" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="B408" s="9" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="12" t="s">
-        <v>947</v>
-      </c>
-      <c r="B409" s="9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="B410" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C410" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="12" t="s">
-        <v>949</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C411" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="12" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="12" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="12" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="12" t="s">
-        <v>952</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="C418" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="12" t="s">
-        <v>953</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="12" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="C421" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="12" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B422" s="9" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B424" s="9" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="12" t="s">
-        <v>956</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="12" t="s">
-        <v>959</v>
-      </c>
-      <c r="B428" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C428" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="12" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="B430" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="12" t="s">
-        <v>963</v>
-      </c>
-      <c r="B432" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="C432" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="B433" s="9" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="12" t="s">
-        <v>965</v>
-      </c>
-      <c r="B434" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C434" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="12" t="s">
-        <v>966</v>
-      </c>
-      <c r="B435" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="12" t="s">
-        <v>967</v>
-      </c>
-      <c r="B436" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="13" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B437" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="C437" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="B438" s="9" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="B439" s="9" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="12" t="s">
-        <v>970</v>
-      </c>
-      <c r="B440" s="9" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="12" t="s">
-        <v>971</v>
-      </c>
-      <c r="B441" s="9" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="12" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B442" s="10" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="B444" s="9" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="B445" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="B446" s="9" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="B447" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="C447" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="12" t="s">
-        <v>977</v>
-      </c>
-      <c r="B448" s="10" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="12" t="s">
-        <v>978</v>
-      </c>
-      <c r="B449" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="C449" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="B450" s="9" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="B451" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="C451" s="18" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="12" t="s">
-        <v>981</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C452" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="B453" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="C453" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="B454" s="9" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="B455" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C455" t="s">
+      <c r="B524" s="9" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="8" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="12" t="s">
-        <v>985</v>
-      </c>
-      <c r="B456" s="10" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="12" t="s">
-        <v>986</v>
-      </c>
-      <c r="B457" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="C457" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="12" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B458" s="9" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="B459" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="C459" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="12" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B460" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C460" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="B461" s="9" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="12" t="s">
-        <v>989</v>
-      </c>
-      <c r="B462" s="9" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="12" t="s">
-        <v>990</v>
-      </c>
-      <c r="B463" s="9" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="12" t="s">
-        <v>991</v>
-      </c>
-      <c r="B464" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="C464" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="12" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B465" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C465" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="12" t="s">
-        <v>992</v>
-      </c>
-      <c r="B466" s="9" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="B467" s="9" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="12" t="s">
-        <v>994</v>
-      </c>
-      <c r="B468" s="9" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="12" t="s">
-        <v>995</v>
-      </c>
-      <c r="B469" s="9" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="12" t="s">
-        <v>996</v>
-      </c>
-      <c r="B470" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="C470" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="12" t="s">
-        <v>997</v>
-      </c>
-      <c r="B471" s="9" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="12" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B472" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="C472" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="B473" s="10" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B474" s="9" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="12" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B475" s="9" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B476" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B477" s="9" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B478" s="9" t="s">
-        <v>856</v>
-      </c>
-      <c r="C478" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B479" s="9" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="12" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B480" s="9" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="12" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B481" s="9" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="15" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B482" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B483" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="C483" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B484" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="12" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B485" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="C485" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="12" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B486" s="9" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B487" s="9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="12" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B488" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="12" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B489" s="9" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B490" s="9" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B491" s="9" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B492" s="9" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="12" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B493" s="9" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B494" s="9" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B495" s="9" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B496" s="9" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="12" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B529" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="B497" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B498" s="9" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="12" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B499" s="9" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="12" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B500" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B501" s="9" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="15" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B502" s="9" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="12" t="s">
-        <v>898</v>
-      </c>
-      <c r="B503" s="9" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="12" t="s">
-        <v>900</v>
-      </c>
-      <c r="B504" s="9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="12" t="s">
-        <v>902</v>
-      </c>
-      <c r="B505" s="9" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="12" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B506" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="12" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B507" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B508" s="9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B509" s="9" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B510" s="9" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B511" s="9" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B512" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="9" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B516" s="10" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="12" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B517" s="10" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="12" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B518" s="10" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="12" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B519" s="10" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="12" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B520" s="10" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="12" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B521" s="10" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="B522" s="10" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="12" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B523" s="10" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="12" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B524" s="10" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="12" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B525" s="10" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="12" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B526" s="10" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B527" s="10" t="s">
-        <v>1216</v>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B530" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1515">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5337,6 +5337,1084 @@
   </si>
   <si>
     <t>消极的，否认的;[数]负的;[心]反抗性/拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perhaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comfortable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raincoat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>southeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>little</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirteen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>western</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mystery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>father</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comething</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>already</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laboratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺它服（服务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习充满full艰辛，单调无味dull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第格瑞---&gt;第XX程度/身份/地位 agree在1起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假装，装作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谎言，谎话，处于，位于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>believe相信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less 形容词后缀，不，无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无家可归的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打，击中，碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负担，承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should应该的人来 ---&gt; 承担，负担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手，交，给，帮助，指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义均与“手”相关 hand in 上交，hand out 发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rat和mouse都是---&gt; 老鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠rat  老鼠mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in particuler 特别，尤其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲哥拟兹的组织安排有条理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎不，简直不，刚刚/仅仅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard 难得，努力的，坚硬的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨rain 外套coat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺，仓库，储藏，储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声响，噪音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳的阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 文化, 耕种, 修养</t>
+  </si>
+  <si>
+    <t>司机，驾驶员 driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮票，标志，脚踏，盖印章，重步走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘，刀口，优越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅dg鹅 两只鹅在边缘，有优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖牌，奖章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖章medal是由金属matel制作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的，漂亮的，精明的，剧痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile是微笑，smart是聪明的，漂亮的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意lap与leg的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系，关联，亲戚，亲属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了relation家里很轻松relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S蛇的W尾巴 ---&gt; 摇摆，回旋，摆动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creat + ture 生物，动物，创造物，产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south南方 + east东方 = southeast 东南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear梨 bear熊，忍受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊，忍受，负担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了玩具toy欢乐无比joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康health是最大的财富wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新直接：redirect改变方向，改道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一套/副/批 调整/设置/安置/落下/凝结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in general 大体而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与few含义相同，但little修饰不可数名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗓子，喉咙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗞绕特 ---&gt; 喉咙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓/鼓状物，有节奏的敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情，怜悯，可怜，遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒犯，得罪，伤害，违反，不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银，镀银，银器，银币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树木，木材，树林，林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">argument 论据; 辩论; 争论; 缘由; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩论; 主张; 议论; 说服; 争论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：over 海 穿过大海 ---&gt; 海外，在国外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场，股市，销售，出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房，餐具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努尔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex交换change改变，exchange交换，互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果candy   sugar糖，甜言蜜语，使甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b和d之间都是ear耳朵？都是胡须……….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层，层次;膜 /把…分层堆放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运送/运输/流放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译;转化;解释;</t>
+  </si>
+  <si>
+    <t>简洁的;简明的/概要 /简短声明;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树干;躯干;象鼻;汽车车尾的行李箱</t>
+  </si>
+  <si>
+    <t>入口，出口;接近/增长/接近，进入;使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想;协会，社团;联合，联系</t>
+  </si>
+  <si>
+    <t>特权 /权益 / 免责特权;特殊荣幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集;集结;集成;聚集体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…工作;职员/任职于 /参谋的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟钝的;呆滞/阴暗的 /单调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;金属元素;成色;金色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许;（表示不确定）也许; 假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的;庞大的;极大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度/学位 ;[数]度，度数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体;尸体;团体;物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别的;详细的;独有的;特点 详细情节，细情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签，附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织;安排;规划;建立组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停留;停止;坚持;抑制 / 继续处于某种状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟;同事，同胞;同志</t>
+  </si>
+  <si>
+    <t>法;规律;法学;法制 /控告;对…起诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子;孩子;男性后裔;圣子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适的;安逸的，处于轻松的;充裕的</t>
+  </si>
+  <si>
+    <t>雨衣</t>
+  </si>
+  <si>
+    <t>火灾;火，燃烧物;射击 / 热情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动  / 驾驶 /迫使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻居，邻国，邻近的，邻接的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得;牢记</t>
+  </si>
+  <si>
+    <t>腿;支柱，支架;裤腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打招呼;哈喽，喂;你好，您好;表示问候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九;九个;第九</t>
+  </si>
+  <si>
+    <t>秋千;摇摆，摆动;摆程，振幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人 /生物 /创造物 /（他人的）工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担心;烦恼，忧虑;撕咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南地区;东南，东南方，（美国）东南部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯 / 惯例 / 风俗 / 海关 / 关税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜悦，快乐，高兴;令人高兴的事或人;成功;好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吨;大量，许多</t>
+  </si>
+  <si>
+    <t>财产，财富;富豪（阶级）;丰富，大量;繁荣</t>
+  </si>
+  <si>
+    <t>直接的;直的;直系的;率直的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班;阶级;等级;种类 属于…类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意，赞同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎;各种猫科动物;凶恶的人，虎狼之徒</t>
+  </si>
+  <si>
+    <t>生活，生计;生命，性命;一生</t>
+  </si>
+  <si>
+    <t>梦想;做梦;梦见;想到</t>
+  </si>
+  <si>
+    <t>令人惊异的 / 惊奇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予帮助的，有益的;愿意帮忙的</t>
+  </si>
+  <si>
+    <t>普遍的;大致的;综合的;总的，全体的</t>
+  </si>
+  <si>
+    <t>根，根源;原因，本质;祖先</t>
+  </si>
+  <si>
+    <t>小的;琐碎的;娇小的;幼小的 一点;短时间地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题;疑难问题;习题;引起麻烦的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三;十三岁;十三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉;做…的应声虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉爽的;冷静的;一流的;孤傲冷漠的</t>
+  </si>
+  <si>
+    <t>医院;收容所;养老院;〈古〉旅客招待所</t>
+  </si>
+  <si>
+    <t>人;（语法）人称;身体;容貌</t>
+  </si>
+  <si>
+    <t>大声;高声</t>
+  </si>
+  <si>
+    <t>睡，睡觉  为…提供床位;提供住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元;一元纸[硬]币;金钱;财富</t>
+  </si>
+  <si>
+    <t>刺破;刺穿，戳穿;洞察;深深打动</t>
+  </si>
+  <si>
+    <t>支持;支撑;帮助;维持</t>
+  </si>
+  <si>
+    <t>妻子，太太;夫人，老婆;已婚妇女</t>
+  </si>
+  <si>
+    <t>四;四个;第四</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相当，颇 漂亮/ 机灵 /聪明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶心的;晕船;不舒服的;腻烦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，不及格;倒闭 失误；衰退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯;发热灯，照射灯</t>
+  </si>
+  <si>
+    <t>西方的;欧美的</t>
+  </si>
+  <si>
+    <t>开销，代价;花费，费用;牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响;势力;有影响的人（或事物）</t>
+  </si>
+  <si>
+    <t>在[向]海外，在[向]国外</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>巧克力;巧克力色;巧克力糖</t>
+  </si>
+  <si>
+    <t>国家/州  情况 /资格/状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业;工作，任务;苦差事</t>
+  </si>
+  <si>
+    <t>烹调;编造;篡改;密谋</t>
+  </si>
+  <si>
+    <t>而;虽然;在…期间;与…同时</t>
+  </si>
+  <si>
+    <t>八;八个;第八</t>
+  </si>
+  <si>
+    <t>导致;带来，引来;促使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密，谜;神秘，神秘的事物;推理小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士，看护;奶妈，保姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止;中断;逗留;（使）停止工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲;天父;祖先;（尤指天主教和东正教的）神父</t>
+  </si>
+  <si>
+    <t>很，非常;恰好是，正是;十足的;特有的</t>
+  </si>
+  <si>
+    <t>购买，购得 / 交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换;交易所;交易;兑换（率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某物/事/人 非常;有点;大约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早已，已经;先前</t>
+  </si>
+  <si>
+    <t>马铃薯， 土豆，洋芋;土豆块茎</t>
+  </si>
+  <si>
+    <t>糖果;冰糖;</t>
+  </si>
+  <si>
+    <t>胡须</t>
+  </si>
+  <si>
+    <t>代价;价格，价钱;价值;赏金</t>
+  </si>
+  <si>
+    <t>到达，来;发生</t>
+  </si>
+  <si>
+    <t>战争;战争期间;</t>
+  </si>
+  <si>
+    <t>实验室;实验课;研究室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无聊的，无趣的;令人厌烦的;</t>
+  </si>
+  <si>
+    <t>打折扣，减价出售;减息贷款;削价出售，打折;减价，减量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5512,7 +6590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5561,6 +6639,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5897,10 +6978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C745" sqref="C745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10294,7 +11375,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="11" t="s">
         <v>1178</v>
       </c>
       <c r="B482" s="9" t="s">
@@ -10529,41 +11610,65 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="11" t="s">
+        <v>1416</v>
+      </c>
       <c r="B508" s="8" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="11" t="s">
+        <v>1417</v>
+      </c>
       <c r="B509" s="8" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="11" t="s">
+        <v>1418</v>
+      </c>
       <c r="B510" s="8" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="11" t="s">
+        <v>1419</v>
+      </c>
       <c r="B511" s="8" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="11" t="s">
+        <v>1420</v>
+      </c>
       <c r="B512" s="8" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="11" t="s">
+        <v>1421</v>
+      </c>
       <c r="B513" s="8" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="8" t="s">
+      <c r="A514" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B514" s="9" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="11" t="s">
+        <v>1423</v>
+      </c>
       <c r="B515" s="8" t="s">
         <v>1019</v>
       </c>
@@ -10665,7 +11770,10 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="8" t="s">
+      <c r="A528" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B528" s="9" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -10686,6 +11794,1063 @@
       </c>
       <c r="C530" t="s">
         <v>1231</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B532" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B534" s="8" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B538" s="8" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B540" s="8" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B547" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B548" s="8" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B556" s="8" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B558" s="8" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B566" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B568" s="8" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B570" s="8" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B571" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B574" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B576" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B577" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B578" s="8" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B580" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B582" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B583" s="8" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B584" s="8" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B585" s="8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B586" s="8" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B587" s="8" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B588" s="8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B590" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B591" s="8" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B592" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B593" s="8" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B594" s="8" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B598" s="8" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B599" s="8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B600" s="8" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B602" s="8" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B603" s="8" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B604" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B605" s="9" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B606" s="8" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B607" s="8" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B608" s="8" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B609" s="8" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B611" s="8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="11" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B612" s="8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B613" s="8" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B614" s="9" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B615" s="8" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B616" s="8" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B617" s="8" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B618" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="11" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B621" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B622" s="8" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B623" s="8" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B624" s="9" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B625" s="9" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B626" s="8" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B627" s="8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="11" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B628" s="8" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B629" s="8" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B630" s="8" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B631" s="8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="11" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B632" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B633" s="8" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B634" s="8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B635" s="8" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B636" s="8" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B637" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B638" s="8" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B639" s="8" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B640" s="8" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B641" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B642" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B643" s="8" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B644" s="8" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B645" s="8" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="11" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B646" s="9" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B647" s="8" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B648" s="8" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B649" s="8" t="s">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -10779,7 +12944,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589"/>
   </bookViews>
   <sheets>
-    <sheet name="1~1000" sheetId="1" r:id="rId1"/>
-    <sheet name="1000~2000" sheetId="2" r:id="rId2"/>
-    <sheet name="2000~3000" sheetId="3" r:id="rId3"/>
-    <sheet name="3000~4000" sheetId="4" r:id="rId4"/>
-    <sheet name="4000~5000" sheetId="5" r:id="rId5"/>
-    <sheet name="5000~6000" sheetId="9" r:id="rId6"/>
-    <sheet name="6000~7000" sheetId="10" r:id="rId7"/>
+    <sheet name="1000" sheetId="1" r:id="rId1"/>
+    <sheet name="2000" sheetId="2" r:id="rId2"/>
+    <sheet name="3000" sheetId="3" r:id="rId3"/>
+    <sheet name="4000" sheetId="4" r:id="rId4"/>
+    <sheet name="5000" sheetId="5" r:id="rId5"/>
+    <sheet name="6000" sheetId="9" r:id="rId6"/>
+    <sheet name="7000" sheetId="10" r:id="rId7"/>
     <sheet name="Ctl+B" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1915">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5736,10 +5736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comething</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>already</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5884,545 +5880,2073 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>司机，驾驶员 driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮票，标志，脚踏，盖印章，重步走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘，刀口，优越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅dg鹅 两只鹅在边缘，有优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖牌，奖章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖章medal是由金属matel制作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的，漂亮的，精明的，剧痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile是微笑，smart是聪明的，漂亮的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意lap与leg的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系，关联，亲戚，亲属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了relation家里很轻松relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S蛇的W尾巴 ---&gt; 摇摆，回旋，摆动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creat + ture 生物，动物，创造物，产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south南方 + east东方 = southeast 东南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear梨 bear熊，忍受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊，忍受，负担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了玩具toy欢乐无比joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康health是最大的财富wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新直接：redirect改变方向，改道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一套/副/批 调整/设置/安置/落下/凝结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in general 大体而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与few含义相同，但little修饰不可数名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗓子，喉咙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗞绕特 ---&gt; 喉咙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓/鼓状物，有节奏的敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情，怜悯，可怜，遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银，镀银，银器，银币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树木，木材，树林，林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">argument 论据; 辩论; 争论; 缘由; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩论; 主张; 议论; 说服; 争论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：over 海 穿过大海 ---&gt; 海外，在国外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场，股市，销售，出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房，餐具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努尔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex交换change改变，exchange交换，互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果candy   sugar糖，甜言蜜语，使甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b和d之间都是ear耳朵？都是胡须……….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层，层次;膜 /把…分层堆放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运送/运输/流放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译;转化;解释;</t>
+  </si>
+  <si>
+    <t>简洁的;简明的/概要 /简短声明;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树干;躯干;象鼻;汽车车尾的行李箱</t>
+  </si>
+  <si>
+    <t>入口，出口;接近/增长/接近，进入;使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想;协会，社团;联合，联系</t>
+  </si>
+  <si>
+    <t>特权 /权益 / 免责特权;特殊荣幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集;集结;集成;聚集体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…工作;职员/任职于 /参谋的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟钝的;呆滞/阴暗的 /单调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;金属元素;成色;金色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许;（表示不确定）也许; 假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的;庞大的;极大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度/学位 ;[数]度，度数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体;尸体;团体;物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别的;详细的;独有的;特点 详细情节，细情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签，附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织;安排;规划;建立组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停留;停止;坚持;抑制 / 继续处于某种状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟;同事，同胞;同志</t>
+  </si>
+  <si>
+    <t>法;规律;法学;法制 /控告;对…起诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子;孩子;男性后裔;圣子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适的;安逸的，处于轻松的;充裕的</t>
+  </si>
+  <si>
+    <t>雨衣</t>
+  </si>
+  <si>
+    <t>火灾;火，燃烧物;射击 / 热情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动  / 驾驶 /迫使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻居，邻国，邻近的，邻接的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得;牢记</t>
+  </si>
+  <si>
+    <t>腿;支柱，支架;裤腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打招呼;哈喽，喂;你好，您好;表示问候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九;九个;第九</t>
+  </si>
+  <si>
+    <t>秋千;摇摆，摆动;摆程，振幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人 /生物 /创造物 /（他人的）工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担心;烦恼，忧虑;撕咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南地区;东南，东南方，（美国）东南部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯 / 惯例 / 风俗 / 海关 / 关税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜悦，快乐，高兴;令人高兴的事或人;成功;好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吨;大量，许多</t>
+  </si>
+  <si>
+    <t>财产，财富;富豪（阶级）;丰富，大量;繁荣</t>
+  </si>
+  <si>
+    <t>直接的;直的;直系的;率直的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班;阶级;等级;种类 属于…类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意，赞同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎;各种猫科动物;凶恶的人，虎狼之徒</t>
+  </si>
+  <si>
+    <t>生活，生计;生命，性命;一生</t>
+  </si>
+  <si>
+    <t>梦想;做梦;梦见;想到</t>
+  </si>
+  <si>
+    <t>令人惊异的 / 惊奇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予帮助的，有益的;愿意帮忙的</t>
+  </si>
+  <si>
+    <t>普遍的;大致的;综合的;总的，全体的</t>
+  </si>
+  <si>
+    <t>根，根源;原因，本质;祖先</t>
+  </si>
+  <si>
+    <t>小的;琐碎的;娇小的;幼小的 一点;短时间地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题;疑难问题;习题;引起麻烦的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三;十三岁;十三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉;做…的应声虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉爽的;冷静的;一流的;孤傲冷漠的</t>
+  </si>
+  <si>
+    <t>医院;收容所;养老院;〈古〉旅客招待所</t>
+  </si>
+  <si>
+    <t>人;（语法）人称;身体;容貌</t>
+  </si>
+  <si>
+    <t>大声;高声</t>
+  </si>
+  <si>
+    <t>睡，睡觉  为…提供床位;提供住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元;一元纸[硬]币;金钱;财富</t>
+  </si>
+  <si>
+    <t>刺破;刺穿，戳穿;洞察;深深打动</t>
+  </si>
+  <si>
+    <t>支持;支撑;帮助;维持</t>
+  </si>
+  <si>
+    <t>妻子，太太;夫人，老婆;已婚妇女</t>
+  </si>
+  <si>
+    <t>四;四个;第四</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相当，颇 漂亮/ 机灵 /聪明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶心的;晕船;不舒服的;腻烦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，不及格;倒闭 失误；衰退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯;发热灯，照射灯</t>
+  </si>
+  <si>
+    <t>西方的;欧美的</t>
+  </si>
+  <si>
+    <t>开销，代价;花费，费用;牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响;势力;有影响的人（或事物）</t>
+  </si>
+  <si>
+    <t>在[向]海外，在[向]国外</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>巧克力;巧克力色;巧克力糖</t>
+  </si>
+  <si>
+    <t>国家/州  情况 /资格/状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业;工作，任务;苦差事</t>
+  </si>
+  <si>
+    <t>烹调;编造;篡改;密谋</t>
+  </si>
+  <si>
+    <t>而;虽然;在…期间;与…同时</t>
+  </si>
+  <si>
+    <t>八;八个;第八</t>
+  </si>
+  <si>
+    <t>导致;带来，引来;促使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密，谜;神秘，神秘的事物;推理小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士，看护;奶妈，保姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止;中断;逗留;（使）停止工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲;天父;祖先;（尤指天主教和东正教的）神父</t>
+  </si>
+  <si>
+    <t>很，非常;恰好是，正是;十足的;特有的</t>
+  </si>
+  <si>
+    <t>购买，购得 / 交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换;交易所;交易;兑换（率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某物/事/人 非常;有点;大约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早已，已经;先前</t>
+  </si>
+  <si>
+    <t>马铃薯， 土豆，洋芋;土豆块茎</t>
+  </si>
+  <si>
+    <t>糖果;冰糖;</t>
+  </si>
+  <si>
+    <t>胡须</t>
+  </si>
+  <si>
+    <t>代价;价格，价钱;价值;赏金</t>
+  </si>
+  <si>
+    <t>到达，来;发生</t>
+  </si>
+  <si>
+    <t>战争;战争期间;</t>
+  </si>
+  <si>
+    <t>实验室;实验课;研究室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无聊的，无趣的;令人厌烦的;</t>
+  </si>
+  <si>
+    <t>打折扣，减价出售;减息贷款;削价出售，打折;减价，减量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t> 文化, 耕种, 修养</t>
-  </si>
-  <si>
-    <t>司机，驾驶员 driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮票，标志，脚踏，盖印章，重步走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘，刀口，优越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹅dg鹅 两只鹅在边缘，有优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖牌，奖章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖章medal是由金属matel制作的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的，漂亮的，精明的，剧痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smile是微笑，smart是聪明的，漂亮的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意lap与leg的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系，关联，亲戚，亲属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到了relation家里很轻松relax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S蛇的W尾巴 ---&gt; 摇摆，回旋，摆动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creat + ture 生物，动物，创造物，产物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>south南方 + east东方 = southeast 东南方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pear梨 bear熊，忍受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊，忍受，负担</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买了玩具toy欢乐无比joy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康health是最大的财富wealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从新直接：redirect改变方向，改道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一套/副/批 调整/设置/安置/落下/凝结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in general 大体而言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与few含义相同，但little修饰不可数名词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗓子，喉咙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗞绕特 ---&gt; 喉咙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓/鼓状物，有节奏的敲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同情，怜悯，可怜，遗憾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒犯，得罪，伤害，违反，不舒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银，镀银，银器，银币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树木，木材，树林，林地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">argument 论据; 辩论; 争论; 缘由; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辩论; 主张; 议论; 说服; 争论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想：over 海 穿过大海 ---&gt; 海外，在国外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场，股市，销售，出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房，餐具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努尔斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex交换change改变，exchange交换，互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果candy   sugar糖，甜言蜜语，使甜蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b和d之间都是ear耳朵？都是胡须……….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层，层次;膜 /把…分层堆放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运送/运输/流放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻译;转化;解释;</t>
-  </si>
-  <si>
-    <t>简洁的;简明的/概要 /简短声明;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树干;躯干;象鼻;汽车车尾的行李箱</t>
-  </si>
-  <si>
-    <t>入口，出口;接近/增长/接近，进入;使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想;协会，社团;联合，联系</t>
-  </si>
-  <si>
-    <t>特权 /权益 / 免责特权;特殊荣幸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚集;集结;集成;聚集体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在…工作;职员/任职于 /参谋的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟钝的;呆滞/阴暗的 /单调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属;金属元素;成色;金色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许;（表示不确定）也许; 假定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的;庞大的;极大的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程度/学位 ;[数]度，度数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体;尸体;团体;物体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别的;详细的;独有的;特点 详细情节，细情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签，附加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织;安排;规划;建立组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停留;停止;坚持;抑制 / 继续处于某种状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟;同事，同胞;同志</t>
-  </si>
-  <si>
-    <t>法;规律;法学;法制 /控告;对…起诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿子;孩子;男性后裔;圣子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒适的;安逸的，处于轻松的;充裕的</t>
-  </si>
-  <si>
-    <t>雨衣</t>
-  </si>
-  <si>
-    <t>火灾;火，燃烧物;射击 / 热情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱动  / 驾驶 /迫使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邻居，邻国，邻近的，邻接的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记得;牢记</t>
-  </si>
-  <si>
-    <t>腿;支柱，支架;裤腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打招呼;哈喽，喂;你好，您好;表示问候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九;九个;第九</t>
-  </si>
-  <si>
-    <t>秋千;摇摆，摆动;摆程，振幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人 /生物 /创造物 /（他人的）工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担心;烦恼，忧虑;撕咬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东南地区;东南，东南方，（美国）东南部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯 / 惯例 / 风俗 / 海关 / 关税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜悦，快乐，高兴;令人高兴的事或人;成功;好运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吨;大量，许多</t>
-  </si>
-  <si>
-    <t>财产，财富;富豪（阶级）;丰富，大量;繁荣</t>
-  </si>
-  <si>
-    <t>直接的;直的;直系的;率直的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班;阶级;等级;种类 属于…类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意，赞同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎;各种猫科动物;凶恶的人，虎狼之徒</t>
-  </si>
-  <si>
-    <t>生活，生计;生命，性命;一生</t>
-  </si>
-  <si>
-    <t>梦想;做梦;梦见;想到</t>
-  </si>
-  <si>
-    <t>令人惊异的 / 惊奇的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予帮助的，有益的;愿意帮忙的</t>
-  </si>
-  <si>
-    <t>普遍的;大致的;综合的;总的，全体的</t>
-  </si>
-  <si>
-    <t>根，根源;原因，本质;祖先</t>
-  </si>
-  <si>
-    <t>小的;琐碎的;娇小的;幼小的 一点;短时间地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题;疑难问题;习题;引起麻烦的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三;十三岁;十三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹦鹉;做…的应声虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉爽的;冷静的;一流的;孤傲冷漠的</t>
-  </si>
-  <si>
-    <t>医院;收容所;养老院;〈古〉旅客招待所</t>
-  </si>
-  <si>
-    <t>人;（语法）人称;身体;容貌</t>
-  </si>
-  <si>
-    <t>大声;高声</t>
-  </si>
-  <si>
-    <t>睡，睡觉  为…提供床位;提供住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美元;一元纸[硬]币;金钱;财富</t>
-  </si>
-  <si>
-    <t>刺破;刺穿，戳穿;洞察;深深打动</t>
-  </si>
-  <si>
-    <t>支持;支撑;帮助;维持</t>
-  </si>
-  <si>
-    <t>妻子，太太;夫人，老婆;已婚妇女</t>
-  </si>
-  <si>
-    <t>四;四个;第四</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 相当，颇 漂亮/ 机灵 /聪明的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶心的;晕船;不舒服的;腻烦的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败，不及格;倒闭 失误；衰退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯;发热灯，照射灯</t>
-  </si>
-  <si>
-    <t>西方的;欧美的</t>
-  </si>
-  <si>
-    <t>开销，代价;花费，费用;牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响;势力;有影响的人（或事物）</t>
-  </si>
-  <si>
-    <t>在[向]海外，在[向]国外</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>巧克力;巧克力色;巧克力糖</t>
-  </si>
-  <si>
-    <t>国家/州  情况 /资格/状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业;工作，任务;苦差事</t>
-  </si>
-  <si>
-    <t>烹调;编造;篡改;密谋</t>
-  </si>
-  <si>
-    <t>而;虽然;在…期间;与…同时</t>
-  </si>
-  <si>
-    <t>八;八个;第八</t>
-  </si>
-  <si>
-    <t>导致;带来，引来;促使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密，谜;神秘，神秘的事物;推理小说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士，看护;奶妈，保姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止;中断;逗留;（使）停止工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲;天父;祖先;（尤指天主教和东正教的）神父</t>
-  </si>
-  <si>
-    <t>很，非常;恰好是，正是;十足的;特有的</t>
-  </si>
-  <si>
-    <t>购买，购得 / 交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换;交易所;交易;兑换（率）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某物/事/人 非常;有点;大约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早已，已经;先前</t>
-  </si>
-  <si>
-    <t>马铃薯， 土豆，洋芋;土豆块茎</t>
-  </si>
-  <si>
-    <t>糖果;冰糖;</t>
-  </si>
-  <si>
-    <t>胡须</t>
-  </si>
-  <si>
-    <t>代价;价格，价钱;价值;赏金</t>
-  </si>
-  <si>
-    <t>到达，来;发生</t>
-  </si>
-  <si>
-    <t>战争;战争期间;</t>
-  </si>
-  <si>
-    <t>实验室;实验课;研究室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无聊的，无趣的;令人厌烦的;</t>
-  </si>
-  <si>
-    <t>打折扣，减价出售;减息贷款;削价出售，打折;减价，减量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>themselves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pioneer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfamiliar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eraser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thousand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anywhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrassed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beautiful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etiquette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gentleman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>himself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomorrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho+use = 住宅，房屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communicate与communication是交谈的兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head for 出发，朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C + age 抓住有年龄的 = 笼子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予，授予，奖品，报酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向，朝向，位于前面，前面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> look forward to doing sth 盼望，期待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦！油！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先驱者，开创者，领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiar熟悉的，um不  （派生词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core核心，score得分，划痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam 考试/测验  exam in 额 ---&gt; 检查，测验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEGE+TABLE=蔬菜vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest休息，forest 为了休息 ---&gt; 森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音：额特聩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弟弟brother老来烦我bother 无r非弟弟所以烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理，管辖，权威，专家，官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类，形式，构成，外貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for+m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别喜欢的人或事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士，有教养的，先生，男士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：做枕头的男人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩，沙子，砂纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音：散的…（散的都是沙子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件，零件，配件，装饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格，特性，任务，角色，（汉）字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux里的关键字捕捉回复命令就是这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对，一双，一副，成对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair off 把…分对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心，热烈，敏锐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b爆炸的oil油 ---&gt;沸腾/煮沸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲击，敲打，打败，胜过，节奏，节拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁热heat 打铁beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐;一罐;（某种用途的）容器;陶盆</t>
+  </si>
+  <si>
+    <t>想像;想，设想;料想，猜想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨伞;〈比喻〉保护物;</t>
+  </si>
+  <si>
+    <t>气球;热气球;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>交通，运输量;（非法的）交易;通信量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传达，表达;显示：清晰地揭示 / 通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋;全家人</t>
+  </si>
+  <si>
+    <t>棋，国际象棋</t>
+  </si>
+  <si>
+    <t>盐;风趣;机智，讽刺;药用盐，泻盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部;头脑;上端;首脑，首长</t>
+  </si>
+  <si>
+    <t>较小的;较少的（little的比较级）</t>
+  </si>
+  <si>
+    <t>笼子;牢房; 把…关入牢中;把…关进笼内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他[她，它]们自己;他们亲自</t>
+  </si>
+  <si>
+    <t>跌倒;落下;减少;沦陷</t>
+  </si>
+  <si>
+    <t>取消，注销;抵消，偿还</t>
+  </si>
+  <si>
+    <t>油;石油;燃油;油画</t>
+  </si>
+  <si>
+    <t>陌生的;不熟悉的;不常见的</t>
+  </si>
+  <si>
+    <t>村民;乡村，村庄;群落</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>速度;快速;昌盛  加快…的速度;使成功，使繁荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短促的敲打（声）;爆震声;敲击声</t>
+  </si>
+  <si>
+    <t>得分;分数;总谱; 评分;得分;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查，调查;考试;诊察;审问</t>
+  </si>
+  <si>
+    <t>外壳;炮弹;（贝、卵、坚果等的）壳;（人的）表面性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要的;强制的;必然的;必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬衫，衬衣;内衣，汗衫</t>
+  </si>
+  <si>
+    <t>橡皮擦，板擦</t>
+  </si>
+  <si>
+    <t>池塘</t>
+  </si>
+  <si>
+    <t>检查，核对;制止，抑制;在…上打勾</t>
+  </si>
+  <si>
+    <t>蔬菜;植物人</t>
+  </si>
+  <si>
+    <t>物品;（报章杂志中的）文章，论文;条款</t>
+  </si>
+  <si>
+    <t>竹子;竹竿;竹木家具</t>
+  </si>
+  <si>
+    <t>热的;热门的;辣的;激动的</t>
+  </si>
+  <si>
+    <t>可以;会;也许;但愿</t>
+  </si>
+  <si>
+    <t>改变，变更;交换，替换;兑换;换衣服（床单）</t>
+  </si>
+  <si>
+    <t>一千;数千;许许多多;千位数</t>
+  </si>
+  <si>
+    <t>把…除外;不计</t>
+  </si>
+  <si>
+    <t>音乐;乐曲;乐谱;乐队</t>
+  </si>
+  <si>
+    <t>任何地方;什么地方;无论何处</t>
+  </si>
+  <si>
+    <t>火腿;（旧时的）小镇，村庄;大腿后部</t>
+  </si>
+  <si>
+    <t>不能的，不会的;无能力的，不熟练的;不能胜任的</t>
+  </si>
+  <si>
+    <t>森林;丛林;（森林似的）一丛;一片</t>
+  </si>
+  <si>
+    <t>尴尬的;为难的;窘迫的</t>
+  </si>
+  <si>
+    <t>早晨;上午;黎明;早期，初期</t>
+  </si>
+  <si>
+    <t>美丽的，美好的;极好的</t>
+  </si>
+  <si>
+    <t>礼仪，礼节;规矩;礼数</t>
+  </si>
+  <si>
+    <t>进入…中  / 输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烦恼;烦扰，打扰;使…不安，使…恼怒;使迷惑</t>
+  </si>
+  <si>
+    <t>红色的;（脸）涨红的;烧红的;红头发的</t>
+  </si>
+  <si>
+    <t>离开;遗弃;忘了带;交托</t>
+  </si>
+  <si>
+    <t>常常;总是，老是;永远，始终;不断地</t>
+  </si>
+  <si>
+    <t>现在;现今;（在）今天;现代，当代</t>
+  </si>
+  <si>
+    <t>家庭;家族;孩子;祖先</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>（反身代词）他自己;（用以加强语气）他亲自，他本人</t>
+  </si>
+  <si>
+    <t>谁;什么人;关系代词，有先行词;孰</t>
+  </si>
+  <si>
+    <t>安装;合身;（使）适合</t>
+  </si>
+  <si>
+    <t>学习，研究;课题;书房;结论</t>
+  </si>
+  <si>
+    <t>残废的，有缺陷的</t>
+  </si>
+  <si>
+    <t>使转动;旋转;使改变方向;使不适</t>
+  </si>
+  <si>
+    <t>期望;预料;要求;认为（某事）会发生</t>
+  </si>
+  <si>
+    <t>磁带录像;录像磁带;录像机，电视;（指方法）录像</t>
+  </si>
+  <si>
+    <t>（尤指美国的大专院校的）学期;半学年</t>
+  </si>
+  <si>
+    <t>正好;刚才;仅仅，只是;刚要</t>
+  </si>
+  <si>
+    <t>乐]主题;主旋律;题目，话题;（学生的）作文</t>
+  </si>
+  <si>
+    <t>在明天，在明日</t>
+  </si>
+  <si>
+    <t>煮沸，沸腾;疔，疖子;[医]疡肿，脓肿</t>
+  </si>
+  <si>
+    <t>面条;傻子， 笨蛋</t>
+  </si>
+  <si>
+    <t>冒犯 / 伤害，违反，不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p池on塘d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k两个鹅n 很热情~！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifestyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excellent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>london</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unusual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>porridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whenever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cousin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumpling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traditional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>then</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>european</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>national</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop up 突然出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h很eat吃 趁热吃heat --&gt; 炎热/热/激动/加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会，阶层，社团，协会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so cie ty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">po 礼特 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信，字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式决定，决心，解决，清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新re 解决solution 表示坚决的，清晰的决心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre前的，dict python字典 ---&gt; 预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>usual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平常的，通常的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粥，麦片粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平的，平坦，统一，单调，断然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堂兄弟，表姐妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叩姓in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend 参与/照顾+ant蚂蚁=服务员/随从/伴随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击，痛打，短袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell壳做成的架子/隔板 --&gt; shelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包/谋生之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒了 就是卖出去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影院，电影艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系拿码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微偶拎in  （着小提琴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险，风险，冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk与danger是亲戚，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对面，对立面，反面的，在….对面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chairman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair椅子，chairman 椅子上的人是主席！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片，块，段，碎块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的黑色钱包就是一个wallet皮夹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早的，最主要的，根本的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将要，将会，应该，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh将要执行所有的all ---&gt; 将要，将会，应该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票，入场券，候选名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提可诶特…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，目前，出席，到场，提出，赠送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under + ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部，社团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可劳不鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>international</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>国际的，全世界的，国际性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家的，全国的，民族的，国有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor地板  flower花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营地，露营，扎营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气管道是机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似，类似的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cruel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：刻入肉！残忍残暴的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谦虚，谨慎，适度的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲笔签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恨特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动的画画 签名的人都自动的画画autograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活方式</t>
+  </si>
+  <si>
+    <t>（意外/突然地）出现; 发出爆裂声;（突然地）行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子;页;叶状的结构</t>
+  </si>
+  <si>
+    <t>立刻，马上;向右，右边;恰当地;一直/权利/纠正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀的;卓越的;杰出的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刻赛棱特是卓越优秀杰出的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热，热度，高温;热烈，激烈</t>
+  </si>
+  <si>
+    <t>有礼貌的;有教养的，文雅的;上流社会的</t>
+  </si>
+  <si>
+    <t>商店;购物;工厂;办事处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片;缺口;（作赌注用的）筹码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信;证书，许可证;字母，文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始;动身;开动;起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言，预测;预示，预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约会;日期，日子;时代，年代</t>
+  </si>
+  <si>
+    <t>虽然;尽管;但是;然而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与众不同的;不常见的，不普通的，难得的</t>
+  </si>
+  <si>
+    <t>答复; 解答; 答辩;适应</t>
+  </si>
+  <si>
+    <t>真正的;真实的;正确的;忠实的</t>
+  </si>
+  <si>
+    <t>方式;样式;时髦;仪表，品位</t>
+  </si>
+  <si>
+    <t>统治者;尺;直尺</t>
+  </si>
+  <si>
+    <t>究竟什么时候;不论何时/每当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;汉&gt;阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤团，饺子;水果布丁</t>
+  </si>
+  <si>
+    <t>服务人员，侍者;随从，随员;伴随物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲倦的;困倦的</t>
+  </si>
+  <si>
+    <t>经营;使用 /办理，设法对付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统的;口传的;惯例的;因袭的</t>
+  </si>
+  <si>
+    <t>然后;那么;那时;话说回来</t>
+  </si>
+  <si>
+    <t>架子，搁板;棚;</t>
+  </si>
+  <si>
+    <t>公共汽车，巴士，客机</t>
+  </si>
+  <si>
+    <t>博物馆</t>
+  </si>
+  <si>
+    <t>积极的，活跃的，有生气的;迅速的</t>
+  </si>
+  <si>
+    <t>小提琴;小提琴手</t>
+  </si>
+  <si>
+    <t>电话;听筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师，教员，老师，先生</t>
+  </si>
+  <si>
+    <t>钱包，皮夹子</t>
+  </si>
+  <si>
+    <t>椅子;主持;使…入座;使就任要职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair椅子，chairman 椅子上的人是主席！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴;猿;淘气鬼;小淘气</t>
+  </si>
+  <si>
+    <t>欧洲;欧盟</t>
+  </si>
+  <si>
+    <t>器具，工具;</t>
+  </si>
+  <si>
+    <t>端;&lt;正&gt;结果;终止;最后部分</t>
+  </si>
+  <si>
+    <t>地址;称呼;演说</t>
+  </si>
+  <si>
+    <t>小路，路;路线，路程;</t>
+  </si>
+  <si>
+    <t>蓝色;把…染成蓝色;使成蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢;抛;投掷</t>
+  </si>
+  <si>
+    <t>地下的;秘密的;先锋派的;隐蔽的</t>
+  </si>
+  <si>
+    <t>鼻子;嗅觉;芳香，香气</t>
+  </si>
+  <si>
+    <t>欧盟的;欧洲的，欧洲人的</t>
+  </si>
+  <si>
+    <t>国家的;国民的;国有的;民族主义的</t>
+  </si>
+  <si>
+    <t>简单的;单纯的;易受骗的;天真的</t>
+  </si>
+  <si>
+    <t>消息;信息，数据;通知;知识</t>
+  </si>
+  <si>
+    <t>楼层;地面，地板</t>
+  </si>
+  <si>
+    <t>以前;之前;过去的</t>
+  </si>
+  <si>
+    <t>sunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和煦的：照到阳光的;快活的</t>
+  </si>
+  <si>
+    <t>公开的;公众的，公共的</t>
+  </si>
+  <si>
+    <t>一百;许多;100 到 999 间的数目</t>
+  </si>
+  <si>
+    <t>消失;离开，远离;在远处</t>
+  </si>
+  <si>
+    <t>机场;航空站</t>
+  </si>
+  <si>
+    <t>注意;预告;布告;警告</t>
+  </si>
+  <si>
+    <t>跳舞;舞会;舞曲</t>
+  </si>
+  <si>
+    <t>残酷的，残忍的;使人痛苦的，让人受难的</t>
+  </si>
+  <si>
+    <t>压，按;逼迫;紧抱</t>
+  </si>
+  <si>
+    <t>不好的;恶意的;有病的;不吉利的</t>
+  </si>
+  <si>
+    <t>激发;刺激;使兴奋</t>
+  </si>
+  <si>
+    <t>厌恶;仇恨，憎恨</t>
+  </si>
+  <si>
+    <t>（主持会议的）主席;委员长;（委员会的）委员长</t>
+  </si>
+  <si>
+    <t>蜜蜂;（集工作、竞赛、娱乐为一体的）聚会</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6536,6 +8060,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6590,7 +8134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6637,11 +8181,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6978,10 +8526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I649"/>
+  <dimension ref="A1:I826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C745" sqref="C745"/>
+    <sheetView tabSelected="1" topLeftCell="A886" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A905" sqref="A904:A905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7001,12 +8549,12 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -7015,12 +8563,12 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -11611,7 +13159,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B508" s="8" t="s">
         <v>1020</v>
@@ -11619,7 +13167,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B509" s="8" t="s">
         <v>1021</v>
@@ -11627,7 +13175,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B510" s="8" t="s">
         <v>1022</v>
@@ -11635,7 +13183,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B511" s="8" t="s">
         <v>1023</v>
@@ -11643,7 +13191,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B512" s="8" t="s">
         <v>1025</v>
@@ -11651,7 +13199,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B513" s="8" t="s">
         <v>1026</v>
@@ -11659,7 +13207,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B514" s="9" t="s">
         <v>1027</v>
@@ -11667,7 +13215,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="11" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B515" s="8" t="s">
         <v>1019</v>
@@ -11771,7 +13319,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B528" s="9" t="s">
         <v>1226</v>
@@ -11798,29 +13346,29 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B531" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B531" s="9" t="s">
         <v>1234</v>
       </c>
       <c r="C531" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B532" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B532" s="9" t="s">
         <v>1235</v>
       </c>
       <c r="C532" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B533" s="8" t="s">
         <v>1236</v>
@@ -11828,7 +13376,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B534" s="8" t="s">
         <v>1237</v>
@@ -11836,7 +13384,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B535" s="8" t="s">
         <v>1238</v>
@@ -11844,45 +13392,45 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C536" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B538" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B538" s="9" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B539" s="8" t="s">
         <v>1240</v>
       </c>
       <c r="C539" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B540" s="8" t="s">
         <v>1241</v>
@@ -11890,29 +13438,29 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B541" s="8" t="s">
         <v>1242</v>
       </c>
       <c r="C541" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B542" s="8" t="s">
         <v>1243</v>
       </c>
       <c r="C542" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="11" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B543" s="8" t="s">
         <v>1244</v>
@@ -11920,51 +13468,51 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B544" s="8" t="s">
         <v>1245</v>
       </c>
       <c r="C544" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B545" s="8" t="s">
         <v>1246</v>
       </c>
       <c r="C545" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>1247</v>
       </c>
       <c r="C546" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="11" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B547" s="8" t="s">
         <v>1248</v>
       </c>
       <c r="C547" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="11" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B548" s="8" t="s">
         <v>1249</v>
@@ -11972,7 +13520,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B549" s="8" t="s">
         <v>1250</v>
@@ -11980,7 +13528,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B550" s="8" t="s">
         <v>1251</v>
@@ -11988,7 +13536,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="11" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B551" s="8" t="s">
         <v>1252</v>
@@ -11996,7 +13544,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B552" s="8" t="s">
         <v>1253</v>
@@ -12004,18 +13552,18 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B553" s="8" t="s">
         <v>1254</v>
       </c>
       <c r="C553" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B554" s="8" t="s">
         <v>1255</v>
@@ -12023,26 +13571,26 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B555" s="8" t="s">
         <v>1256</v>
       </c>
       <c r="C555" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B557" s="8" t="s">
         <v>1257</v>
@@ -12050,7 +13598,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B558" s="8" t="s">
         <v>1258</v>
@@ -12058,51 +13606,51 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B559" s="8" t="s">
         <v>1259</v>
       </c>
       <c r="C559" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C560" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B561" s="9" t="s">
         <v>1260</v>
       </c>
       <c r="C561" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C562" t="s">
         <v>1376</v>
-      </c>
-      <c r="B562" s="9" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B563" s="8" t="s">
         <v>1261</v>
@@ -12110,7 +13658,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B564" s="8" t="s">
         <v>1262</v>
@@ -12118,40 +13666,40 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B565" s="8" t="s">
         <v>1263</v>
       </c>
       <c r="C565" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B566" s="8" t="s">
         <v>1264</v>
       </c>
       <c r="C566" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="11" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B567" s="9" t="s">
         <v>1265</v>
       </c>
       <c r="C567" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B568" s="8" t="s">
         <v>1266</v>
@@ -12159,7 +13707,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="11" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B569" s="8" t="s">
         <v>1267</v>
@@ -12167,7 +13715,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="11" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B570" s="8" t="s">
         <v>1268</v>
@@ -12175,29 +13723,29 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B571" s="8" t="s">
         <v>1269</v>
       </c>
       <c r="C571" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B572" s="9" t="s">
         <v>1270</v>
       </c>
       <c r="C572" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="11" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B573" s="8" t="s">
         <v>1271</v>
@@ -12205,18 +13753,18 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="11" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B574" s="9" t="s">
         <v>1272</v>
       </c>
-      <c r="C574" t="s">
-        <v>1388</v>
+      <c r="C574" s="17" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="11" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B575" s="8" t="s">
         <v>1273</v>
@@ -12224,29 +13772,29 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="11" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B576" s="8" t="s">
         <v>1274</v>
       </c>
       <c r="C576" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C577" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="11" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B578" s="8" t="s">
         <v>1275</v>
@@ -12254,29 +13802,29 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C579" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B580" s="8" t="s">
         <v>1276</v>
       </c>
       <c r="C580" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B581" s="8" t="s">
         <v>1277</v>
@@ -12284,7 +13832,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="12" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B582" s="8" t="s">
         <v>1278</v>
@@ -12292,7 +13840,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="11" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B583" s="8" t="s">
         <v>1279</v>
@@ -12300,7 +13848,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="11" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B584" s="8" t="s">
         <v>1280</v>
@@ -12308,7 +13856,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="11" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B585" s="8" t="s">
         <v>1281</v>
@@ -12316,7 +13864,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="11" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B586" s="8" t="s">
         <v>1282</v>
@@ -12324,7 +13872,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="11" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B587" s="8" t="s">
         <v>1283</v>
@@ -12332,7 +13880,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B588" s="8" t="s">
         <v>1284</v>
@@ -12348,18 +13896,18 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B590" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B590" s="9" t="s">
         <v>1286</v>
       </c>
       <c r="C590" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="11" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B591" s="8" t="s">
         <v>1287</v>
@@ -12367,18 +13915,18 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="11" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B592" s="8" t="s">
         <v>1288</v>
       </c>
       <c r="C592" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="11" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B593" s="8" t="s">
         <v>1289</v>
@@ -12386,15 +13934,15 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="11" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B594" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B594" s="9" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="11" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B595" s="9" t="s">
         <v>1291</v>
@@ -12402,18 +13950,18 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="11" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B596" s="9" t="s">
         <v>1292</v>
       </c>
       <c r="C596" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B597" s="9" t="s">
         <v>1293</v>
@@ -12421,7 +13969,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="11" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B598" s="8" t="s">
         <v>1294</v>
@@ -12429,7 +13977,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="11" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B599" s="8" t="s">
         <v>1295</v>
@@ -12437,7 +13985,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="11" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B600" s="8" t="s">
         <v>1296</v>
@@ -12445,7 +13993,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="11" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B601" s="8" t="s">
         <v>1297</v>
@@ -12453,7 +14001,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="11" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B602" s="8" t="s">
         <v>1298</v>
@@ -12461,7 +14009,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="11" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B603" s="8" t="s">
         <v>1299</v>
@@ -12469,7 +14017,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="11" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B604" s="8" t="s">
         <v>1300</v>
@@ -12477,7 +14025,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="11" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B605" s="9" t="s">
         <v>1301</v>
@@ -12485,7 +14033,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B606" s="8" t="s">
         <v>1302</v>
@@ -12493,7 +14041,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="11" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B607" s="8" t="s">
         <v>1303</v>
@@ -12501,7 +14049,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="11" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B608" s="8" t="s">
         <v>1304</v>
@@ -12509,7 +14057,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="11" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B609" s="8" t="s">
         <v>1305</v>
@@ -12517,7 +14065,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="11" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B610" s="9" t="s">
         <v>1306</v>
@@ -12525,7 +14073,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="11" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B611" s="8" t="s">
         <v>1307</v>
@@ -12533,7 +14081,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="11" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B612" s="8" t="s">
         <v>1308</v>
@@ -12541,7 +14089,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="11" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B613" s="8" t="s">
         <v>1309</v>
@@ -12549,7 +14097,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
-        <v>1403</v>
+        <v>1699</v>
       </c>
       <c r="B614" s="9" t="s">
         <v>1310</v>
@@ -12557,15 +14105,15 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B615" s="8" t="s">
-        <v>1404</v>
+        <v>1402</v>
+      </c>
+      <c r="B615" s="9" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="11" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B616" s="8" t="s">
         <v>1311</v>
@@ -12573,7 +14121,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="11" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B617" s="8" t="s">
         <v>1312</v>
@@ -12581,18 +14129,18 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B618" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B618" s="9" t="s">
         <v>1313</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B619" s="8" t="s">
         <v>1314</v>
@@ -12600,18 +14148,18 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="11" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B620" s="8" t="s">
         <v>1315</v>
       </c>
       <c r="C620" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="11" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B621" s="8" t="s">
         <v>1316</v>
@@ -12619,7 +14167,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="11" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B622" s="8" t="s">
         <v>1317</v>
@@ -12627,7 +14175,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="11" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B623" s="8" t="s">
         <v>1318</v>
@@ -12635,7 +14183,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B624" s="9" t="s">
         <v>1319</v>
@@ -12643,7 +14191,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="11" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B625" s="9" t="s">
         <v>1320</v>
@@ -12651,7 +14199,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B626" s="8" t="s">
         <v>1321</v>
@@ -12659,7 +14207,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="11" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B627" s="8" t="s">
         <v>1322</v>
@@ -12667,7 +14215,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="11" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B628" s="8" t="s">
         <v>1323</v>
@@ -12675,7 +14223,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="11" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B629" s="8" t="s">
         <v>1324</v>
@@ -12683,7 +14231,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="11" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B630" s="8" t="s">
         <v>1325</v>
@@ -12691,26 +14239,26 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B631" s="8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B631" s="9" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="B632" s="8" t="s">
         <v>1327</v>
       </c>
       <c r="C632" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="11" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B633" s="8" t="s">
         <v>1328</v>
@@ -12718,7 +14266,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="11" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B634" s="8" t="s">
         <v>1329</v>
@@ -12726,7 +14274,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="11" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B635" s="8" t="s">
         <v>1330</v>
@@ -12734,7 +14282,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="11" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B636" s="8" t="s">
         <v>1331</v>
@@ -12742,115 +14290,1684 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B637" s="8" t="s">
         <v>1332</v>
       </c>
       <c r="C637" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>1333</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="11" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="11" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="11" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C641" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="11" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B642" s="8" t="s">
-        <v>1337</v>
+        <v>1505</v>
+      </c>
+      <c r="B642" s="9" t="s">
+        <v>1336</v>
       </c>
       <c r="C642" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="11" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="11" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B648" s="8" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="11" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B649" s="8" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B650" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B651" s="8" t="s">
         <v>1514</v>
       </c>
-      <c r="B648" s="8" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" s="19" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B649" s="8" t="s">
-        <v>1369</v>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B652" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B653" s="8" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B654" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B655" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B656" s="8" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B657" s="8" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B658" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B659" s="8" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B660" s="9" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B661" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="11" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B662" s="8" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B663" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B664" s="8" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B665" s="8" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B666" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B667" s="8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B668" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B669" s="8" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B670" s="8" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B671" s="8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B672" s="9" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B673" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B674" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B675" s="8" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B676" s="8" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B677" s="8" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B678" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B679" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B680" s="8" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B681" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B682" s="8" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B683" s="8" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B684" s="8" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="11" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B685" s="8" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B686" s="8" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B687" s="8" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="18" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B688" s="9" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B689" s="8" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B690" s="8" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B691" s="9" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B692" s="8" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="11" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B693" s="8" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B694" s="9" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B695" s="8" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B696" s="8" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B697" s="8" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B698" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B699" s="8" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B700" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B701" s="8" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="11" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B702" s="8" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B704" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="11" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B705" s="8" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B706" s="8" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B707" s="8" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B708" s="8" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B709" s="8" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="11" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B710" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B711" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B712" s="8" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="11" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B713" s="8" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B714" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B715" s="9" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B716" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B717" s="9" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B718" s="8" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B719" s="8" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B720" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B721" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B722" s="8" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="18" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B723" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="11" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B724" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="11" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B725" s="9" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B726" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="11" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B727" s="8" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="11" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B728" s="8" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B729" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="11" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B730" s="8" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B731" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B732" s="9" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B733" s="8" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="11" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B734" s="8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B735" s="8" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="11" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B736" s="8" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="11" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B737" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B738" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B739" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B740" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B741" s="8" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="11" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B742" s="8" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B743" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B744" s="8" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B745" s="8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B746" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="11" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B747" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="11" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B748" s="8" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B749" s="8" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B750" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C750" s="19" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B751" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="11" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B752" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="11" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B753" s="9" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="11" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B754" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B755" s="9" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="11" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B756" s="8" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B757" s="8" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B758" s="8" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B759" s="9" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B760" s="8" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B761" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="11" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B762" s="9" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B763" s="8" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B764" s="8" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B765" s="9" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B766" s="8" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B767" s="8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B768" s="8" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="11" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B769" s="8" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="11" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B770" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="11" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B771" s="8" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B772" s="8" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B773" s="8" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B774" s="8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B775" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B776" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B777" s="8" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="11" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B778" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B779" s="8" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B780" s="9" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B781" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="11" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B782" s="8" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="11" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B783" s="8" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="11" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B784" s="8" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" s="11" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B785" s="8" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" s="11" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B786" s="8" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" s="11" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B787" s="8" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" s="11" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B788" s="8" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B789" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" s="11" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B790" s="8" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" s="11" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B791" s="8" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" s="11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B792" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" s="11" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B793" s="8" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B794" s="9" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" s="11" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B795" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" s="11" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B796" s="8" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" s="11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B797" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" s="11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B798" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" s="11" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B799" s="8" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" s="11" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B800" s="8" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B801" s="8" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B802" s="9" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" s="11" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B803" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" s="11" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B804" s="8" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" s="11">
+        <v>11</v>
+      </c>
+      <c r="B805" s="9" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" s="11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B806" s="8" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B807" s="9" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" s="11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B808" s="8" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B809" s="8" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B810" s="8" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" s="11" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B811" s="9" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" s="11" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B812" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" s="11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B813" s="8" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" s="11" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B814" s="8" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" s="11" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B815" s="9" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" s="11" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B816" s="8" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B817" s="9" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" s="11" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B818" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" s="11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B819" s="8" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" s="11" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B820" s="8" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" s="11" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B821" s="8" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" s="11" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B822" s="8" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" s="11" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B823" s="8" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A824" s="11" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B824" s="20" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" s="11" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B825" s="8" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" s="11" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B826" s="8" t="s">
+        <v>1839</v>
       </c>
     </row>
   </sheetData>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="2383">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7941,12 +7941,1870 @@
   <si>
     <t>蜜蜂;（集工作、竞赛、娱乐为一体的）聚会</t>
   </si>
+  <si>
+    <t>wide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>north</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center/centre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frustrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>must</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disturb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sausage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>could</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>educate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>south</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>northern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappointing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sixth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽阔，广泛的，远离，偏离的/全部，充分的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（一段）时间，时期，时代，句号，句点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿过，通过，在整个期间，始终，彻底的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自豪，得意，傲慢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P+ride骑/乘 == 自豪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石，石块，摇动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松/缓和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四，四分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕磕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使沮丧 / 使灰心 / 失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go + @ 山羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负 us我们 trate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌 / 倒 / 倾泻 / 流出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然 / 随便 / 临时的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理 / 修补 / 改良 / 痊愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试，试图，努力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at 他们盼te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：sace Use all y  从所有选出一个随机的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业的，专业的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行性感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆/反对 / 违反 / 对…不利… / 和…比 /和…对照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恼，心烦，不适的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：放在心上面。很不舒服，苦恼……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scary &lt;---&gt; scared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱，逃走，避免，躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惨事，灾难，悲剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr + age + dy  删除，存在，dy…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹 / 吹气 / 吹奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁的，那个的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来的，将来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以，能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金，金的，金黄色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓住，接住，感染，吸引，领会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共设施，公共事业，服务，保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢的，迟钝的，不灵巧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚实的，正直的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>upper / up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lower / down </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n能够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心，圆心，正中，集中于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提包（女用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩，游戏，演奏，播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制，抄写，副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖的，吓人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅和蛇都cape了（逃走，逃脱，避免）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使沮丧，灰心 / 失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明，机灵，灵巧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到，发现，发觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着的，在世的，存在的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄乱，打乱，打扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臊s+age=香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡，鸡肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边，边缘，边境，近似，邻接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看，监视，照看，小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对票，反对论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喜欢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格，桌子，台子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记，遗忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱，漂亮，聪明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音，嗓音，发言权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育，培养，训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌，歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附：singer 歌唱家，歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊羔，羔羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事，传说，小说，情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明，证实，结果是，原来是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>june 6月   july 7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些，若干，大约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决，处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大的，极大的，重要的，显著的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分（硬币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天资，才能（人才）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色的，褐色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南，南方的，南部的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试，视图（努力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物 / 麻醉药 /毒品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租，租用，出租，租借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：lend --- 借给，贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有趣的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题，疑问，审问，审讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来，达到，来自，实现，发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方的，北部的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每件事，一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线，路程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度，体温，发烧，热度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天，白昼，一天，时代，节日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了，来自，由于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，技巧，手艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人失望 / 扫兴的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan计划，+et（ET外星人）= 行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappoint 使失望  / appoint 约定，指定！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋，（女）手提包，旅行袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解，说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysql中的分析语句关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长，发育，成为，增长，发展，种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著名的，出名的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6，1/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，是的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏/夏季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>few</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afarid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubbish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popcorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nobody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>america</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worlfwide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celebrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>football</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unhealthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>these</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertisement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>until</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>church</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthquake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventeen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haircut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>french</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microwave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>across</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8080,6 +9938,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8134,7 +10006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8191,11 +10063,319 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -8254,9 +10434,75 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C1048576" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="1"/>
-    <tableColumn id="2" name="英文" dataDxfId="0"/>
+    <tableColumn id="1" name="中文" dataDxfId="23"/>
+    <tableColumn id="2" name="英文" dataDxfId="22"/>
     <tableColumn id="3" name="联想 / 例句"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:C1048576" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="21"/>
+    <tableColumn id="2" name="英文" dataDxfId="20"/>
+    <tableColumn id="3" name="联想 / 例句"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:C1048576" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="19"/>
+    <tableColumn id="2" name="英文" dataDxfId="18"/>
+    <tableColumn id="3" name="联想 / 例句"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_25" displayName="表2_25" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="17"/>
+    <tableColumn id="2" name="英文" dataDxfId="16"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_26" displayName="表2_26" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="12"/>
+    <tableColumn id="2" name="英文" dataDxfId="11"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_27" displayName="表2_27" ref="A1:C1048576" totalsRowShown="0" dataDxfId="4">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="7"/>
+    <tableColumn id="2" name="英文" dataDxfId="6"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_28" displayName="表2_28" ref="A1:C1048576" totalsRowShown="0" dataDxfId="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="中文" dataDxfId="3"/>
+    <tableColumn id="2" name="英文" dataDxfId="2"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8526,10 +10772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I826"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A886" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A905" sqref="A904:A905"/>
+    <sheetView tabSelected="1" topLeftCell="A1061" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1077" sqref="B1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8549,12 +10795,12 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -8563,12 +10809,12 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15968,6 +18214,1646 @@
       </c>
       <c r="B826" s="8" t="s">
         <v>1839</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B827" s="9" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" s="11" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B828" s="8" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" s="11" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B829" s="9" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" s="11" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B830" s="8" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" s="11" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B831" s="8" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" s="11" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B832" s="9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C832" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" s="11" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B833" s="9" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" s="11" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B834" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B835" s="8" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" s="11" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B836" s="9" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B837" s="8" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" s="11" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B838" s="8" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" s="11" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B839" s="9" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B840" s="8" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" s="11" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B841" s="8" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" s="11" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B842" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" s="11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B843" s="9" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B844" s="9" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" s="11" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B845" s="9" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C845" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" s="11" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B846" s="8" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" s="11" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B847" s="9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" s="11" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B848" s="8" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" s="11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B849" s="8" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B850" s="9" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" s="11" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B851" s="8" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B852" s="9" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" s="11" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B853" s="8" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" s="11" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B854" s="8" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" s="11" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B855" s="9" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" s="11" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B856" s="8" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" s="11" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B857" s="8" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C857" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" s="11" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B858" s="8" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" s="11" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B859" s="9" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C859" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B860" s="9" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B861" s="9" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C861" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" s="11" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B862" s="8" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" s="11" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B863" s="8" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="11" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B864" s="8" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="11" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B865" s="8" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="11" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B866" s="8" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="11" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B867" s="8" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" s="11" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B868" s="8" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="11" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B869" s="9" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B870" s="8" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" s="11" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B871" s="8" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" s="11" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B872" s="8" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" s="11" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B873" s="9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C873" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" s="11" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B874" s="8" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B875" s="8" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B876" s="8" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B877" s="8" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B878" s="8" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" s="11" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B879" s="8" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B880" s="8" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="11" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B881" s="8" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B882" s="8" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="11">
+        <v>50</v>
+      </c>
+      <c r="B883" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B884" s="9" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" s="11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B885" s="8" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="11" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B886" s="8" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B887" s="8" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="11" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B888" s="8" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B889" s="8" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B890" s="9" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B891" s="8" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="11" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B892" s="8" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="11" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B893" s="8" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="11" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B894" s="8" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B895" s="8" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="11" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B896" s="9" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B897" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C897" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" s="11" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B898" s="9" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" s="11" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B899" s="9" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" s="11" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B900" s="8" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" s="11" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B901" s="8" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" s="11" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B902" s="8" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" s="11" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B903" s="8" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" s="11" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B904" s="8" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" s="11" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B905" s="8" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" s="11" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B906" s="8" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" s="11" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B907" s="8" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" s="11" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B908" s="9" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" s="11" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B909" s="8" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B910" s="8" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" s="11" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B911" s="8" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" s="11" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B912" s="8" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" s="11" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B913" s="8" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" s="11" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B914" s="8" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" s="11" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B915" s="8" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" s="11" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B916" s="8" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" s="11" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B917" s="8" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" s="11" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B918" s="9" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" s="11" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B919" s="9" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" s="11" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B920" s="8" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" s="11" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B921" s="9" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" s="11" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B922" s="9" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" s="11" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B923" s="8" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" s="11" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B924" s="8" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" s="11" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B925" s="8" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" s="11" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B926" s="8" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" s="11" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B927" s="8" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" s="11" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B928" s="9" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" s="11" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B929" s="8" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" s="11" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B930" s="8" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" s="11" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" s="11" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B932" s="9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C932" s="23" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" s="11" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B933" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" s="11" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B934" s="8" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B935" s="8" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" s="11" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B936" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" s="11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B937" s="8" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" s="11" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B938" s="8" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" s="11" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B939" s="8" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" s="11" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B940" s="8" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" s="11" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B941" s="8" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" s="11" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B942" s="8" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" s="11" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B943" s="9" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" s="11" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B944" s="8" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="11" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B945" s="8" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B946" s="8" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B947" s="8" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="11" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B948" s="8" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="11" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B949" s="8" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="11" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B950" s="8" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="11" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B951" s="8" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="11" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B952" s="8" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B953" s="8" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B954" s="8" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B955" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B956" s="8" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B957" s="8" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B958" s="8" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B959" s="8" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B960" s="8" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B961" s="8" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B962" s="8" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B963" s="8" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B964" s="8" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B965" s="8" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B966" s="8" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B967" s="8" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B968" s="8" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B969" s="8" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B970" s="8" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B971" s="8" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B972" s="8" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B973" s="8" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B974" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B975" s="8" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B976" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B977" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B978" s="8" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B979" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B980" s="8" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B981" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B982" s="8" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B983" s="8" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B984" s="8" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B985" s="8" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B986" s="8" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B987" s="8" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B988" s="8" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B989" s="8" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B990" s="8" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B991" s="8" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B992" s="8" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B993" s="8" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B994" s="8" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B995" s="8" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B996" s="8" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B997" s="8" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B998" s="8" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B999" s="8" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1000" s="8" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1001" s="8" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="8" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1003" s="8" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1004" s="8" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1005" s="8" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1006" s="8" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1007" s="8" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1008" s="8" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1009" s="8" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1010" s="8" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1011" s="8" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1012" s="8" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1013" s="8" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1014" s="8" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1015" s="8" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1016" s="8" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1017" s="8" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1018" s="8" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1019" s="8" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1020" s="8" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1021" s="8" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1022" s="8" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1023" s="8" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1024" s="8" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1025" s="8" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1026" s="8" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1027" s="8" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1028" s="8" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1029" s="8" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1030" s="8" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1031" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1032" s="8" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1033" s="8" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1034" s="8" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1035" s="8" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1036" s="8" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1037" s="8" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1038" s="8" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1039" s="8" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1040" s="8" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1041" s="8" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1042" s="8" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1043" s="8" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1044" s="8" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1045" s="8" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1046" s="8" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1047" s="8" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048" s="8" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1049" s="8" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1050" s="8" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1051" s="8" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1052" s="8" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1053" s="8" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1054" s="8" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1055" s="8" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1056" s="8" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1057" s="8" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1058" s="8" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1059" s="8" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1060" s="8" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1061" s="8" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1062" s="8" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1063" s="8" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1064" s="8" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1065" s="8" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1066" s="8" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1067" s="8" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -15986,88 +19872,1274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="8" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="21"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="6"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="17"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="17"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="18"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="18"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="19"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" s="23"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="21"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="6"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="17"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="17"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="18"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="18"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="19"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" s="23"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I824"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="27"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="27"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="28"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B26" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="27"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="27"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="28"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I824"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A2:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="27"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="27"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="28"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A29" sqref="A2:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="27"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="27"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="12"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="11"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="28"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B824" s="25"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589"/>
   </bookViews>
   <sheets>
-    <sheet name="1000" sheetId="1" r:id="rId1"/>
+    <sheet name="1000（~350）" sheetId="1" r:id="rId1"/>
     <sheet name="2000" sheetId="2" r:id="rId2"/>
     <sheet name="3000" sheetId="3" r:id="rId3"/>
     <sheet name="4000" sheetId="4" r:id="rId4"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="2498">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8456,10 +8456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使沮丧 / 使灰心 / 失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山羊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8880,10 +8876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尝试，视图（努力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9016,10 +9008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9392,10 +9380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>worlfwide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>celebrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9798,6 +9782,479 @@
   <si>
     <t>serve</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试，试图（努力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死记硬背！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使沮丧 / 灰心 / 失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few 少数几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿儿拖（海龟拖着腿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻声的，安静的，安宁，温和的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的，矮的，简短不足的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默，诙谐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tru + th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实，真相，真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁愿，更喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short of 缺乏，达不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾，废物，残渣，拙劣的人，捣毁/破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明设备，照明 / 光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲戚 ，亲属，相对的，比较的，相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st + one = 石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴，尾部，踪迹，后部，尾随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂志，期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自，从，根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨，暴雨，沐浴，洒落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物，种植，工厂，栽种，安放，安置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝结，凝固，冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕，恐惧，犯愁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北美洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米，公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilometer 千米，公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填满，充满，吃饱的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同义词：full 直接，非常，充分，完全，吃饱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方，场所，寓所，等级，放置，安置，安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con + centra中心 + te = 全神贯注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全神贯注，全力以赴，集中，聚集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙龈，口香糖，树胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部，局，处，科，系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲谈，聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾，废物，废话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机，平面，水平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点，指向，观点，点，小数点，地点，尖，尖端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明信片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话，玩笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勺子，汤勺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式，方法，态度，风度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业，获得学位，研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高兴的，愉快的，乐事，荣幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田野，领域，场地，学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth 布料，布，织物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装，衣着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im进入 + press压 = 印象深刻，铭记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象深刻，铭记（impress sb with sth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学，学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强壮的，强有力的，强大的，牢固的，强烈的，擅长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take part in 参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去商店shop买排骨chop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨，砍伐，劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look down upon 瞧不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（动植物的）栖息地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠢人，笨蛋，欺骗，愚弄，愚蠢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">联想：蠢人笨蛋愚弄就是 ----&gt; f圈圈l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片，照片，描绘，设想，电影，印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more than 多于，不仅仅 rather then 而不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错，很好，对吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国（人)的，外星的，陌生的，格格不入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予，供给，赠送，发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云，阴影，天空，一团，笼罩，模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy 多云的，阴天的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令，指示，教学，指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给…穿衣，服装，连衣裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离的，分开的，不同的，划分，区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，如今，此刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航线，航空公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界，地球，天下，领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指，环，圆圈，铃声，打电话给…，包围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的（所有物），矿/矿山，地雷，开矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文，正文，课文，课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的，适当的，正当，固有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康，卫生，保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影，影片，电影院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮，车轮，转动，旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝，欢庆，赞扬，歌颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldwide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全世界的，世界各地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日，日常的，天天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提箱，衣箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿！（引起注意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校，系，学业，学派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈善，施舍，慈善机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色（的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音：茶入爱特爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world世界 + wide宽=worldwide全世界的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近义词：congratulate 庆祝，恭喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s馊 our我们 联想：馊到我们了...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馊，酸臭的，尖酸刻薄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物中心，商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m买 all所有 （的地方） = mall 购物中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理，固定，安装，确定，整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比，百分之X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句子，判决，宣判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：sen森严tence 森严的法律开始宣判了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
@@ -10063,9 +10520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10075,11 +10529,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="仿宋"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10260,55 +10766,6 @@
     <dxf>
       <font>
         <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="仿宋"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -10465,44 +10922,44 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_25" displayName="表2_25" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_25" displayName="表2_25" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="17"/>
-    <tableColumn id="2" name="英文" dataDxfId="16"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="15"/>
+    <tableColumn id="1" name="中文" dataDxfId="15"/>
+    <tableColumn id="2" name="英文" dataDxfId="14"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_26" displayName="表2_26" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_26" displayName="表2_26" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="12"/>
-    <tableColumn id="2" name="英文" dataDxfId="11"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="10"/>
+    <tableColumn id="1" name="中文" dataDxfId="10"/>
+    <tableColumn id="2" name="英文" dataDxfId="9"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_27" displayName="表2_27" ref="A1:C1048576" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_27" displayName="表2_27" ref="A1:C1048576" totalsRowShown="0" dataDxfId="7">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="7"/>
-    <tableColumn id="2" name="英文" dataDxfId="6"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="5"/>
+    <tableColumn id="1" name="中文" dataDxfId="6"/>
+    <tableColumn id="2" name="英文" dataDxfId="5"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_28" displayName="表2_28" ref="A1:C1048576" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_28" displayName="表2_28" ref="A1:C1048576" totalsRowShown="0" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="3"/>
-    <tableColumn id="2" name="英文" dataDxfId="2"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="1"/>
+    <tableColumn id="1" name="中文" dataDxfId="2"/>
+    <tableColumn id="2" name="英文" dataDxfId="1"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10772,10 +11229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I1067"/>
+  <dimension ref="A1:I1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1061" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1077" sqref="B1077"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C779" sqref="C779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10795,12 +11252,12 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -10809,12 +11266,12 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17773,7 +18230,7 @@
       <c r="A776" s="11" t="s">
         <v>1812</v>
       </c>
-      <c r="B776" s="8" t="s">
+      <c r="B776" s="9" t="s">
         <v>1745</v>
       </c>
       <c r="C776" t="s">
@@ -18226,7 +18683,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="11" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B828" s="8" t="s">
         <v>1916</v>
@@ -18250,7 +18707,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="11" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B831" s="8" t="s">
         <v>1920</v>
@@ -18269,7 +18726,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="11" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B833" s="9" t="s">
         <v>1922</v>
@@ -18288,7 +18745,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="11" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B835" s="8" t="s">
         <v>1924</v>
@@ -18328,7 +18785,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="11" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B840" s="8" t="s">
         <v>1929</v>
@@ -18336,7 +18793,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="11" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B841" s="8" t="s">
         <v>1930</v>
@@ -18344,7 +18801,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="11" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B842" s="8" t="s">
         <v>1931</v>
@@ -18355,18 +18812,18 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="11" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B843" s="9" t="s">
         <v>1932</v>
       </c>
       <c r="C843" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="11" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B844" s="9" t="s">
         <v>1933</v>
@@ -18374,18 +18831,18 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="11" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B845" s="9" t="s">
         <v>1934</v>
       </c>
       <c r="C845" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="11" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B846" s="8" t="s">
         <v>1935</v>
@@ -18393,18 +18850,18 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="11" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B847" s="9" t="s">
         <v>1936</v>
       </c>
       <c r="C847" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="11" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B848" s="8" t="s">
         <v>1937</v>
@@ -18412,7 +18869,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="11" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B849" s="8" t="s">
         <v>1938</v>
@@ -18420,18 +18877,18 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="11" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B850" s="9" t="s">
         <v>1939</v>
       </c>
       <c r="C850" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="11" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B851" s="8" t="s">
         <v>1940</v>
@@ -18439,18 +18896,18 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="11" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B852" s="9" t="s">
         <v>1941</v>
       </c>
       <c r="C852" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="11" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B853" s="8" t="s">
         <v>1942</v>
@@ -18458,7 +18915,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="11" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B854" s="8" t="s">
         <v>1943</v>
@@ -18466,15 +18923,15 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B855" s="9" t="s">
         <v>2057</v>
-      </c>
-      <c r="B855" s="9" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="11" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B856" s="8" t="s">
         <v>1944</v>
@@ -18482,18 +18939,18 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="11" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B857" s="8" t="s">
         <v>1945</v>
       </c>
       <c r="C857" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="11" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B858" s="8" t="s">
         <v>1946</v>
@@ -18501,40 +18958,40 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="11" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B859" s="9" t="s">
         <v>1947</v>
       </c>
       <c r="C859" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="11" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B860" s="9" t="s">
         <v>1948</v>
       </c>
       <c r="C860" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="11" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B861" s="9" t="s">
         <v>1949</v>
       </c>
       <c r="C861" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="11" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B862" s="8" t="s">
         <v>1950</v>
@@ -18542,7 +18999,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="11" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B863" s="8" t="s">
         <v>1951</v>
@@ -18550,7 +19007,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="11" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B864" s="8" t="s">
         <v>1952</v>
@@ -18558,7 +19015,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="11" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B865" s="8" t="s">
         <v>1953</v>
@@ -18566,7 +19023,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="11" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B866" s="8" t="s">
         <v>1954</v>
@@ -18574,7 +19031,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="11" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B867" s="8" t="s">
         <v>1955</v>
@@ -18582,7 +19039,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="11" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B868" s="8" t="s">
         <v>1956</v>
@@ -18590,7 +19047,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="11" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B869" s="9" t="s">
         <v>1957</v>
@@ -18598,7 +19055,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="11" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B870" s="8" t="s">
         <v>1958</v>
@@ -18606,7 +19063,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="11" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B871" s="8" t="s">
         <v>1959</v>
@@ -18614,7 +19071,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="11" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B872" s="8" t="s">
         <v>1960</v>
@@ -18622,18 +19079,18 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="11" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B873" s="9" t="s">
         <v>1961</v>
       </c>
       <c r="C873" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="11" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B874" s="8" t="s">
         <v>1962</v>
@@ -18641,7 +19098,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="11" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B875" s="8" t="s">
         <v>1963</v>
@@ -18649,7 +19106,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="11" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B876" s="8" t="s">
         <v>1964</v>
@@ -18657,7 +19114,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="11" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B877" s="8" t="s">
         <v>1965</v>
@@ -18665,7 +19122,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="11" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B878" s="8" t="s">
         <v>1966</v>
@@ -18673,7 +19130,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="11" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B879" s="8" t="s">
         <v>1967</v>
@@ -18681,7 +19138,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="11" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B880" s="8" t="s">
         <v>1968</v>
@@ -18689,7 +19146,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="11" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B881" s="8" t="s">
         <v>1969</v>
@@ -18697,7 +19154,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="11" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B882" s="8" t="s">
         <v>1970</v>
@@ -18713,7 +19170,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="11" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B884" s="9" t="s">
         <v>1972</v>
@@ -18721,7 +19178,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="11" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B885" s="8" t="s">
         <v>1973</v>
@@ -18729,7 +19186,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="11" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B886" s="8" t="s">
         <v>1974</v>
@@ -18737,7 +19194,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="11" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B887" s="8" t="s">
         <v>1975</v>
@@ -18745,7 +19202,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="11" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B888" s="8" t="s">
         <v>1976</v>
@@ -18753,7 +19210,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="11" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B889" s="8" t="s">
         <v>1977</v>
@@ -18761,7 +19218,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="11" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B890" s="9" t="s">
         <v>1978</v>
@@ -18769,7 +19226,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="11" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B891" s="8" t="s">
         <v>1979</v>
@@ -18777,7 +19234,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="11" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B892" s="8" t="s">
         <v>1980</v>
@@ -18785,7 +19242,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="11" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B893" s="8" t="s">
         <v>1981</v>
@@ -18793,7 +19250,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="11" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B894" s="8" t="s">
         <v>1982</v>
@@ -18801,7 +19258,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="11" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B895" s="8" t="s">
         <v>1983</v>
@@ -18809,7 +19266,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="11" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B896" s="9" t="s">
         <v>1984</v>
@@ -18817,18 +19274,18 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="11" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B897" s="8" t="s">
         <v>1985</v>
       </c>
       <c r="C897" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="11" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B898" s="9" t="s">
         <v>1986</v>
@@ -18836,7 +19293,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="11" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B899" s="9" t="s">
         <v>1987</v>
@@ -18844,7 +19301,7 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="11" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B900" s="8" t="s">
         <v>1988</v>
@@ -18852,7 +19309,7 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="11" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B901" s="8" t="s">
         <v>1989</v>
@@ -18860,7 +19317,7 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="11" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B902" s="8" t="s">
         <v>1990</v>
@@ -18868,7 +19325,7 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="11" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B903" s="8" t="s">
         <v>1991</v>
@@ -18876,7 +19333,7 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="11" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B904" s="8" t="s">
         <v>1992</v>
@@ -18884,7 +19341,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="11" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B905" s="8" t="s">
         <v>1993</v>
@@ -18892,7 +19349,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="11" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B906" s="8" t="s">
         <v>1994</v>
@@ -18900,7 +19357,7 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="11" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B907" s="8" t="s">
         <v>1995</v>
@@ -18908,7 +19365,7 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="11" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B908" s="9" t="s">
         <v>1996</v>
@@ -18916,7 +19373,7 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="11" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B909" s="8" t="s">
         <v>1997</v>
@@ -18924,7 +19381,7 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="11" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B910" s="8" t="s">
         <v>1998</v>
@@ -18932,7 +19389,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="11" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B911" s="8" t="s">
         <v>1999</v>
@@ -18940,7 +19397,7 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="11" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B912" s="8" t="s">
         <v>2000</v>
@@ -18948,7 +19405,7 @@
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="11" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B913" s="8" t="s">
         <v>2001</v>
@@ -18956,7 +19413,7 @@
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="11" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B914" s="8" t="s">
         <v>2002</v>
@@ -18964,7 +19421,7 @@
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="11" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B915" s="8" t="s">
         <v>2003</v>
@@ -18972,7 +19429,7 @@
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="11" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B916" s="8" t="s">
         <v>2004</v>
@@ -18980,7 +19437,7 @@
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="11" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B917" s="8" t="s">
         <v>2005</v>
@@ -18988,7 +19445,7 @@
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="11" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B918" s="9" t="s">
         <v>2006</v>
@@ -18996,7 +19453,7 @@
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="11" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B919" s="9" t="s">
         <v>2008</v>
@@ -19004,7 +19461,7 @@
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="11" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B920" s="8" t="s">
         <v>2009</v>
@@ -19012,7 +19469,7 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="11" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B921" s="9" t="s">
         <v>2010</v>
@@ -19020,18 +19477,18 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="11" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B922" s="9" t="s">
         <v>2011</v>
       </c>
       <c r="C922" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="11" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B923" s="8" t="s">
         <v>2012</v>
@@ -19039,7 +19496,7 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="11" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B924" s="8" t="s">
         <v>2013</v>
@@ -19047,7 +19504,7 @@
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="11" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B925" s="8" t="s">
         <v>2014</v>
@@ -19055,7 +19512,7 @@
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="11" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B926" s="8" t="s">
         <v>2015</v>
@@ -19063,7 +19520,7 @@
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="11" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B927" s="8" t="s">
         <v>2016</v>
@@ -19071,7 +19528,7 @@
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="11" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B928" s="9" t="s">
         <v>2017</v>
@@ -19079,7 +19536,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="11" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B929" s="8" t="s">
         <v>2018</v>
@@ -19087,7 +19544,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="11" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B930" s="8" t="s">
         <v>2019</v>
@@ -19095,7 +19552,7 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="11" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B931" s="8" t="s">
         <v>2020</v>
@@ -19103,29 +19560,29 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="11" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B932" s="9" t="s">
         <v>2021</v>
       </c>
-      <c r="C932" s="23" t="s">
-        <v>2172</v>
+      <c r="C932" s="22" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="11" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B933" s="8" t="s">
         <v>2022</v>
       </c>
       <c r="C933" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="11" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B934" s="8" t="s">
         <v>2023</v>
@@ -19133,7 +19590,7 @@
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="11" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B935" s="8" t="s">
         <v>2024</v>
@@ -19141,18 +19598,18 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="11" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B936" s="8" t="s">
         <v>2025</v>
       </c>
       <c r="C936" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="11" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B937" s="8" t="s">
         <v>2026</v>
@@ -19160,7 +19617,7 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="11" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B938" s="8" t="s">
         <v>2027</v>
@@ -19168,7 +19625,7 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="11" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B939" s="8" t="s">
         <v>2028</v>
@@ -19176,7 +19633,7 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="11" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B940" s="8" t="s">
         <v>2029</v>
@@ -19184,7 +19641,7 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="11" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B941" s="8" t="s">
         <v>2030</v>
@@ -19192,7 +19649,7 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="11" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B942" s="8" t="s">
         <v>2031</v>
@@ -19200,660 +19657,1008 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="11" t="s">
-        <v>2044</v>
+        <v>2381</v>
       </c>
       <c r="B943" s="9" t="s">
         <v>1934</v>
       </c>
       <c r="C943" t="s">
-        <v>2047</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="11" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B944" s="8" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" s="11" t="s">
         <v>2080</v>
-      </c>
-      <c r="B944" s="8" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" s="11" t="s">
-        <v>2081</v>
       </c>
       <c r="B945" s="8" t="s">
         <v>2007</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="11" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B946" s="8" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" s="11" t="s">
         <v>2082</v>
-      </c>
-      <c r="B946" s="8" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" s="11" t="s">
-        <v>2083</v>
       </c>
       <c r="B947" s="8" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B948" s="8" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" s="11" t="s">
         <v>2084</v>
       </c>
-      <c r="B948" s="8" t="s">
+      <c r="B949" s="8" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" s="11" t="s">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" s="11" t="s">
         <v>2085</v>
       </c>
-      <c r="B949" s="8" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" s="11" t="s">
+      <c r="B950" s="8" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" s="11" t="s">
         <v>2086</v>
       </c>
-      <c r="B950" s="8" t="s">
+      <c r="B951" s="8" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" s="11" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B951" s="8" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="11" t="s">
-        <v>2153</v>
+        <v>2379</v>
       </c>
       <c r="B952" s="8" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B953" s="8" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B954" s="8" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C954" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B955" s="8" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B954" s="8" t="s">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B956" s="9" t="s">
         <v>2183</v>
       </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B955" s="8" t="s">
+      <c r="C956" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B957" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B956" s="8" t="s">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B958" s="8" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" s="11" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B959" s="8" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B957" s="8" t="s">
+      <c r="C959" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" s="11" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B960" s="9" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B958" s="8" t="s">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B961" s="8" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B959" s="8" t="s">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" s="11" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B962" s="8" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B960" s="8" t="s">
+      <c r="C962" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" s="11" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B963" s="9" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B961" s="8" t="s">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B964" s="8" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B962" s="8" t="s">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" s="11" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B965" s="9" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B963" s="8" t="s">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" s="11" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B966" s="8" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B964" s="8" t="s">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" s="11" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B967" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B965" s="8" t="s">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" s="11" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B968" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B966" s="8" t="s">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" s="11" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B969" s="8" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B967" s="8" t="s">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" s="11" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B970" s="8" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B968" s="8" t="s">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" s="11" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B971" s="8" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B969" s="8" t="s">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" s="11" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B972" s="8" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B970" s="8" t="s">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" s="11" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B973" s="8" t="s">
         <v>2199</v>
       </c>
-    </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B971" s="8" t="s">
+      <c r="C973" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" s="11" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B974" s="8" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B972" s="8" t="s">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" s="11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B975" s="8" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B973" s="8" t="s">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B976" s="8" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B974" s="8" t="s">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B977" s="8" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B975" s="8" t="s">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B978" s="8" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B976" s="8" t="s">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B979" s="8" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B977" s="8" t="s">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B980" s="8" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B978" s="8" t="s">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" s="11" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B981" s="9" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B979" s="8" t="s">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B982" s="8" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B980" s="8" t="s">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" s="11" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B983" s="9" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B981" s="8" t="s">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" s="11" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B984" s="8" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B982" s="8" t="s">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B985" s="8" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B983" s="8" t="s">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B986" s="8" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B984" s="8" t="s">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B987" s="8" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B985" s="8" t="s">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A988" s="11" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B988" s="8" t="s">
         <v>2214</v>
       </c>
-    </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B986" s="8" t="s">
+      <c r="C988" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B989" s="8" t="s">
         <v>2215</v>
       </c>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B987" s="8" t="s">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A990" s="18" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B990" s="9" t="s">
         <v>2216</v>
       </c>
-    </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B988" s="8" t="s">
+      <c r="C990" s="22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A991" s="11" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B991" s="9" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B989" s="8" t="s">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A992" s="11" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B992" s="9" t="s">
         <v>2218</v>
       </c>
-    </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B990" s="8" t="s">
+      <c r="C992" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="11" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B993" s="9" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B991" s="8" t="s">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="11" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B994" s="9" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B992" s="8" t="s">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B995" s="9" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B993" s="8" t="s">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" s="11" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B996" s="9" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B994" s="8" t="s">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="11" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B997" s="9" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B995" s="8" t="s">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="11" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B998" s="9" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B996" s="8" t="s">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="11" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B999" s="8" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B997" s="8" t="s">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" s="11" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1000" s="8" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B998" s="8" t="s">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="11" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1001" s="9" t="s">
         <v>2227</v>
       </c>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B999" s="8" t="s">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="11" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1002" s="9" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="8" t="s">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" s="11" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1003" s="9" t="s">
         <v>2229</v>
       </c>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1001" s="8" t="s">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="11" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1004" s="8" t="s">
         <v>2230</v>
       </c>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1002" s="8" t="s">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="11" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1005" s="9" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1003" s="8" t="s">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="11" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1006" s="8" t="s">
         <v>2232</v>
       </c>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1004" s="8" t="s">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" s="11" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1007" s="8" t="s">
         <v>2233</v>
       </c>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1005" s="8" t="s">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1008" s="8" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1006" s="8" t="s">
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1009" s="11" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1009" s="8" t="s">
         <v>2235</v>
       </c>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1007" s="8" t="s">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1010" s="11" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1010" s="8" t="s">
         <v>2236</v>
       </c>
-    </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1008" s="8" t="s">
+      <c r="C1010" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1011" s="8" t="s">
         <v>2237</v>
       </c>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1009" s="8" t="s">
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1012" s="9" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1010" s="8" t="s">
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1013" s="11" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1013" s="9" t="s">
         <v>2239</v>
       </c>
-    </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1011" s="8" t="s">
+      <c r="C1013" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1014" s="8" t="s">
         <v>2240</v>
       </c>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1012" s="8" t="s">
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1015" s="11" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1015" s="8" t="s">
         <v>2241</v>
       </c>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1013" s="8" t="s">
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1016" s="11" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1016" s="9" t="s">
         <v>2242</v>
       </c>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1014" s="8" t="s">
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1017" s="8" t="s">
         <v>2243</v>
       </c>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1015" s="8" t="s">
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1018" s="8" t="s">
         <v>2244</v>
       </c>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1016" s="8" t="s">
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1019" s="8" t="s">
         <v>2245</v>
       </c>
-    </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1017" s="8" t="s">
+      <c r="C1019" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1020" s="11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1020" s="9" t="s">
         <v>2246</v>
       </c>
-    </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1018" s="8" t="s">
+      <c r="C1020" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1021" s="8" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1019" s="8" t="s">
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1022" s="8" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1020" s="8" t="s">
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1023" s="11" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1023" s="9" t="s">
         <v>2249</v>
       </c>
-    </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1021" s="8" t="s">
+      <c r="C1023" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1024" s="8" t="s">
         <v>2250</v>
       </c>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1022" s="8" t="s">
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1025" s="8" t="s">
         <v>2251</v>
       </c>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1023" s="8" t="s">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1026" s="8" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1024" s="8" t="s">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1027" s="11" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1027" s="9" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1025" s="8" t="s">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1028" s="11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1028" s="9" t="s">
         <v>2254</v>
       </c>
-    </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1026" s="8" t="s">
+      <c r="C1028" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1029" s="8" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1027" s="8" t="s">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1030" s="11" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1030" s="8" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1028" s="8" t="s">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1031" s="11" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1031" s="8" t="s">
         <v>2257</v>
       </c>
-    </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1029" s="8" t="s">
+      <c r="C1031" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1032" s="11" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1032" s="8" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1030" s="8" t="s">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1033" s="11" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1033" s="8" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1034" s="11" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1034" s="8" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1031" s="8" t="s">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1035" s="11" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1035" s="8" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1032" s="8" t="s">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1036" s="11" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1036" s="8" t="s">
         <v>2261</v>
       </c>
-    </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1033" s="8" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1034" s="8" t="s">
+      <c r="C1036" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1037" s="8" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1035" s="8" t="s">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1038" s="11" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1038" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1036" s="8" t="s">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1039" s="11" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1039" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1037" s="8" t="s">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1040" s="11" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1040" s="9" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1038" s="8" t="s">
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1041" s="11" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1041" s="8" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1039" s="8" t="s">
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1042" s="11" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1042" s="8" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1040" s="8" t="s">
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1043" s="11" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1043" s="9" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1041" s="8" t="s">
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1044" s="11" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1044" s="8" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1042" s="8" t="s">
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1045" s="11" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1045" s="8" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1043" s="8" t="s">
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1046" s="11" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1046" s="8" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1044" s="8" t="s">
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1047" s="11" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1047" s="9" t="s">
         <v>2272</v>
       </c>
-    </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1045" s="8" t="s">
+      <c r="C1047" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1048" s="11" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1048" s="9" t="s">
         <v>2273</v>
       </c>
-    </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1046" s="8" t="s">
+      <c r="C1048" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1049" s="11" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1049" s="8" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1047" s="8" t="s">
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1050" s="11" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B1050" s="8" t="s">
         <v>2275</v>
       </c>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048" s="8" t="s">
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1051" s="11" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1051" s="8" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1049" s="8" t="s">
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1052" s="11" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1052" s="9" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1050" s="8" t="s">
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1053" s="11" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1053" s="8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1054" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1054" s="9" t="s">
         <v>2278</v>
       </c>
-    </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1051" s="8" t="s">
+      <c r="C1054" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1055" s="11" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1055" s="8" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1052" s="8" t="s">
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1056" s="11" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1056" s="9" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1053" s="8" t="s">
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1057" s="11" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1057" s="8" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1054" s="8" t="s">
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1058" s="11" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1058" s="8" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1055" s="8" t="s">
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1059" s="11" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1059" s="8" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1056" s="8" t="s">
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1060" s="11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1060" s="8" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1057" s="8" t="s">
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1061" s="11" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B1061" s="9" t="s">
         <v>2285</v>
       </c>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1058" s="8" t="s">
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1062" s="11" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1062" s="9" t="s">
         <v>2286</v>
       </c>
-    </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1059" s="8" t="s">
+      <c r="C1062" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1063" s="11" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1063" s="8" t="s">
         <v>2287</v>
       </c>
-    </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1060" s="8" t="s">
+      <c r="C1063" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1064" s="11" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1064" s="8" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1061" s="8" t="s">
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1065" s="11" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B1065" s="9" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1062" s="8" t="s">
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1066" s="11" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B1066" s="9" t="s">
         <v>2290</v>
       </c>
-    </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1063" s="8" t="s">
+      <c r="C1066" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1067" s="11" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1067" s="9" t="s">
         <v>2291</v>
       </c>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1064" s="8" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1065" s="8" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1066" s="8" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1067" s="8" t="s">
-        <v>2295</v>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1068" s="11" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1068" s="8" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1069" s="11" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1069" s="8" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1070" s="11" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1070" s="8" t="s">
+        <v>2497</v>
       </c>
     </row>
   </sheetData>
@@ -19874,8 +20679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19895,452 +20700,452 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>2296</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+        <v>2292</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="8" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -20428,10 +21233,10 @@
       <c r="C750" s="19"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C932" s="23"/>
+      <c r="C932" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20467,16 +21272,16 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -20575,10 +21380,10 @@
       <c r="C750" s="19"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C932" s="23"/>
+      <c r="C932" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20601,7 +21406,7 @@
   <cols>
     <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -20611,19 +21416,19 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -20698,13 +21503,13 @@
       <c r="A437" s="12"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="27"/>
+      <c r="C451" s="26"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="27"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
@@ -20713,10 +21518,10 @@
       <c r="C618" s="11"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="28"/>
+      <c r="C750" s="27"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20739,8 +21544,8 @@
   <cols>
     <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="26"/>
+    <col min="3" max="3" width="41.33203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -20750,19 +21555,19 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -20837,13 +21642,13 @@
       <c r="A437" s="12"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="27"/>
+      <c r="C451" s="26"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="27"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
@@ -20852,10 +21657,10 @@
       <c r="C618" s="11"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="28"/>
+      <c r="C750" s="27"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20878,7 +21683,7 @@
   <cols>
     <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -20891,16 +21696,16 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -20975,13 +21780,13 @@
       <c r="A437" s="12"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="27"/>
+      <c r="C451" s="26"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="27"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
@@ -20990,10 +21795,10 @@
       <c r="C618" s="11"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="28"/>
+      <c r="C750" s="27"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21017,7 +21822,7 @@
   <cols>
     <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -21030,16 +21835,16 @@
       <c r="C1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -21114,13 +21919,13 @@
       <c r="A437" s="12"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="27"/>
+      <c r="C451" s="26"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="27"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
@@ -21129,10 +21934,10 @@
       <c r="C618" s="11"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="28"/>
+      <c r="C750" s="27"/>
     </row>
     <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="25"/>
+      <c r="B824" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1000（~350）" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="2498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="2808">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9696,255 +9696,1281 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>across</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试，试图（努力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死记硬背！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使沮丧 / 灰心 / 失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few 少数几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿儿拖（海龟拖着腿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻声的，安静的，安宁，温和的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的，矮的，简短不足的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默，诙谐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tru + th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实，真相，真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁愿，更喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short of 缺乏，达不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾，废物，残渣，拙劣的人，捣毁/破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明设备，照明 / 光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲戚 ，亲属，相对的，比较的，相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st + one = 石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴，尾部，踪迹，后部，尾随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂志，期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自，从，根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨，暴雨，沐浴，洒落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物，种植，工厂，栽种，安放，安置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝结，凝固，冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕，恐惧，犯愁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北美洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米，公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilometer 千米，公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填满，充满，吃饱的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同义词：full 直接，非常，充分，完全，吃饱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方，场所，寓所，等级，放置，安置，安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con + centra中心 + te = 全神贯注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全神贯注，全力以赴，集中，聚集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙龈，口香糖，树胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部，局，处，科，系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲谈，聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾，废物，废话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机，平面，水平面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点，指向，观点，点，小数点，地点，尖，尖端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明信片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话，玩笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勺子，汤勺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式，方法，态度，风度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业，获得学位，研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高兴的，愉快的，乐事，荣幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田野，领域，场地，学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth 布料，布，织物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装，衣着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im进入 + press压 = 印象深刻，铭记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象深刻，铭记（impress sb with sth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学，学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强壮的，强有力的，强大的，牢固的，强烈的，擅长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take part in 参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去商店shop买排骨chop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨，砍伐，劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look down upon 瞧不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（动植物的）栖息地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠢人，笨蛋，欺骗，愚弄，愚蠢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">联想：蠢人笨蛋愚弄就是 ----&gt; f圈圈l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片，照片，描绘，设想，电影，印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more than 多于，不仅仅 rather then 而不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错，很好，对吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国（人)的，外星的，陌生的，格格不入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予，供给，赠送，发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云，阴影，天空，一团，笼罩，模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy 多云的，阴天的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令，指示，教学，指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给…穿衣，服装，连衣裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离的，分开的，不同的，划分，区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，如今，此刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航线，航空公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界，地球，天下，领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指，环，圆圈，铃声，打电话给…，包围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的（所有物），矿/矿山，地雷，开矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文，正文，课文，课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的，适当的，正当，固有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康，卫生，保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影，影片，电影院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮，车轮，转动，旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝，欢庆，赞扬，歌颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldwide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全世界的，世界各地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日，日常的，天天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提箱，衣箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿！（引起注意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校，系，学业，学派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈善，施舍，慈善机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色（的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音：茶入爱特爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world世界 + wide宽=worldwide全世界的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近义词：congratulate 庆祝，恭喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s馊 our我们 联想：馊到我们了...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馊，酸臭的，尖酸刻薄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物中心，商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m买 all所有 （的地方） = mall 购物中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理，固定，安装，确定，整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比，百分之X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句子，判决，宣判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：sen森严tence 森严的法律开始宣判了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>可能的;可接受的;合理的</t>
+  </si>
+  <si>
+    <t>很少;很少的;几乎没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它自己，它本身;自身，本身</t>
+  </si>
+  <si>
+    <t>乐趣;娱乐活动;嬉戏，嬉闹;有趣的事</t>
+  </si>
+  <si>
+    <t>年;年纪;一年的期间;某年级的学生</t>
+  </si>
+  <si>
+    <t>鞋;蹄铁</t>
+  </si>
+  <si>
+    <t>发展;形成;生长;发达,开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气的;愤怒的，发怒的;</t>
+  </si>
+  <si>
+    <t>请 / 讨好，使高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外;户外的，露天的;喜欢户外活动的</t>
+  </si>
+  <si>
+    <t>亲密的;紧密的;亲近的 / 关;结束;使靠近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页;（计算机的）页面;标记，翻书页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>（两者之中）任何一个 / 非己彼此的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出局;在外，在外部;完全，彻底;出版</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盒;箱状物;包厢;哨房 / 把…装入盒[箱，匣]中 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，成就;好成绩，好结果;成功的人</t>
+  </si>
+  <si>
+    <t>第五，1/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花;保护物品的小片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背，背部;背面，反面;后面，后部，回退，后退，倒退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色的，纯洁的;无色的，透明的</t>
+  </si>
+  <si>
+    <t>膝;膝盖</t>
+  </si>
+  <si>
+    <t>部分;零件;参加;地区，分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有人，无人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接吻;轻拂;轻微碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一星期，周;工作周</t>
+  </si>
+  <si>
+    <t>美洲;美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证，执照;特许</t>
+  </si>
+  <si>
+    <t>原因;理由;理性;理智</t>
+  </si>
+  <si>
+    <t>送;派遣；派人；使进入某状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrigerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>among</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conjunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还吃的，吸引人的，美味的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>these cakes aer so tasky that I can't stop eating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级，分数，评分，年纪，级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚，婚姻，婚礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路，途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果，效果，成绩，成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abroad 在国外，在外面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball球 balloon气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间，空间，地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因，理由，引起，给…带来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏的，有缺陷的，邪恶的，腐败的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不健康的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期，假日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒暑假：summer / winter holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画，描绘，提取，抽签，抽出，引起，平局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造，创作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望，但愿，祝愿，请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试，试题，检查，调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术，技艺，美术，文科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜的，和蔼的，温柔的，芳香的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送，捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do + nate = 赠送，捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太，还，过于，很，非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则，规章，习惯，惯例，控制/统治/管辖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋天，秋季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色的，黄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告，公告，宣传活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告： advertizing, advertising, advertisement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁（who)的宾格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升起，上升，增加，反抗，起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>措辞，术语，期限，条款，把…称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作，运转，经营，活动，运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤，煤块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到，才，到…位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣~  （音）扣煤块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机术语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯，习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行，旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t + our我们 === 旅游，旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期的，有规律的，规则的，正规的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多，多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁极/地极的，正好相反的的，对立的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她他它们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一的，单个的，独身的，单打，单程票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂，礼拜，教会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁，地下道，地道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞成/赞成票，正面的，从事某职业的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢笔，圆珠笔，（畜生的）围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal + end + er ----- 日期为人 ---&gt; 日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持，拿/握，包含/拖住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth地球 quake震动/晃动 ---&gt; 地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集，收集，汇集，领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17，17个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫穷的，可怜的，贫困的，差的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府，内阁，智力，统治，政体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair + cut 联想（头发 + 剪）---&gt; 理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国人，法语，法国人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的，昂贵的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带，需要，话费，吃喝，接受，乘车/船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子，反射，映/照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市，都市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚蠢，迟钝，无聊，烦人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s土PID &gt; 这个“进程” 愚蠢，迟钝，无聊，烦人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（葡萄）酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win赢 e鹅  联想：赢了的鹅在喝葡萄酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有罪的，犯罪的，惭愧/内疚的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惭愧内疚的---&gt; 跪额l忒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状，形体，幻象，状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死的，无感觉的，呆板的，死者，完全/绝对的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服从，听从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎，差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七，1/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机会，机遇，碰巧，偶然，可能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>microwave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doubt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>across</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dangerous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perfect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transportation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试，试图（努力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死记硬背！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使沮丧 / 灰心 / 失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a few 少数几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿儿拖（海龟拖着腿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻声的，安静的，安宁，温和的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quiet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短的，矮的，简短不足的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽默，诙谐的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tru + th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事实，真相，真理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁愿，更喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>short of 缺乏，达不到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾，废物，残渣，拙劣的人，捣毁/破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照明设备，照明 / 光线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲戚 ，亲属，相对的，比较的，相关的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st + one = 石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴，尾部，踪迹，后部，尾随</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂志，期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自，从，根据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵雨，暴雨，沐浴，洒落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物，种植，工厂，栽种，安放，安置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝结，凝固，冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>害怕，恐惧，犯愁的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北美洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米，公尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kilometer 千米，公里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填满，充满，吃饱的量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同义词：full 直接，非常，充分，完全，吃饱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地方，场所，寓所，等级，放置，安置，安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>con + centra中心 + te = 全神贯注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全神贯注，全力以赴，集中，聚集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牙龈，口香糖，树胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部，局，处，科，系</t>
+    <t>micro + wave波，波动，波浪 ---&gt; 微波炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微波炉，微波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重double身份，值得怀疑doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑虑，怀疑，不相信  ( no doubt 毫无疑问 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使振奋，欢呼，喝彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝着啤酒beer为中国队加油欢呼！cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>across(从表面穿过) throuth(从里面穿过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越，穿过，横过，从一边到另一边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼，蛋糕，糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡树，橡木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点，处所，斑点，污点/少量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆圈，圈子，阶层，围着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋味，味觉，口味，鉴赏力，兴趣，爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近义词：tasty 美味的，有吸引力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等的，平均的，媒介，工具，方法/手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问候，迎接，作出反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见面meet要问候greet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险/不安全的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丸美/无暇的，十足/最佳的，理想的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事，事情/事件，物品，东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去/离开，变得/成为，运转/运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验，阅历，经历，体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油煎，油炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸的fry想飞了fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输，运输系统，运输工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport运输，交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为..服务/招待/伺候，符合/适用于/满足，供应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林荫道，道路，大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱/无力的，差的/微薄/稀薄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上完一周week的课，感觉很无力weak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼，（钓/捕）鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅速/快的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra + pid 联想：切换进程很快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑车/马，乘车/马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义/含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人/各人/人人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>france</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间/片刻，机会/时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室（bath 洗澡，room房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成词：bath 洗澡，room房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代的，古老的，年老的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园，停车场，停放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近，靠近/接近，亲近的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近义词：nearly 几乎，差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵的/昂贵的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9952,309 +10978,508 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闲谈，聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾，废物，废话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机，平面，水平面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要点，指向，观点，点，小数点，地点，尖，尖端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明信片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笑话，玩笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勺子，汤勺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式，方法，态度，风度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业，获得学位，研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高兴的，愉快的，乐事，荣幸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田野，领域，场地，学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloth 布料，布，织物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装，衣着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im进入 + press压 = 印象深刻，铭记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象深刻，铭记（impress sb with sth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学，学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强壮的，强有力的，强大的，牢固的，强烈的，擅长的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>take part in 参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去商店shop买排骨chop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排骨，砍伐，劈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在…之上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>look down upon 瞧不起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（动植物的）栖息地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蠢人，笨蛋，欺骗，愚弄，愚蠢的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">联想：蠢人笨蛋愚弄就是 ----&gt; f圈圈l </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片，照片，描绘，设想，电影，印象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与…比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>more than 多于，不仅仅 rather then 而不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不错，很好，对吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外国（人)的，外星的，陌生的，格格不入的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予，供给，赠送，发出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云，阴影，天空，一团，笼罩，模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloudy 多云的，阴天的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令，指示，教学，指导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给…穿衣，服装，连衣裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离的，分开的，不同的，划分，区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，如今，此刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航线，航空公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界，地球，天下，领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指，环，圆圈，铃声，打电话给…，包围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的（所有物），矿/矿山，地雷，开矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原文，正文，课文，课本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的，适当的，正当，固有的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康，卫生，保健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电影，影片，电影院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮，车轮，转动，旋转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庆祝，欢庆，赞扬，歌颂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldwide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全世界的，世界各地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日，日常的，天天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手提箱，衣箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿！（引起注意）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校，系，学业，学派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慈善，施舍，慈善机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色（的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音：茶入爱特爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>world世界 + wide宽=worldwide全世界的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近义词：congratulate 庆祝，恭喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s馊 our我们 联想：馊到我们了...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馊，酸臭的，尖酸刻薄的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物中心，商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m买 all所有 （的地方） = mall 购物中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修理，固定，安装，确定，整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比，百分之X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>句子，判决，宣判</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想：sen森严tence 森严的法律开始宣判了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>North America</t>
+    <t>冰鞋/溜冰/滑冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s 和 e 中间在kat ---&gt; 滑冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定/一定/必然的，可靠/稳妥的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭，哭喊，叫喊，大声地说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一/首次/最先/最早的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之中 / 在…之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合，连词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想：链接军队的动作 —--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提/挑/背/搬运，输送/传送/携带，怀着/支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室/办事处/营业所，处/所/局，公职/职责，帮忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一文不名的; 破了产的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertainment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brfore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crowd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soccer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourteen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>somebody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specifically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sometimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hometown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shampoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teenager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11231,8 +12456,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C779" sqref="C779"/>
+    <sheetView topLeftCell="A989" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A1070" sqref="A1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19657,13 +20882,13 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="11" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B943" s="9" t="s">
         <v>1934</v>
       </c>
       <c r="C943" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
@@ -19732,105 +20957,123 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="11" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B952" s="8" t="s">
         <v>1939</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" s="11" t="s">
+        <v>2497</v>
+      </c>
       <c r="B953" s="8" t="s">
         <v>2180</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" s="11" t="s">
+        <v>2498</v>
+      </c>
       <c r="B954" s="8" t="s">
         <v>2181</v>
       </c>
       <c r="C954" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" s="11" t="s">
+        <v>2499</v>
+      </c>
       <c r="B955" s="8" t="s">
         <v>2182</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="11" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B956" s="9" t="s">
         <v>2183</v>
       </c>
       <c r="C956" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" s="11" t="s">
+        <v>2500</v>
+      </c>
       <c r="B957" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="11" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B958" s="8" t="s">
         <v>2384</v>
-      </c>
-      <c r="B958" s="8" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="11" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B959" s="8" t="s">
         <v>2185</v>
       </c>
       <c r="C959" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="11" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B960" s="9" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="11" t="s">
+        <v>2501</v>
+      </c>
       <c r="B961" s="8" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="11" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B962" s="8" t="s">
         <v>2188</v>
       </c>
       <c r="C962" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="11" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B963" s="9" t="s">
         <v>2189</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" s="11" t="s">
+        <v>2502</v>
+      </c>
       <c r="B964" s="8" t="s">
         <v>2190</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="11" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B965" s="9" t="s">
         <v>2191</v>
@@ -19838,7 +21081,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="11" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B966" s="8" t="s">
         <v>2192</v>
@@ -19846,7 +21089,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="11" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B967" s="9" t="s">
         <v>2193</v>
@@ -19854,7 +21097,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="11" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B968" s="9" t="s">
         <v>2194</v>
@@ -19862,7 +21105,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="11" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B969" s="8" t="s">
         <v>2195</v>
@@ -19870,7 +21113,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="11" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B970" s="8" t="s">
         <v>2196</v>
@@ -19878,7 +21121,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="11" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B971" s="8" t="s">
         <v>2197</v>
@@ -19886,7 +21129,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="11" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B972" s="8" t="s">
         <v>2198</v>
@@ -19894,18 +21137,18 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="11" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B973" s="8" t="s">
         <v>2199</v>
       </c>
       <c r="C973" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="11" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B974" s="8" t="s">
         <v>2200</v>
@@ -19913,53 +21156,71 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B975" s="8" t="s">
         <v>2201</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" s="11" t="s">
+        <v>2503</v>
+      </c>
       <c r="B976" s="8" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" s="11" t="s">
+        <v>2504</v>
+      </c>
       <c r="B977" s="8" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" s="11" t="s">
+        <v>2505</v>
+      </c>
       <c r="B978" s="8" t="s">
         <v>2204</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" s="11" t="s">
+        <v>2506</v>
+      </c>
       <c r="B979" s="8" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" s="11" t="s">
+        <v>2507</v>
+      </c>
       <c r="B980" s="8" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="11" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B981" s="9" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" s="11" t="s">
+        <v>2508</v>
+      </c>
       <c r="B982" s="8" t="s">
         <v>2208</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="11" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B983" s="9" t="s">
         <v>2209</v>
@@ -19967,57 +21228,69 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="11" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B984" s="8" t="s">
         <v>2210</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" s="11" t="s">
+        <v>2509</v>
+      </c>
       <c r="B985" s="8" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" s="11" t="s">
+        <v>2510</v>
+      </c>
       <c r="B986" s="8" t="s">
         <v>2212</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A987" s="11" t="s">
+        <v>2511</v>
+      </c>
       <c r="B987" s="8" t="s">
         <v>2213</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="11" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B988" s="8" t="s">
         <v>2214</v>
       </c>
       <c r="C988" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A989" s="11" t="s">
+        <v>2512</v>
+      </c>
       <c r="B989" s="8" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="18" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B990" s="9" t="s">
         <v>2216</v>
       </c>
       <c r="C990" s="22" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="11" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B991" s="9" t="s">
         <v>2217</v>
@@ -20025,18 +21298,18 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="11" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B992" s="9" t="s">
         <v>2218</v>
       </c>
       <c r="C992" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" s="11" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B993" s="9" t="s">
         <v>2219</v>
@@ -20044,7 +21317,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" s="11" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B994" s="9" t="s">
         <v>2220</v>
@@ -20052,7 +21325,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" s="11" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B995" s="9" t="s">
         <v>2221</v>
@@ -20060,7 +21333,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" s="11" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B996" s="9" t="s">
         <v>2222</v>
@@ -20068,7 +21341,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" s="11" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B997" s="9" t="s">
         <v>2223</v>
@@ -20076,7 +21349,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" s="11" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B998" s="9" t="s">
         <v>2224</v>
@@ -20084,7 +21357,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" s="11" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B999" s="8" t="s">
         <v>2225</v>
@@ -20092,7 +21365,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" s="11" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1000" s="8" t="s">
         <v>2226</v>
@@ -20100,7 +21373,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" s="11" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1001" s="9" t="s">
         <v>2227</v>
@@ -20108,7 +21381,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="11" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1002" s="9" t="s">
         <v>2228</v>
@@ -20116,7 +21389,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" s="11" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B1003" s="9" t="s">
         <v>2229</v>
@@ -20124,7 +21397,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="11" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B1004" s="8" t="s">
         <v>2230</v>
@@ -20132,7 +21405,7 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" s="11" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B1005" s="9" t="s">
         <v>2231</v>
@@ -20140,7 +21413,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" s="11" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1006" s="8" t="s">
         <v>2232</v>
@@ -20148,20 +21421,23 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" s="11" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1007" s="8" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" s="11" t="s">
+        <v>2513</v>
+      </c>
       <c r="B1008" s="8" t="s">
         <v>2234</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" s="11" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B1009" s="8" t="s">
         <v>2235</v>
@@ -20169,44 +21445,53 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" s="11" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B1010" s="8" t="s">
         <v>2236</v>
       </c>
       <c r="C1010" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1011" s="11" t="s">
+        <v>2514</v>
+      </c>
       <c r="B1011" s="8" t="s">
         <v>2237</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1012" s="11" t="s">
+        <v>2515</v>
+      </c>
       <c r="B1012" s="9" t="s">
         <v>2238</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1013" s="11" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1013" s="9" t="s">
         <v>2239</v>
       </c>
       <c r="C1013" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1014" s="11" t="s">
+        <v>2516</v>
+      </c>
       <c r="B1014" s="8" t="s">
         <v>2240</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1015" s="11" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B1015" s="8" t="s">
         <v>2241</v>
@@ -20214,80 +21499,104 @@
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1016" s="11" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B1016" s="9" t="s">
         <v>2242</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1017" s="11" t="s">
+        <v>2517</v>
+      </c>
       <c r="B1017" s="8" t="s">
         <v>2243</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1018" s="11" t="s">
+        <v>2518</v>
+      </c>
       <c r="B1018" s="8" t="s">
         <v>2244</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1019" s="11" t="s">
+        <v>2519</v>
+      </c>
       <c r="B1019" s="8" t="s">
         <v>2245</v>
       </c>
       <c r="C1019" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1020" s="11" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1020" s="9" t="s">
         <v>2246</v>
       </c>
       <c r="C1020" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1021" s="11" t="s">
+        <v>2520</v>
+      </c>
       <c r="B1021" s="8" t="s">
         <v>2247</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1022" s="11" t="s">
+        <v>2521</v>
+      </c>
       <c r="B1022" s="8" t="s">
         <v>2248</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1023" s="11" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1023" s="9" t="s">
         <v>2249</v>
       </c>
       <c r="C1023" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1024" s="11" t="s">
+        <v>2522</v>
+      </c>
       <c r="B1024" s="8" t="s">
         <v>2250</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1025" s="11" t="s">
+        <v>2523</v>
+      </c>
       <c r="B1025" s="8" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1026" s="11" t="s">
+        <v>2524</v>
+      </c>
       <c r="B1026" s="8" t="s">
         <v>2252</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1027" s="11" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B1027" s="9" t="s">
         <v>2253</v>
@@ -20295,23 +21604,26 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1028" s="11" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B1028" s="9" t="s">
         <v>2254</v>
       </c>
       <c r="C1028" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1029" s="11" t="s">
+        <v>2525</v>
+      </c>
       <c r="B1029" s="8" t="s">
         <v>2255</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1030" s="11" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B1030" s="8" t="s">
         <v>2256</v>
@@ -20319,18 +21631,18 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1031" s="11" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B1031" s="8" t="s">
         <v>2257</v>
       </c>
       <c r="C1031" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1032" s="11" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1032" s="8" t="s">
         <v>2258</v>
@@ -20338,7 +21650,7 @@
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1033" s="11" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B1033" s="8" t="s">
         <v>2195</v>
@@ -20346,7 +21658,7 @@
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1034" s="11" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B1034" s="8" t="s">
         <v>2259</v>
@@ -20354,7 +21666,7 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1035" s="11" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B1035" s="8" t="s">
         <v>2260</v>
@@ -20362,23 +21674,26 @@
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1036" s="11" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B1036" s="8" t="s">
         <v>2261</v>
       </c>
       <c r="C1036" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1037" s="11" t="s">
+        <v>2526</v>
+      </c>
       <c r="B1037" s="8" t="s">
         <v>2262</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1038" s="11" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B1038" s="9" t="s">
         <v>2263</v>
@@ -20386,7 +21701,7 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1039" s="11" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B1039" s="9" t="s">
         <v>2264</v>
@@ -20394,7 +21709,7 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1040" s="11" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1040" s="9" t="s">
         <v>2265</v>
@@ -20402,7 +21717,7 @@
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1041" s="11" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1041" s="8" t="s">
         <v>2266</v>
@@ -20410,7 +21725,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1042" s="11" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1042" s="8" t="s">
         <v>2267</v>
@@ -20418,7 +21733,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1043" s="11" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B1043" s="9" t="s">
         <v>2268</v>
@@ -20426,7 +21741,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1044" s="11" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1044" s="8" t="s">
         <v>2269</v>
@@ -20434,7 +21749,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1045" s="11" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B1045" s="8" t="s">
         <v>2270</v>
@@ -20442,7 +21757,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1046" s="11" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1046" s="8" t="s">
         <v>2271</v>
@@ -20450,29 +21765,29 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1047" s="11" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1047" s="9" t="s">
         <v>2272</v>
       </c>
       <c r="C1047" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1048" s="11" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1048" s="9" t="s">
         <v>2273</v>
       </c>
       <c r="C1048" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1049" s="11" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1049" s="8" t="s">
         <v>2274</v>
@@ -20480,7 +21795,7 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1050" s="11" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1050" s="8" t="s">
         <v>2275</v>
@@ -20488,7 +21803,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1051" s="11" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1051" s="8" t="s">
         <v>2276</v>
@@ -20496,7 +21811,7 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1052" s="11" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1052" s="9" t="s">
         <v>2277</v>
@@ -20504,29 +21819,29 @@
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1053" s="11" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1053" s="8" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C1053" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1054" s="11" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1054" s="9" t="s">
         <v>2278</v>
       </c>
       <c r="C1054" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1055" s="11" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1055" s="8" t="s">
         <v>2279</v>
@@ -20534,7 +21849,7 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1056" s="11" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1056" s="9" t="s">
         <v>2280</v>
@@ -20542,7 +21857,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1057" s="11" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1057" s="8" t="s">
         <v>2281</v>
@@ -20550,7 +21865,7 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1058" s="11" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1058" s="8" t="s">
         <v>2282</v>
@@ -20558,7 +21873,7 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1059" s="11" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1059" s="8" t="s">
         <v>2283</v>
@@ -20566,7 +21881,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1060" s="11" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1060" s="8" t="s">
         <v>2284</v>
@@ -20574,7 +21889,7 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1061" s="11" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1061" s="9" t="s">
         <v>2285</v>
@@ -20582,29 +21897,29 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1062" s="11" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B1062" s="9" t="s">
         <v>2286</v>
       </c>
       <c r="C1062" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1063" s="11" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B1063" s="8" t="s">
         <v>2287</v>
       </c>
       <c r="C1063" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1064" s="11" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B1064" s="8" t="s">
         <v>2288</v>
@@ -20612,7 +21927,7 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1065" s="11" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B1065" s="9" t="s">
         <v>2289</v>
@@ -20620,18 +21935,18 @@
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1066" s="11" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B1066" s="9" t="s">
         <v>2290</v>
       </c>
       <c r="C1066" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1067" s="11" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B1067" s="9" t="s">
         <v>2291</v>
@@ -20639,26 +21954,26 @@
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1068" s="11" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1068" s="8" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1069" s="11" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1069" s="8" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1070" s="11" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1070" s="8" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
   </sheetData>
@@ -20679,8 +21994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20706,8 +22021,14 @@
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2549</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -20715,479 +22036,1568 @@
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2551</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="11" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>2294</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2552</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>2295</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2553</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>2296</v>
       </c>
+      <c r="C6" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>2554</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>2297</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>2556</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>2298</v>
       </c>
+      <c r="C8" t="s">
+        <v>2557</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>2558</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>2299</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>2559</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>2300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>2560</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>2301</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>2561</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>2302</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>2562</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>2303</v>
       </c>
+      <c r="C13" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="18" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>2565</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>2305</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>2566</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>2567</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>2568</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>2308</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>2569</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>2573</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>2574</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>2312</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>2575</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>2313</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>2577</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>2578</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>2315</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>2576</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>2317</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="26" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>2581</v>
+      </c>
       <c r="B28" s="8" t="s">
         <v>2318</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>2582</v>
+      </c>
       <c r="B29" s="8" t="s">
         <v>2319</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>2320</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>2584</v>
+      </c>
       <c r="B31" s="8" t="s">
         <v>2321</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="C31" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>2322</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="C32" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>2586</v>
+      </c>
       <c r="B33" s="8" t="s">
         <v>2323</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>2589</v>
+      </c>
       <c r="B34" s="8" t="s">
         <v>2324</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="C35" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>2593</v>
+      </c>
       <c r="B38" s="8" t="s">
         <v>2328</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>2595</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>2329</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>2596</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>2330</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>2597</v>
+      </c>
       <c r="B41" s="8" t="s">
         <v>2331</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>2598</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>2332</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>2600</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>2602</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>2603</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>2604</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>2606</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>2338</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>2607</v>
+      </c>
       <c r="B49" s="8" t="s">
         <v>2339</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>2608</v>
+      </c>
       <c r="B50" s="8" t="s">
         <v>2340</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>2609</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>2341</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>2610</v>
+      </c>
       <c r="B52" s="8" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="C52" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>2343</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>2613</v>
+      </c>
       <c r="B54" s="8" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>2345</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>2346</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>2616</v>
+      </c>
       <c r="B57" s="8" t="s">
         <v>2347</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+      <c r="C58" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+      <c r="C59" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>2625</v>
+      </c>
       <c r="B61" s="8" t="s">
         <v>2351</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>2626</v>
+      </c>
       <c r="B62" s="8" t="s">
         <v>2352</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>2627</v>
+      </c>
       <c r="B63" s="8" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>2628</v>
+      </c>
       <c r="B64" s="8" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>2629</v>
+      </c>
       <c r="B65" s="8" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>2356</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+      <c r="C68" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
         <v>2358</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+      <c r="C70" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="C71" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="C75" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>2365</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+      <c r="C78" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+      <c r="C86" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+      <c r="C87" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>2530</v>
+      </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
+      <c r="B127" s="8" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>2711</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>2712</v>
+      </c>
       <c r="C133" s="21"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>2713</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
+      <c r="B135" s="8" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
+      <c r="B136" s="8" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>2717</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="8" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="8" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="8" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="8" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="8" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="8" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="8" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="8" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="8" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="8" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="8" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="8" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="8" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="8" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="8" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="8" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="8" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="8" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="8" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="8" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="8" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="8" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="8" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="8" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="8" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="8" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="8" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="8" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="8" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="8" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="8" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="8" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="8" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="8" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="8" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="8" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="8" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="16"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -21251,7 +23661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -21399,7 +23809,7 @@
   <dimension ref="A1:I824"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589"/>
   </bookViews>
   <sheets>
     <sheet name="1000（~350）" sheetId="1" r:id="rId1"/>
@@ -12456,8 +12456,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1070"/>
   <sheetViews>
-    <sheetView topLeftCell="A989" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A1070" sqref="A1070"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23661,8 +23661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Tmp/D.xlsx
+++ b/Tmp/D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="589" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1000（~350）" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="4000" sheetId="4" r:id="rId4"/>
     <sheet name="5000" sheetId="5" r:id="rId5"/>
     <sheet name="6000" sheetId="9" r:id="rId6"/>
-    <sheet name="7000" sheetId="10" r:id="rId7"/>
-    <sheet name="Ctl+B" sheetId="12" r:id="rId8"/>
+    <sheet name="Ctl+B" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="2811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="2815">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5872,18 +5871,6 @@
     <t>跳舞;舞会;舞曲</t>
   </si>
   <si>
-    <t>残酷的，残忍的;使人痛苦的，让人受难的</t>
-  </si>
-  <si>
-    <t>压，按;逼迫;紧抱</t>
-  </si>
-  <si>
-    <t>不好的;恶意的;有病的;不吉利的</t>
-  </si>
-  <si>
-    <t>激发;刺激;使兴奋</t>
-  </si>
-  <si>
     <t>厌恶;仇恨，憎恨</t>
   </si>
   <si>
@@ -6359,10 +6346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宽阔，广泛的，远离，偏离的/全部，充分的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（一段）时间，时期，时代，句号，句点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6455,10 +6438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逆/反对 / 违反 / 对…不利… / 和…比 /和…对照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>against</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6699,10 +6678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反对票，反对论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不喜欢的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7791,10 +7766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亲戚 ，亲属，相对的，比较的，相关的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海龟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7831,10 +7802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阵雨，暴雨，沐浴，洒落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>植物，种植，工厂，栽种，安放，安置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7883,10 +7850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全神贯注，全力以赴，集中，聚集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牙龈，口香糖，树胶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8227,9 +8190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生气的;愤怒的，发怒的;</t>
-  </si>
-  <si>
     <t>请 / 讨好，使高兴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8266,10 +8226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆米花;保护物品的小片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背，背部;背面，反面;后面，后部，回退，后退，倒退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8401,10 +8357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级，分数，评分，年纪，级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结婚，婚姻，婚礼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8718,10 +8670,6 @@
   </si>
   <si>
     <t>第七，1/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机会，机遇，碰巧，偶然，可能性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11441,6 +11389,78 @@
   </si>
   <si>
     <t>楼层，地面，地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残酷的，残忍的，使人痛苦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压，按，逼迫，紧抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好的，恶意的，有病的，不吉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激，使兴奋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽阔，广泛的，偏离的/全部，充分的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对，违反，对…不利… / 和…比 /和…对照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对票，反对论，反面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve 改善，改良，增加，提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre 前 + fer 其他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨，沐浴，洒落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲戚 ，亲属，相对的，相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气的，愤怒的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全神贯注，全力以赴，聚集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花，保护物品的小片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级，分数，年纪，级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机会，碰巧，偶然，可能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fridge == refrigerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误, 过失; 误会，误认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11736,61 +11756,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="仿宋"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -12091,8 +12057,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C1048576" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="23"/>
-    <tableColumn id="2" name="英文" dataDxfId="22"/>
+    <tableColumn id="1" name="中文" dataDxfId="19"/>
+    <tableColumn id="2" name="英文" dataDxfId="18"/>
     <tableColumn id="3" name="联想 / 例句"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12102,8 +12068,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:C1048576" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="21"/>
-    <tableColumn id="2" name="英文" dataDxfId="20"/>
+    <tableColumn id="1" name="中文" dataDxfId="17"/>
+    <tableColumn id="2" name="英文" dataDxfId="16"/>
     <tableColumn id="3" name="联想 / 例句"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12113,8 +12079,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:C1048576" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="19"/>
-    <tableColumn id="2" name="英文" dataDxfId="18"/>
+    <tableColumn id="1" name="中文" dataDxfId="15"/>
+    <tableColumn id="2" name="英文" dataDxfId="14"/>
     <tableColumn id="3" name="联想 / 例句"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12122,29 +12088,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_25" displayName="表2_25" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_25" displayName="表2_25" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="15"/>
-    <tableColumn id="2" name="英文" dataDxfId="14"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="13"/>
+    <tableColumn id="1" name="中文" dataDxfId="11"/>
+    <tableColumn id="2" name="英文" dataDxfId="10"/>
+    <tableColumn id="3" name="联想 / 例句" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_26" displayName="表2_26" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <tableColumns count="3">
-    <tableColumn id="1" name="中文" dataDxfId="10"/>
-    <tableColumn id="2" name="英文" dataDxfId="9"/>
-    <tableColumn id="3" name="联想 / 例句" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_27" displayName="表2_27" ref="A1:C1048576" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_26" displayName="表2_26" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="3">
     <tableColumn id="1" name="中文" dataDxfId="6"/>
     <tableColumn id="2" name="英文" dataDxfId="5"/>
@@ -12154,8 +12109,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_28" displayName="表2_28" ref="A1:C1048576" totalsRowShown="0" dataDxfId="3">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表2_27" displayName="表2_27" ref="A1:C1048576" totalsRowShown="0" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="中文" dataDxfId="2"/>
     <tableColumn id="2" name="英文" dataDxfId="1"/>
@@ -12431,8 +12386,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A804" sqref="A804"/>
+    <sheetView topLeftCell="A1047" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1061" sqref="B1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12461,7 +12416,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2376</v>
+        <v>2362</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
@@ -12475,7 +12430,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>2377</v>
+        <v>2363</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -12487,7 +12442,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2378</v>
+        <v>2364</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -12495,7 +12450,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>2382</v>
+        <v>2368</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
@@ -12503,7 +12458,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>2379</v>
+        <v>2365</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -12522,7 +12477,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
@@ -12533,7 +12488,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2381</v>
+        <v>2367</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
@@ -12544,7 +12499,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>2383</v>
+        <v>2369</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>167</v>
@@ -12552,7 +12507,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>2384</v>
+        <v>2370</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -12563,7 +12518,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>2388</v>
+        <v>2374</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -12572,7 +12527,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>2385</v>
+        <v>2371</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
@@ -12580,7 +12535,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>2386</v>
+        <v>2372</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
@@ -12588,7 +12543,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>2387</v>
+        <v>2373</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>15</v>
@@ -12599,7 +12554,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>2389</v>
+        <v>2375</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>16</v>
@@ -12607,7 +12562,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>2390</v>
+        <v>2376</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>17</v>
@@ -12615,7 +12570,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>2391</v>
+        <v>2377</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>714</v>
@@ -12623,18 +12578,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>2392</v>
+        <v>2378</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>2393</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>2394</v>
+        <v>2380</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>19</v>
@@ -12642,7 +12597,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>2395</v>
+        <v>2381</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
@@ -12653,7 +12608,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>2396</v>
+        <v>2382</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>22</v>
@@ -12669,7 +12624,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>2397</v>
+        <v>2383</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -12683,12 +12638,12 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>2398</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>2399</v>
+        <v>2385</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>28</v>
@@ -12696,7 +12651,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>2400</v>
+        <v>2386</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>29</v>
@@ -12707,7 +12662,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>2401</v>
+        <v>2387</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>30</v>
@@ -12715,7 +12670,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>2402</v>
+        <v>2388</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
@@ -12723,18 +12678,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>2404</v>
+        <v>2390</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>2403</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>2405</v>
+        <v>2391</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>34</v>
@@ -12742,7 +12697,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>2406</v>
+        <v>2392</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>35</v>
@@ -12750,7 +12705,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>2407</v>
+        <v>2393</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>36</v>
@@ -12758,7 +12713,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>2408</v>
+        <v>2394</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>37</v>
@@ -12766,21 +12721,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>2409</v>
+        <v>2395</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>2410</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>2411</v>
+        <v>2397</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>2412</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -12791,7 +12746,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>2413</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -12804,7 +12759,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>2414</v>
+        <v>2400</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>42</v>
@@ -12815,7 +12770,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>2415</v>
+        <v>2401</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>43</v>
@@ -12858,7 +12813,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>2416</v>
+        <v>2402</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>48</v>
@@ -12877,7 +12832,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>2417</v>
+        <v>2403</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>50</v>
@@ -12920,7 +12875,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>55</v>
@@ -12934,7 +12889,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>2419</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -12955,7 +12910,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>2420</v>
+        <v>2406</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>59</v>
@@ -12969,12 +12924,12 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>2421</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>2422</v>
+        <v>2408</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>61</v>
@@ -12982,7 +12937,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>2423</v>
+        <v>2409</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>62</v>
@@ -12998,13 +12953,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>2424</v>
+        <v>2410</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>2425</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -13015,7 +12970,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>2426</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -13026,7 +12981,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>2427</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -13053,12 +13008,12 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>2428</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>2429</v>
+        <v>2415</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>70</v>
@@ -13104,7 +13059,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>2430</v>
+        <v>2416</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>75</v>
@@ -13144,7 +13099,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>80</v>
@@ -13190,7 +13145,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>2432</v>
+        <v>2418</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>84</v>
@@ -13198,7 +13153,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>2433</v>
+        <v>2419</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>79</v>
@@ -13222,7 +13177,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>2434</v>
+        <v>2420</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>88</v>
@@ -13236,12 +13191,12 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>2435</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>2436</v>
+        <v>2422</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>90</v>
@@ -13285,7 +13240,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>2437</v>
+        <v>2423</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>95</v>
@@ -13296,7 +13251,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>2438</v>
+        <v>2424</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>96</v>
@@ -13304,7 +13259,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>2439</v>
+        <v>2425</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>97</v>
@@ -13312,7 +13267,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>2440</v>
+        <v>2426</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>98</v>
@@ -13320,7 +13275,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>99</v>
@@ -13328,7 +13283,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>2442</v>
+        <v>2428</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>100</v>
@@ -13344,7 +13299,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>2443</v>
+        <v>2429</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>102</v>
@@ -13352,7 +13307,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>2444</v>
+        <v>2430</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>103</v>
@@ -13360,7 +13315,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>104</v>
@@ -13379,7 +13334,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>2446</v>
+        <v>2432</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>106</v>
@@ -13387,7 +13342,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>2447</v>
+        <v>2433</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>187</v>
@@ -13398,7 +13353,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>2448</v>
+        <v>2434</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>107</v>
@@ -13406,7 +13361,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>2449</v>
+        <v>2435</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>108</v>
@@ -13417,7 +13372,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>2450</v>
+        <v>2436</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>109</v>
@@ -13425,7 +13380,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>2451</v>
+        <v>2437</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>110</v>
@@ -13433,7 +13388,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>111</v>
@@ -13444,7 +13399,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>2453</v>
+        <v>2439</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>112</v>
@@ -13452,7 +13407,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>2454</v>
+        <v>2440</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>113</v>
@@ -13463,7 +13418,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>2455</v>
+        <v>2441</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>114</v>
@@ -13474,7 +13429,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>2456</v>
+        <v>2442</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>115</v>
@@ -13485,7 +13440,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>2457</v>
+        <v>2443</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>116</v>
@@ -13493,18 +13448,18 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>2458</v>
+        <v>2444</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>2459</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>2460</v>
+        <v>2446</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>118</v>
@@ -13512,7 +13467,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>2461</v>
+        <v>2447</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>119</v>
@@ -13520,7 +13475,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>2462</v>
+        <v>2448</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>120</v>
@@ -13531,7 +13486,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>2463</v>
+        <v>2449</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>121</v>
@@ -13539,7 +13494,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>2464</v>
+        <v>2450</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>122</v>
@@ -13547,7 +13502,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>2465</v>
+        <v>2451</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>123</v>
@@ -13558,7 +13513,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>2466</v>
+        <v>2452</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>124</v>
@@ -13569,7 +13524,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>2467</v>
+        <v>2453</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>125</v>
@@ -13577,7 +13532,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>2468</v>
+        <v>2454</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>126</v>
@@ -13585,7 +13540,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>2469</v>
+        <v>2455</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>165</v>
@@ -13596,7 +13551,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>2470</v>
+        <v>2456</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>166</v>
@@ -13647,7 +13602,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>2471</v>
+        <v>2457</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>180</v>
@@ -13664,7 +13619,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>2472</v>
+        <v>2458</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>193</v>
@@ -13672,7 +13627,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>2473</v>
+        <v>2459</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>194</v>
@@ -13680,7 +13635,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>2474</v>
+        <v>2460</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>199</v>
@@ -13691,7 +13646,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>2475</v>
+        <v>2461</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>200</v>
@@ -13702,7 +13657,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>201</v>
@@ -13713,7 +13668,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>202</v>
@@ -13721,7 +13676,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>2478</v>
+        <v>2464</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>203</v>
@@ -13729,7 +13684,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>2480</v>
+        <v>2466</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>204</v>
@@ -13737,7 +13692,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>2479</v>
+        <v>2465</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>205</v>
@@ -13745,7 +13700,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>2481</v>
+        <v>2467</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>206</v>
@@ -13753,7 +13708,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>2482</v>
+        <v>2468</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>207</v>
@@ -13761,7 +13716,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>2483</v>
+        <v>2469</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>341</v>
@@ -13769,7 +13724,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>2484</v>
+        <v>2470</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>208</v>
@@ -13780,7 +13735,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>2485</v>
+        <v>2471</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>209</v>
@@ -13796,7 +13751,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>2486</v>
+        <v>2472</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>211</v>
@@ -13804,7 +13759,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>2487</v>
+        <v>2473</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>212</v>
@@ -13815,7 +13770,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>2488</v>
+        <v>2474</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>213</v>
@@ -13823,7 +13778,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>2489</v>
+        <v>2475</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>214</v>
@@ -13831,15 +13786,15 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>2491</v>
+        <v>2477</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>2490</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>2492</v>
+        <v>2478</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>215</v>
@@ -13847,7 +13802,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>2493</v>
+        <v>2479</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>216</v>
@@ -13855,7 +13810,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>2494</v>
+        <v>2480</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>217</v>
@@ -13866,7 +13821,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>2495</v>
+        <v>2481</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>218</v>
@@ -13877,7 +13832,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>2496</v>
+        <v>2482</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>219</v>
@@ -13885,7 +13840,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>2497</v>
+        <v>2483</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>220</v>
@@ -13896,7 +13851,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
-        <v>2498</v>
+        <v>2484</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>304</v>
@@ -13907,7 +13862,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>2499</v>
+        <v>2485</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>222</v>
@@ -13918,7 +13873,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>2500</v>
+        <v>2486</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>223</v>
@@ -13926,7 +13881,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>2501</v>
+        <v>2487</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>224</v>
@@ -13934,7 +13889,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>2502</v>
+        <v>2488</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>225</v>
@@ -13942,7 +13897,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>2503</v>
+        <v>2489</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>226</v>
@@ -13950,7 +13905,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>2504</v>
+        <v>2490</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>227</v>
@@ -13958,7 +13913,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>2505</v>
+        <v>2491</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>228</v>
@@ -13969,7 +13924,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>2506</v>
+        <v>2492</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>229</v>
@@ -13988,7 +13943,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>2507</v>
+        <v>2493</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>231</v>
@@ -13996,7 +13951,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>2508</v>
+        <v>2494</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>232</v>
@@ -14007,7 +13962,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>2509</v>
+        <v>2495</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>315</v>
@@ -14018,7 +13973,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>234</v>
@@ -14026,7 +13981,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>2528</v>
+        <v>2514</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>235</v>
@@ -14034,7 +13989,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>2511</v>
+        <v>2497</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>236</v>
@@ -14042,7 +13997,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>2512</v>
+        <v>2498</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>237</v>
@@ -14050,7 +14005,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>2513</v>
+        <v>2499</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>238</v>
@@ -14061,7 +14016,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>2514</v>
+        <v>2500</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>239</v>
@@ -14069,7 +14024,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>2515</v>
+        <v>2501</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>240</v>
@@ -14077,7 +14032,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>2516</v>
+        <v>2502</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>345</v>
@@ -14085,7 +14040,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>2517</v>
+        <v>2503</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>241</v>
@@ -14096,7 +14051,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>2518</v>
+        <v>2504</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>346</v>
@@ -14107,7 +14062,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>2519</v>
+        <v>2505</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>242</v>
@@ -14118,7 +14073,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>2520</v>
+        <v>2506</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>243</v>
@@ -14129,7 +14084,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>2521</v>
+        <v>2507</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>244</v>
@@ -14137,7 +14092,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>2522</v>
+        <v>2508</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>245</v>
@@ -14145,7 +14100,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>2523</v>
+        <v>2509</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>246</v>
@@ -14153,7 +14108,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>2524</v>
+        <v>2510</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>247</v>
@@ -14161,7 +14116,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>2525</v>
+        <v>2511</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>248</v>
@@ -14172,7 +14127,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>323</v>
@@ -14183,7 +14138,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>2527</v>
+        <v>2513</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>249</v>
@@ -14194,7 +14149,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>2529</v>
+        <v>2515</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>250</v>
@@ -14202,7 +14157,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>2530</v>
+        <v>2516</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>251</v>
@@ -14210,7 +14165,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>2531</v>
+        <v>2517</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>252</v>
@@ -14218,7 +14173,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>2532</v>
+        <v>2518</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>253</v>
@@ -14226,7 +14181,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>2533</v>
+        <v>2519</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>254</v>
@@ -14234,7 +14189,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>2534</v>
+        <v>2520</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>261</v>
@@ -14242,18 +14197,18 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>2535</v>
+        <v>2521</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>2536</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>2537</v>
+        <v>2523</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>256</v>
@@ -14264,7 +14219,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>2538</v>
+        <v>2524</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>257</v>
@@ -14275,7 +14230,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>2539</v>
+        <v>2525</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>258</v>
@@ -14283,7 +14238,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>2540</v>
+        <v>2526</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>259</v>
@@ -14327,7 +14282,7 @@
         <v>263</v>
       </c>
       <c r="C207" t="s">
-        <v>2545</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -14338,7 +14293,7 @@
         <v>264</v>
       </c>
       <c r="C208" t="s">
-        <v>2544</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -14349,7 +14304,7 @@
         <v>265</v>
       </c>
       <c r="C209" t="s">
-        <v>2543</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -14360,7 +14315,7 @@
         <v>266</v>
       </c>
       <c r="C210" t="s">
-        <v>2542</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -14371,7 +14326,7 @@
         <v>267</v>
       </c>
       <c r="C211" t="s">
-        <v>2541</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -14384,7 +14339,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>2546</v>
+        <v>2532</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>277</v>
@@ -14392,7 +14347,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>278</v>
@@ -14400,7 +14355,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>2547</v>
+        <v>2533</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>279</v>
@@ -14408,7 +14363,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>2549</v>
+        <v>2535</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>280</v>
@@ -14424,7 +14379,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>2550</v>
+        <v>2536</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>282</v>
@@ -14432,7 +14387,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>2551</v>
+        <v>2537</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>283</v>
@@ -14440,7 +14395,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>2552</v>
+        <v>2538</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>284</v>
@@ -14448,7 +14403,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>285</v>
@@ -14456,7 +14411,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>337</v>
@@ -14464,7 +14419,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>286</v>
@@ -14472,7 +14427,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>287</v>
@@ -14483,7 +14438,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>2557</v>
+        <v>2543</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>351</v>
@@ -14499,18 +14454,18 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C227" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>290</v>
@@ -14521,7 +14476,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>2561</v>
+        <v>2547</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>291</v>
@@ -14532,7 +14487,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>2562</v>
+        <v>2548</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>295</v>
@@ -14540,7 +14495,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>2563</v>
+        <v>2549</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>296</v>
@@ -14548,7 +14503,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>297</v>
@@ -14556,7 +14511,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>298</v>
@@ -14583,7 +14538,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>301</v>
@@ -14591,7 +14546,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>303</v>
@@ -14599,7 +14554,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>221</v>
@@ -14610,7 +14565,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>2569</v>
+        <v>2555</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>306</v>
@@ -14618,7 +14573,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>2570</v>
+        <v>2556</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>353</v>
@@ -14626,7 +14581,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>2571</v>
+        <v>2557</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>354</v>
@@ -14634,7 +14589,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>2572</v>
+        <v>2558</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>307</v>
@@ -14645,7 +14600,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>2573</v>
+        <v>2559</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>308</v>
@@ -14686,7 +14641,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>2574</v>
+        <v>2560</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>313</v>
@@ -14694,7 +14649,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>2575</v>
+        <v>2561</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>355</v>
@@ -14702,7 +14657,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>2576</v>
+        <v>2562</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>356</v>
@@ -14710,7 +14665,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>2577</v>
+        <v>2563</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>314</v>
@@ -14718,7 +14673,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
-        <v>2578</v>
+        <v>2564</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>233</v>
@@ -14726,7 +14681,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
-        <v>2579</v>
+        <v>2565</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>317</v>
@@ -14742,7 +14697,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
-        <v>2580</v>
+        <v>2566</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>320</v>
@@ -14750,7 +14705,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>2581</v>
+        <v>2567</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>326</v>
@@ -14774,7 +14729,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
-        <v>2582</v>
+        <v>2568</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>360</v>
@@ -14782,7 +14737,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
-        <v>2583</v>
+        <v>2569</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>361</v>
@@ -14793,7 +14748,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
-        <v>2584</v>
+        <v>2570</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>362</v>
@@ -14823,7 +14778,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>2585</v>
+        <v>2571</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>365</v>
@@ -14834,7 +14789,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
-        <v>2586</v>
+        <v>2572</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>366</v>
@@ -14845,7 +14800,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
-        <v>2587</v>
+        <v>2573</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>367</v>
@@ -14856,7 +14811,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>368</v>
@@ -14875,7 +14830,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>2589</v>
+        <v>2575</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>370</v>
@@ -14886,7 +14841,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
-        <v>2590</v>
+        <v>2576</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>371</v>
@@ -14894,7 +14849,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
-        <v>2591</v>
+        <v>2577</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>372</v>
@@ -14905,7 +14860,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
-        <v>2592</v>
+        <v>2578</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>373</v>
@@ -14924,7 +14879,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>2593</v>
+        <v>2579</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>375</v>
@@ -14935,7 +14890,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>2594</v>
+        <v>2580</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>376</v>
@@ -14943,7 +14898,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
-        <v>2595</v>
+        <v>2581</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>517</v>
@@ -14954,7 +14909,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>2596</v>
+        <v>2582</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>377</v>
@@ -14965,7 +14920,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
-        <v>2598</v>
+        <v>2584</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>518</v>
@@ -14973,7 +14928,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>2597</v>
+        <v>2583</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>519</v>
@@ -14984,7 +14939,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>2599</v>
+        <v>2585</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>378</v>
@@ -14992,7 +14947,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>2600</v>
+        <v>2586</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>379</v>
@@ -15011,7 +14966,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
-        <v>2601</v>
+        <v>2587</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>381</v>
@@ -15022,7 +14977,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>2602</v>
+        <v>2588</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>382</v>
@@ -15030,7 +14985,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>2603</v>
+        <v>2589</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>383</v>
@@ -15041,7 +14996,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>2604</v>
+        <v>2590</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>384</v>
@@ -15049,7 +15004,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
-        <v>2605</v>
+        <v>2591</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>385</v>
@@ -15060,7 +15015,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
-        <v>2606</v>
+        <v>2592</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>386</v>
@@ -15068,7 +15023,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
-        <v>2607</v>
+        <v>2593</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>387</v>
@@ -15076,7 +15031,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>2608</v>
+        <v>2594</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>388</v>
@@ -15095,7 +15050,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>2609</v>
+        <v>2595</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>390</v>
@@ -15106,7 +15061,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
-        <v>2610</v>
+        <v>2596</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>391</v>
@@ -15114,7 +15069,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
-        <v>2611</v>
+        <v>2597</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>392</v>
@@ -15122,7 +15077,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>2612</v>
+        <v>2598</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>393</v>
@@ -15138,7 +15093,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
-        <v>2613</v>
+        <v>2599</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>395</v>
@@ -15171,7 +15126,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
-        <v>2614</v>
+        <v>2600</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>397</v>
@@ -15182,7 +15137,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
-        <v>2615</v>
+        <v>2601</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>398</v>
@@ -15206,7 +15161,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>2616</v>
+        <v>2602</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>401</v>
@@ -15222,7 +15177,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
-        <v>2617</v>
+        <v>2603</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>403</v>
@@ -15233,7 +15188,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
-        <v>2618</v>
+        <v>2604</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>404</v>
@@ -15241,7 +15196,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
-        <v>2619</v>
+        <v>2605</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>405</v>
@@ -15249,7 +15204,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
-        <v>2620</v>
+        <v>2606</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>406</v>
@@ -15257,7 +15212,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
-        <v>2621</v>
+        <v>2607</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>407</v>
@@ -15265,7 +15220,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
-        <v>2622</v>
+        <v>2608</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>408</v>
@@ -15273,7 +15228,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>2623</v>
+        <v>2609</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>815</v>
@@ -15281,7 +15236,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
-        <v>2624</v>
+        <v>2610</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>409</v>
@@ -15297,7 +15252,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
-        <v>2625</v>
+        <v>2611</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>411</v>
@@ -15313,7 +15268,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
-        <v>2626</v>
+        <v>2612</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>413</v>
@@ -15321,7 +15276,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
-        <v>2627</v>
+        <v>2613</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>414</v>
@@ -15329,7 +15284,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
-        <v>2628</v>
+        <v>2614</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>415</v>
@@ -15337,7 +15292,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
-        <v>2629</v>
+        <v>2615</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>416</v>
@@ -15348,7 +15303,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
-        <v>2630</v>
+        <v>2616</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>417</v>
@@ -15356,7 +15311,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>2631</v>
+        <v>2617</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>418</v>
@@ -15364,7 +15319,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
-        <v>2632</v>
+        <v>2618</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>419</v>
@@ -15375,7 +15330,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
-        <v>2633</v>
+        <v>2619</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>420</v>
@@ -15383,7 +15338,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
-        <v>2634</v>
+        <v>2620</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>421</v>
@@ -15391,7 +15346,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
-        <v>2635</v>
+        <v>2621</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>422</v>
@@ -15407,7 +15362,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
-        <v>2636</v>
+        <v>2622</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>424</v>
@@ -15415,7 +15370,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
-        <v>2637</v>
+        <v>2623</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>425</v>
@@ -15426,7 +15381,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
-        <v>2638</v>
+        <v>2624</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>426</v>
@@ -15434,7 +15389,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
-        <v>2639</v>
+        <v>2625</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>427</v>
@@ -15456,7 +15411,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
-        <v>2640</v>
+        <v>2626</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>501</v>
@@ -15467,7 +15422,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
-        <v>2641</v>
+        <v>2627</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>429</v>
@@ -15478,7 +15433,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
-        <v>2642</v>
+        <v>2628</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>430</v>
@@ -15486,7 +15441,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
-        <v>2643</v>
+        <v>2629</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>431</v>
@@ -15505,7 +15460,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>2644</v>
+        <v>2630</v>
       </c>
       <c r="B337" s="9" t="s">
         <v>433</v>
@@ -15513,7 +15468,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
-        <v>2645</v>
+        <v>2631</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>434</v>
@@ -15521,7 +15476,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
-        <v>2646</v>
+        <v>2632</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>435</v>
@@ -15532,7 +15487,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>2647</v>
+        <v>2633</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>436</v>
@@ -15540,7 +15495,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
-        <v>2648</v>
+        <v>2634</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>437</v>
@@ -15548,7 +15503,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
-        <v>2649</v>
+        <v>2635</v>
       </c>
       <c r="B342" s="9" t="s">
         <v>438</v>
@@ -15556,7 +15511,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>2650</v>
+        <v>2636</v>
       </c>
       <c r="B343" s="9" t="s">
         <v>439</v>
@@ -15567,7 +15522,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
-        <v>2651</v>
+        <v>2637</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>440</v>
@@ -15575,10 +15530,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
-        <v>2652</v>
+        <v>2638</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>2664</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,7 +15565,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
-        <v>2653</v>
+        <v>2639</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>444</v>
@@ -15629,7 +15584,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>2654</v>
+        <v>2640</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>667</v>
@@ -15640,7 +15595,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
-        <v>2655</v>
+        <v>2641</v>
       </c>
       <c r="B352" s="9" t="s">
         <v>446</v>
@@ -15651,7 +15606,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
-        <v>2656</v>
+        <v>2642</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>447</v>
@@ -15659,7 +15614,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>2657</v>
+        <v>2643</v>
       </c>
       <c r="B354" s="9" t="s">
         <v>448</v>
@@ -15667,7 +15622,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
-        <v>2658</v>
+        <v>2644</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>449</v>
@@ -15675,7 +15630,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
-        <v>2659</v>
+        <v>2645</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>450</v>
@@ -15683,7 +15638,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>451</v>
@@ -15699,7 +15654,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>2661</v>
+        <v>2647</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>453</v>
@@ -15707,7 +15662,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
-        <v>2662</v>
+        <v>2648</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>454</v>
@@ -15726,7 +15681,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
-        <v>2663</v>
+        <v>2649</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>456</v>
@@ -15742,7 +15697,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
-        <v>2665</v>
+        <v>2651</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>458</v>
@@ -15750,7 +15705,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
-        <v>2666</v>
+        <v>2652</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>459</v>
@@ -15758,7 +15713,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
-        <v>2667</v>
+        <v>2653</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>460</v>
@@ -15777,7 +15732,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
-        <v>2668</v>
+        <v>2654</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>462</v>
@@ -15785,7 +15740,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
-        <v>2669</v>
+        <v>2655</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>463</v>
@@ -15796,7 +15751,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
-        <v>2670</v>
+        <v>2656</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>464</v>
@@ -15804,7 +15759,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
-        <v>2671</v>
+        <v>2657</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>465</v>
@@ -15815,7 +15770,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="11" t="s">
-        <v>2672</v>
+        <v>2658</v>
       </c>
       <c r="B372" s="9" t="s">
         <v>466</v>
@@ -15826,7 +15781,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
-        <v>2673</v>
+        <v>2659</v>
       </c>
       <c r="B373" s="9" t="s">
         <v>467</v>
@@ -15837,7 +15792,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="11" t="s">
-        <v>2674</v>
+        <v>2660</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>468</v>
@@ -15845,18 +15800,18 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="11" t="s">
-        <v>2675</v>
+        <v>2661</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>469</v>
       </c>
       <c r="C375" t="s">
-        <v>2676</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
-        <v>2677</v>
+        <v>2663</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>470</v>
@@ -15864,7 +15819,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
-        <v>2678</v>
+        <v>2664</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>471</v>
@@ -15875,7 +15830,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="11" t="s">
-        <v>2679</v>
+        <v>2665</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>537</v>
@@ -15883,7 +15838,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
-        <v>2680</v>
+        <v>2666</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>538</v>
@@ -15891,7 +15846,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
-        <v>2681</v>
+        <v>2667</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>539</v>
@@ -15899,7 +15854,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="11" t="s">
-        <v>2682</v>
+        <v>2668</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>540</v>
@@ -15907,7 +15862,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
-        <v>2683</v>
+        <v>2669</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>541</v>
@@ -15915,7 +15870,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="11" t="s">
-        <v>2684</v>
+        <v>2670</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>542</v>
@@ -15923,7 +15878,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
-        <v>2685</v>
+        <v>2671</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>543</v>
@@ -15931,7 +15886,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
-        <v>2686</v>
+        <v>2672</v>
       </c>
       <c r="B385" s="9" t="s">
         <v>544</v>
@@ -15942,7 +15897,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
-        <v>2687</v>
+        <v>2673</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>545</v>
@@ -15950,7 +15905,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
-        <v>2688</v>
+        <v>2674</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>546</v>
@@ -15958,7 +15913,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="11" t="s">
-        <v>2689</v>
+        <v>2675</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>547</v>
@@ -15977,7 +15932,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
-        <v>2690</v>
+        <v>2676</v>
       </c>
       <c r="B390" s="9" t="s">
         <v>549</v>
@@ -15988,7 +15943,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
-        <v>2691</v>
+        <v>2677</v>
       </c>
       <c r="B391" s="9" t="s">
         <v>550</v>
@@ -15996,7 +15951,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
-        <v>2692</v>
+        <v>2678</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>551</v>
@@ -16004,7 +15959,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="11" t="s">
-        <v>2693</v>
+        <v>2679</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>552</v>
@@ -16012,7 +15967,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="11" t="s">
-        <v>2694</v>
+        <v>2680</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>553</v>
@@ -16020,7 +15975,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
-        <v>2695</v>
+        <v>2681</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>554</v>
@@ -16028,7 +15983,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
-        <v>2696</v>
+        <v>2682</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>555</v>
@@ -16039,7 +15994,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="11" t="s">
-        <v>2697</v>
+        <v>2683</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>556</v>
@@ -16047,7 +16002,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
-        <v>2698</v>
+        <v>2684</v>
       </c>
       <c r="B398" s="9" t="s">
         <v>557</v>
@@ -16055,7 +16010,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
-        <v>2699</v>
+        <v>2685</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>558</v>
@@ -16066,7 +16021,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="11" t="s">
-        <v>2700</v>
+        <v>2686</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>559</v>
@@ -16074,7 +16029,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="11" t="s">
-        <v>2701</v>
+        <v>2687</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>560</v>
@@ -16082,7 +16037,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="11" t="s">
-        <v>2702</v>
+        <v>2688</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>561</v>
@@ -16101,7 +16056,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
-        <v>2703</v>
+        <v>2689</v>
       </c>
       <c r="B404" s="9" t="s">
         <v>563</v>
@@ -16112,7 +16067,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="11" t="s">
-        <v>2704</v>
+        <v>2690</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>696</v>
@@ -16120,7 +16075,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
-        <v>2705</v>
+        <v>2691</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>564</v>
@@ -16136,7 +16091,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
-        <v>2706</v>
+        <v>2692</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>566</v>
@@ -16144,7 +16099,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
-        <v>2707</v>
+        <v>2693</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>567</v>
@@ -16152,7 +16107,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
-        <v>2708</v>
+        <v>2694</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>568</v>
@@ -16163,7 +16118,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
-        <v>2709</v>
+        <v>2695</v>
       </c>
       <c r="B411" s="9" t="s">
         <v>569</v>
@@ -16174,18 +16129,18 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
-        <v>2710</v>
+        <v>2696</v>
       </c>
       <c r="B412" s="9" t="s">
         <v>570</v>
       </c>
       <c r="C412" t="s">
-        <v>2711</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
-        <v>2712</v>
+        <v>2698</v>
       </c>
       <c r="B413" s="9" t="s">
         <v>571</v>
@@ -16204,7 +16159,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
-        <v>2713</v>
+        <v>2699</v>
       </c>
       <c r="B415" s="9" t="s">
         <v>573</v>
@@ -16223,7 +16178,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
-        <v>2714</v>
+        <v>2700</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>575</v>
@@ -16231,7 +16186,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
-        <v>2715</v>
+        <v>2701</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>576</v>
@@ -16258,7 +16213,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
-        <v>2716</v>
+        <v>2702</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>579</v>
@@ -16277,7 +16232,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
-        <v>2717</v>
+        <v>2703</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>581</v>
@@ -16285,7 +16240,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
-        <v>2718</v>
+        <v>2704</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>582</v>
@@ -16293,7 +16248,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
-        <v>2719</v>
+        <v>2705</v>
       </c>
       <c r="B425" s="9" t="s">
         <v>583</v>
@@ -16304,7 +16259,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
-        <v>2720</v>
+        <v>2706</v>
       </c>
       <c r="B426" s="9" t="s">
         <v>584</v>
@@ -16315,7 +16270,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
-        <v>2721</v>
+        <v>2707</v>
       </c>
       <c r="B427" s="9" t="s">
         <v>585</v>
@@ -16326,7 +16281,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
-        <v>2722</v>
+        <v>2708</v>
       </c>
       <c r="B428" s="9" t="s">
         <v>586</v>
@@ -16337,7 +16292,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
-        <v>2723</v>
+        <v>2709</v>
       </c>
       <c r="B429" s="8" t="s">
         <v>587</v>
@@ -16348,7 +16303,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
-        <v>2724</v>
+        <v>2710</v>
       </c>
       <c r="B430" s="8" t="s">
         <v>588</v>
@@ -16356,7 +16311,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
-        <v>2725</v>
+        <v>2711</v>
       </c>
       <c r="B431" s="9" t="s">
         <v>589</v>
@@ -16364,7 +16319,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
-        <v>2726</v>
+        <v>2712</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>590</v>
@@ -16375,7 +16330,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
-        <v>2727</v>
+        <v>2713</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>591</v>
@@ -16383,7 +16338,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
-        <v>2728</v>
+        <v>2714</v>
       </c>
       <c r="B434" s="9" t="s">
         <v>592</v>
@@ -16394,7 +16349,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
-        <v>2729</v>
+        <v>2715</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>593</v>
@@ -16410,7 +16365,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
-        <v>2730</v>
+        <v>2716</v>
       </c>
       <c r="B437" s="9" t="s">
         <v>595</v>
@@ -16421,7 +16376,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
-        <v>2731</v>
+        <v>2717</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>596</v>
@@ -16429,7 +16384,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
-        <v>2732</v>
+        <v>2718</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>597</v>
@@ -16437,7 +16392,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="11" t="s">
-        <v>2733</v>
+        <v>2719</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>598</v>
@@ -16445,7 +16400,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
-        <v>2734</v>
+        <v>2720</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>599</v>
@@ -16453,7 +16408,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="11" t="s">
-        <v>2735</v>
+        <v>2721</v>
       </c>
       <c r="B442" s="9" t="s">
         <v>600</v>
@@ -16461,7 +16416,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
-        <v>2736</v>
+        <v>2722</v>
       </c>
       <c r="B443" s="8" t="s">
         <v>601</v>
@@ -16469,7 +16424,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
-        <v>2737</v>
+        <v>2723</v>
       </c>
       <c r="B444" s="8" t="s">
         <v>602</v>
@@ -16477,7 +16432,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="11" t="s">
-        <v>2738</v>
+        <v>2724</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>603</v>
@@ -16496,7 +16451,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="11" t="s">
-        <v>2739</v>
+        <v>2725</v>
       </c>
       <c r="B447" s="9" t="s">
         <v>605</v>
@@ -16507,18 +16462,18 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="11" t="s">
-        <v>2740</v>
+        <v>2726</v>
       </c>
       <c r="B448" s="9" t="s">
         <v>606</v>
       </c>
       <c r="C448" t="s">
-        <v>2741</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
-        <v>2742</v>
+        <v>2728</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>607</v>
@@ -16537,7 +16492,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
-        <v>2743</v>
+        <v>2729</v>
       </c>
       <c r="B451" s="9" t="s">
         <v>609</v>
@@ -16548,7 +16503,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="11" t="s">
-        <v>2744</v>
+        <v>2730</v>
       </c>
       <c r="B452" s="9" t="s">
         <v>610</v>
@@ -16559,7 +16514,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
-        <v>2745</v>
+        <v>2731</v>
       </c>
       <c r="B453" s="8" t="s">
         <v>611</v>
@@ -16570,7 +16525,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
-        <v>2746</v>
+        <v>2732</v>
       </c>
       <c r="B454" s="8" t="s">
         <v>612</v>
@@ -16578,7 +16533,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
-        <v>2747</v>
+        <v>2733</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>613</v>
@@ -16589,7 +16544,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
-        <v>2749</v>
+        <v>2735</v>
       </c>
       <c r="B456" s="9" t="s">
         <v>614</v>
@@ -16597,7 +16552,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
-        <v>2748</v>
+        <v>2734</v>
       </c>
       <c r="B457" s="8" t="s">
         <v>615</v>
@@ -16608,7 +16563,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
-        <v>2750</v>
+        <v>2736</v>
       </c>
       <c r="B458" s="8" t="s">
         <v>616</v>
@@ -16616,7 +16571,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
-        <v>2751</v>
+        <v>2737</v>
       </c>
       <c r="B459" s="8" t="s">
         <v>617</v>
@@ -16627,7 +16582,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
-        <v>2752</v>
+        <v>2738</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>618</v>
@@ -16638,7 +16593,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
-        <v>2753</v>
+        <v>2739</v>
       </c>
       <c r="B461" s="8" t="s">
         <v>619</v>
@@ -16646,7 +16601,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
-        <v>2754</v>
+        <v>2740</v>
       </c>
       <c r="B462" s="8" t="s">
         <v>620</v>
@@ -16654,7 +16609,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
-        <v>2755</v>
+        <v>2741</v>
       </c>
       <c r="B463" s="8" t="s">
         <v>621</v>
@@ -16662,7 +16617,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
-        <v>2756</v>
+        <v>2742</v>
       </c>
       <c r="B464" s="8" t="s">
         <v>622</v>
@@ -16684,7 +16639,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
-        <v>2757</v>
+        <v>2743</v>
       </c>
       <c r="B466" s="8" t="s">
         <v>624</v>
@@ -16692,7 +16647,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="11" t="s">
-        <v>2758</v>
+        <v>2744</v>
       </c>
       <c r="B467" s="8" t="s">
         <v>625</v>
@@ -16700,7 +16655,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
-        <v>2759</v>
+        <v>2745</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>626</v>
@@ -16727,7 +16682,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
-        <v>2760</v>
+        <v>2746</v>
       </c>
       <c r="B471" s="8" t="s">
         <v>629</v>
@@ -16735,7 +16690,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
-        <v>2761</v>
+        <v>2747</v>
       </c>
       <c r="B472" s="9" t="s">
         <v>630</v>
@@ -16746,7 +16701,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
-        <v>2762</v>
+        <v>2748</v>
       </c>
       <c r="B473" s="9" t="s">
         <v>706</v>
@@ -16754,7 +16709,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
-        <v>2763</v>
+        <v>2749</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>631</v>
@@ -16762,7 +16717,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
-        <v>2764</v>
+        <v>2750</v>
       </c>
       <c r="B475" s="8" t="s">
         <v>632</v>
@@ -16770,7 +16725,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
-        <v>2765</v>
+        <v>2751</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>633</v>
@@ -16781,7 +16736,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
-        <v>2766</v>
+        <v>2752</v>
       </c>
       <c r="B477" s="9" t="s">
         <v>634</v>
@@ -16789,7 +16744,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
-        <v>2767</v>
+        <v>2753</v>
       </c>
       <c r="B478" s="8" t="s">
         <v>635</v>
@@ -16800,7 +16755,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
-        <v>2768</v>
+        <v>2754</v>
       </c>
       <c r="B479" s="8" t="s">
         <v>636</v>
@@ -16808,7 +16763,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
-        <v>2769</v>
+        <v>2755</v>
       </c>
       <c r="B480" s="8" t="s">
         <v>637</v>
@@ -16816,7 +16771,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
-        <v>2770</v>
+        <v>2756</v>
       </c>
       <c r="B481" s="8" t="s">
         <v>638</v>
@@ -16824,7 +16779,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="30" t="s">
-        <v>2771</v>
+        <v>2757</v>
       </c>
       <c r="B482" s="9" t="s">
         <v>639</v>
@@ -16835,7 +16790,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
-        <v>2772</v>
+        <v>2758</v>
       </c>
       <c r="B483" s="9" t="s">
         <v>640</v>
@@ -16846,7 +16801,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
-        <v>2773</v>
+        <v>2759</v>
       </c>
       <c r="B484" s="9" t="s">
         <v>692</v>
@@ -16857,7 +16812,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
-        <v>2774</v>
+        <v>2760</v>
       </c>
       <c r="B485" s="8" t="s">
         <v>641</v>
@@ -16868,7 +16823,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
-        <v>2775</v>
+        <v>2761</v>
       </c>
       <c r="B486" s="8" t="s">
         <v>642</v>
@@ -16884,7 +16839,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
-        <v>2776</v>
+        <v>2762</v>
       </c>
       <c r="B488" s="9" t="s">
         <v>644</v>
@@ -16903,7 +16858,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
-        <v>2777</v>
+        <v>2763</v>
       </c>
       <c r="B490" s="8" t="s">
         <v>646</v>
@@ -16911,7 +16866,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
-        <v>2778</v>
+        <v>2764</v>
       </c>
       <c r="B491" s="8" t="s">
         <v>647</v>
@@ -16919,7 +16874,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
-        <v>2779</v>
+        <v>2765</v>
       </c>
       <c r="B492" s="8" t="s">
         <v>648</v>
@@ -16927,7 +16882,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
-        <v>2780</v>
+        <v>2766</v>
       </c>
       <c r="B493" s="8" t="s">
         <v>649</v>
@@ -16935,7 +16890,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
-        <v>2781</v>
+        <v>2767</v>
       </c>
       <c r="B494" s="8" t="s">
         <v>650</v>
@@ -16943,7 +16898,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
-        <v>2782</v>
+        <v>2768</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>651</v>
@@ -16951,7 +16906,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
-        <v>2783</v>
+        <v>2769</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>652</v>
@@ -16959,7 +16914,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
-        <v>2784</v>
+        <v>2770</v>
       </c>
       <c r="B497" s="9" t="s">
         <v>653</v>
@@ -16970,13 +16925,13 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
-        <v>2786</v>
+        <v>2772</v>
       </c>
       <c r="B498" s="9" t="s">
         <v>654</v>
       </c>
       <c r="C498" t="s">
-        <v>2785</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -17086,7 +17041,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
-        <v>2788</v>
+        <v>2774</v>
       </c>
       <c r="B511" s="9" t="s">
         <v>713</v>
@@ -17094,7 +17049,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
-        <v>2787</v>
+        <v>2773</v>
       </c>
       <c r="B512" s="8" t="s">
         <v>715</v>
@@ -17110,7 +17065,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
-        <v>2789</v>
+        <v>2775</v>
       </c>
       <c r="B514" s="9" t="s">
         <v>717</v>
@@ -17249,7 +17204,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
-        <v>2790</v>
+        <v>2776</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>825</v>
@@ -17260,7 +17215,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
-        <v>2791</v>
+        <v>2777</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>826</v>
@@ -17314,7 +17269,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
-        <v>2792</v>
+        <v>2778</v>
       </c>
       <c r="B538" s="9" t="s">
         <v>830</v>
@@ -17393,7 +17348,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
-        <v>2793</v>
+        <v>2779</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>838</v>
@@ -17499,7 +17454,7 @@
         <v>848</v>
       </c>
       <c r="C557" t="s">
-        <v>2794</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -17572,7 +17527,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
-        <v>2795</v>
+        <v>2781</v>
       </c>
       <c r="B565" s="8" t="s">
         <v>854</v>
@@ -17629,7 +17584,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
-        <v>2796</v>
+        <v>2782</v>
       </c>
       <c r="B571" s="8" t="s">
         <v>860</v>
@@ -17640,7 +17595,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
-        <v>2797</v>
+        <v>2783</v>
       </c>
       <c r="B572" s="9" t="s">
         <v>861</v>
@@ -17689,7 +17644,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
-        <v>2798</v>
+        <v>2784</v>
       </c>
       <c r="B577" s="9" t="s">
         <v>978</v>
@@ -17708,7 +17663,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
-        <v>2799</v>
+        <v>2785</v>
       </c>
       <c r="B579" s="9" t="s">
         <v>981</v>
@@ -17848,7 +17803,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="11" t="s">
-        <v>2800</v>
+        <v>2786</v>
       </c>
       <c r="B595" s="9" t="s">
         <v>882</v>
@@ -18145,7 +18100,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
-        <v>2801</v>
+        <v>2787</v>
       </c>
       <c r="B631" s="9" t="s">
         <v>917</v>
@@ -18153,7 +18108,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
-        <v>2802</v>
+        <v>2788</v>
       </c>
       <c r="B632" s="9" t="s">
         <v>918</v>
@@ -18293,7 +18248,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
-        <v>2803</v>
+        <v>2789</v>
       </c>
       <c r="B648" s="8" t="s">
         <v>937</v>
@@ -18309,7 +18264,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
-        <v>2804</v>
+        <v>2790</v>
       </c>
       <c r="B650" s="8" t="s">
         <v>1088</v>
@@ -18344,7 +18299,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="11" t="s">
-        <v>2805</v>
+        <v>2791</v>
       </c>
       <c r="B654" s="8" t="s">
         <v>1091</v>
@@ -18883,7 +18838,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
-        <v>2806</v>
+        <v>2792</v>
       </c>
       <c r="B715" s="9" t="s">
         <v>1152</v>
@@ -19129,7 +19084,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="11" t="s">
-        <v>2807</v>
+        <v>2793</v>
       </c>
       <c r="B742" s="9" t="s">
         <v>1284</v>
@@ -19331,10 +19286,10 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="11" t="s">
-        <v>2809</v>
+        <v>2795</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>2808</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
@@ -19668,7 +19623,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="11" t="s">
-        <v>2810</v>
+        <v>2796</v>
       </c>
       <c r="B803" s="8" t="s">
         <v>1342</v>
@@ -19737,7 +19692,7 @@
       <c r="A811" s="11" t="s">
         <v>1407</v>
       </c>
-      <c r="B811" s="9" t="s">
+      <c r="B811" s="8" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -19778,9 +19733,9 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B816" s="8" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B816" s="9" t="s">
         <v>1409</v>
       </c>
       <c r="C816" t="s">
@@ -19808,7 +19763,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="11" t="s">
-        <v>1477</v>
+        <v>2798</v>
       </c>
       <c r="B819" s="8" t="s">
         <v>1356</v>
@@ -19816,7 +19771,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="11" t="s">
-        <v>1478</v>
+        <v>2799</v>
       </c>
       <c r="B820" s="8" t="s">
         <v>1357</v>
@@ -19824,15 +19779,15 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="11" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B821" s="8" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B821" s="9" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="11" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B822" s="8" t="s">
         <v>1359</v>
@@ -19843,7 +19798,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="11" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B823" s="8" t="s">
         <v>1386</v>
@@ -19870,7 +19825,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="11" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B826" s="8" t="s">
         <v>1410</v>
@@ -19878,489 +19833,489 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="11" t="s">
-        <v>1600</v>
+        <v>2801</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="11" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="11" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="11" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="11" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="11" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C832" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="11" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B834" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C834" t="s">
         <v>1605</v>
-      </c>
-      <c r="B834" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C834" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="11" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="11" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="B836" s="9" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="11" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="11" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="11" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="B839" s="9" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="11" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="11" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="11" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C842" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="11" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="B843" s="9" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C843" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="11" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="B844" s="9" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="11" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="B845" s="9" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C845" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="11" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="11" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C847" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="11" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="11" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="11" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B850" s="9" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C850" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="11" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="11" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="B852" s="9" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C852" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="11" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="11" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="11" t="s">
-        <v>1624</v>
+        <v>2802</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="11" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="11" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C857" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="11" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="B858" s="8" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="11" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C859" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="11" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C860" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="11" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C861" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="11" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B862" s="8" t="s">
-        <v>1518</v>
+        <v>1669</v>
+      </c>
+      <c r="B862" s="9" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="11" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="11" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="11" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="11" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="B866" s="8" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="11" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="11" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="B868" s="8" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="11" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B869" s="9" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="11" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="11" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="11" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="11" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="B873" s="9" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C873" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="11" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B874" s="8" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="11" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B876" s="8" t="s">
-        <v>1532</v>
+        <v>1632</v>
+      </c>
+      <c r="B876" s="9" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="11" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="11" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="11" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="11" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="11" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="11" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="B882" s="8" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
@@ -20368,1590 +20323,1596 @@
         <v>50</v>
       </c>
       <c r="B883" s="8" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="11" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B884" s="9" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="11" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="11" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="11" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="11" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="11" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="11" t="s">
-        <v>1688</v>
+        <v>2803</v>
       </c>
       <c r="B890" s="9" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="11" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="11" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="B892" s="8" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="11" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="11" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="B894" s="8" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="11" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="11" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="11" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="B897" s="8" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C897" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="11" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="11" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>1555</v>
+        <v>1551</v>
+      </c>
+      <c r="C899" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="11" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="11" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="B901" s="8" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="11" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="11" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="B903" s="8" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="11" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="B904" s="8" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="11" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="B905" s="8" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="11" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="B906" s="8" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="11" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="11" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="11" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B909" s="8" t="s">
-        <v>1565</v>
+        <v>1709</v>
+      </c>
+      <c r="B909" s="9" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="11" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="B910" s="8" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="11" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="B911" s="8" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="11" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="B912" s="8" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="11" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="B913" s="8" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="11" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="11" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="11" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="B916" s="8" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="11" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="B917" s="8" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="11" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="B918" s="9" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="11" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="11" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="11" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="B921" s="9" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="11" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="B922" s="9" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C922" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="11" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="11" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="11" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="B925" s="8" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="11" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="11" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="11" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="B928" s="9" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="11" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="11" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="11" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="11" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="B932" s="9" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C932" s="22" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="11" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B933" s="8" t="s">
-        <v>1590</v>
+        <v>1728</v>
+      </c>
+      <c r="B933" s="9" t="s">
+        <v>1586</v>
       </c>
       <c r="C933" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="11" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="11" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="11" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C936" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="11" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="11" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="11" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="11" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="11" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="11" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="11" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="B943" s="9" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C943" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="11" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="11" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="11" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="11" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B948" s="8" t="s">
         <v>1651</v>
-      </c>
-      <c r="B948" s="8" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B949" s="8" t="s">
         <v>1652</v>
-      </c>
-      <c r="B949" s="8" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="11" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951" s="11" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="11" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953" s="11" t="s">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="11" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="C954" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" s="11" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="11" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="B956" s="9" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="C956" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="11" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="11" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="11" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="C959" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="11" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="B960" s="9" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961" s="11" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="11" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="C962" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="11" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="B963" s="9" t="s">
-        <v>1757</v>
+        <v>1750</v>
+      </c>
+      <c r="C963" t="s">
+        <v>2805</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="11" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="11" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="B965" s="9" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="11" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="11" t="s">
-        <v>1961</v>
+        <v>2807</v>
       </c>
       <c r="B967" s="9" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="11" t="s">
-        <v>1971</v>
+        <v>2806</v>
       </c>
       <c r="B968" s="9" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="11" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="11" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="11" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="11" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="11" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="C973" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="11" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="11" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="11" t="s">
-        <v>2072</v>
+        <v>2808</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="11" t="s">
-        <v>2073</v>
+        <v>2062</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="11" t="s">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="11" t="s">
-        <v>2075</v>
+        <v>2064</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="11" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="B981" s="9" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="11" t="s">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="11" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="B983" s="9" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="11" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="11" t="s">
-        <v>2077</v>
+        <v>2066</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="11" t="s">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="11" t="s">
-        <v>2079</v>
+        <v>2068</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="11" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B988" s="8" t="s">
-        <v>1782</v>
+        <v>1969</v>
+      </c>
+      <c r="B988" s="9" t="s">
+        <v>1775</v>
       </c>
       <c r="C988" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="11" t="s">
-        <v>2080</v>
+        <v>2069</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="18" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="B990" s="9" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="C990" s="22" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="11" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="B991" s="9" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="11" t="s">
-        <v>1984</v>
+        <v>2809</v>
       </c>
       <c r="B992" s="9" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C992" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" s="11" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="B993" s="9" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" s="11" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
       <c r="B994" s="9" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" s="11" t="s">
-        <v>1987</v>
+        <v>1977</v>
       </c>
       <c r="B995" s="9" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" s="11" t="s">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="B996" s="9" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" s="11" t="s">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" s="11" t="s">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B998" s="9" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" s="11" t="s">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="B999" s="8" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" s="11" t="s">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="B1000" s="8" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" s="11" t="s">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="B1001" s="9" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="11" t="s">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="B1002" s="9" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" s="11" t="s">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="B1003" s="9" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="11" t="s">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="B1004" s="8" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" s="11" t="s">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="B1005" s="9" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" s="11" t="s">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="B1006" s="8" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" s="11" t="s">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="B1007" s="8" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" s="11" t="s">
-        <v>2081</v>
+        <v>2070</v>
       </c>
       <c r="B1008" s="8" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" s="11" t="s">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B1009" s="8" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" s="11" t="s">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="B1010" s="8" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="C1010" t="s">
-        <v>2001</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1011" s="11" t="s">
-        <v>2082</v>
+        <v>2071</v>
       </c>
       <c r="B1011" s="8" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1012" s="11" t="s">
-        <v>2083</v>
+        <v>2810</v>
       </c>
       <c r="B1012" s="9" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1013" s="11" t="s">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="B1013" s="9" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="C1013" t="s">
-        <v>2003</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1014" s="11" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
       <c r="B1014" s="8" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1015" s="11" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="B1015" s="8" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1016" s="11" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="B1016" s="9" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1017" s="11" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="B1017" s="8" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1018" s="11" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="B1018" s="8" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1019" s="11" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
       <c r="B1019" s="8" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="C1019" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1020" s="11" t="s">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B1020" s="9" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="C1020" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1021" s="11" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
       <c r="B1021" s="8" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1022" s="11" t="s">
-        <v>2089</v>
+        <v>2077</v>
       </c>
       <c r="B1022" s="8" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1023" s="11" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B1023" s="9" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="C1023" t="s">
-        <v>2011</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1024" s="11" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="B1024" s="8" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1025" s="11" t="s">
-        <v>2091</v>
+        <v>2079</v>
       </c>
       <c r="B1025" s="8" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1026" s="11" t="s">
-        <v>2092</v>
+        <v>2080</v>
       </c>
       <c r="B1026" s="8" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1027" s="11" t="s">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="B1027" s="9" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1028" s="11" t="s">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="B1028" s="9" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="C1028" t="s">
-        <v>2014</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1029" s="11" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="B1029" s="8" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1030" s="11" t="s">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="B1030" s="8" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1031" s="11" t="s">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="B1031" s="8" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="C1031" t="s">
-        <v>2017</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1032" s="11" t="s">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B1032" s="8" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1033" s="11" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B1033" s="8" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1034" s="11" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B1034" s="8" t="s">
-        <v>1827</v>
+        <v>2010</v>
+      </c>
+      <c r="B1034" s="9" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1035" s="11" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B1035" s="8" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1036" s="11" t="s">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="B1036" s="8" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="C1036" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1037" s="11" t="s">
-        <v>2094</v>
+        <v>2082</v>
       </c>
       <c r="B1037" s="8" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1038" s="11" t="s">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B1038" s="9" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1039" s="11" t="s">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="B1039" s="9" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1040" s="11" t="s">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="B1040" s="9" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1041" s="11" t="s">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="B1041" s="8" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1042" s="11" t="s">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="B1042" s="8" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1043" s="11" t="s">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B1043" s="9" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1044" s="11" t="s">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="B1044" s="8" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1045" s="11" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B1045" s="8" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1046" s="11" t="s">
-        <v>2046</v>
+        <v>2036</v>
       </c>
       <c r="B1046" s="8" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1047" s="11" t="s">
-        <v>2047</v>
+        <v>2037</v>
       </c>
       <c r="B1047" s="9" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="C1047" t="s">
-        <v>2049</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1048" s="11" t="s">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="B1048" s="9" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="C1048" t="s">
-        <v>2050</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1049" s="11" t="s">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="B1049" s="8" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1050" s="11" t="s">
-        <v>2044</v>
+        <v>2034</v>
       </c>
       <c r="B1050" s="8" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1051" s="11" t="s">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="B1051" s="8" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1052" s="11" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="B1052" s="9" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1053" s="11" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1053" s="8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1053" t="s">
         <v>2041</v>
-      </c>
-      <c r="B1053" s="8" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1054" s="11" t="s">
-        <v>2039</v>
+        <v>2029</v>
       </c>
       <c r="B1054" s="9" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="C1054" t="s">
-        <v>2052</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1055" s="11" t="s">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="B1055" s="8" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1056" s="11" t="s">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="B1056" s="9" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1057" s="11" t="s">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="B1057" s="8" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1058" s="11" t="s">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="B1058" s="8" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1059" s="11" t="s">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="B1059" s="8" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1060" s="11" t="s">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="B1060" s="8" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1061" s="11" t="s">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B1061" s="9" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1062" s="11" t="s">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="B1062" s="9" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="C1062" t="s">
-        <v>2053</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1063" s="11" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="B1063" s="8" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="C1063" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1064" s="11" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
       <c r="B1064" s="8" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1065" s="11" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
       <c r="B1065" s="9" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1066" s="11" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B1066" s="9" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="C1066" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1067" s="11" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
       <c r="B1067" s="9" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1068" s="11" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="B1068" s="8" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1069" s="11" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="B1069" s="8" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1070" s="11" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="B1070" s="8" t="s">
-        <v>2064</v>
+        <v>2054</v>
       </c>
     </row>
   </sheetData>
@@ -21972,8 +21933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22000,13 +21961,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="C2" t="s">
-        <v>2117</v>
+        <v>2105</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -22015,1558 +21976,1564 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>2119</v>
+        <v>2106</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2118</v>
+        <v>2811</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>2120</v>
+        <v>2107</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>2121</v>
+        <v>2108</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="C6" t="s">
-        <v>2123</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>2122</v>
+        <v>2109</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>2124</v>
+        <v>2111</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="C8" t="s">
-        <v>2125</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>2129</v>
+        <v>2116</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="C13" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="C18" t="s">
-        <v>2140</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="C20" t="s">
-        <v>2139</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>2141</v>
+        <v>2128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>2142</v>
+        <v>2129</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>2143</v>
+        <v>2130</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>2145</v>
+        <v>2132</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>2146</v>
+        <v>2133</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>2144</v>
+        <v>2131</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>2147</v>
+        <v>2134</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>2148</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>2149</v>
+        <v>2136</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>2150</v>
+        <v>2137</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>2151</v>
+        <v>2138</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>2152</v>
+        <v>2139</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="C31" t="s">
-        <v>2156</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>2153</v>
+        <v>2140</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="C32" t="s">
-        <v>2155</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>2154</v>
+        <v>2141</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>2157</v>
+        <v>2144</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>2158</v>
+        <v>2145</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="C35" t="s">
-        <v>2159</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>2160</v>
+        <v>2147</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>2162</v>
+        <v>2149</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>2161</v>
+        <v>2148</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>2163</v>
+        <v>2150</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>2164</v>
+        <v>2151</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>2165</v>
+        <v>2152</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>2166</v>
+        <v>2153</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>2170</v>
+        <v>2157</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="C45" t="s">
-        <v>2169</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>2171</v>
+        <v>2158</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>2172</v>
+        <v>2159</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="C47" t="s">
-        <v>2173</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>2174</v>
+        <v>2161</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>2175</v>
+        <v>2162</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>2176</v>
+        <v>2163</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>2177</v>
+        <v>2164</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>2178</v>
+        <v>2165</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="C52" t="s">
-        <v>2179</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>2180</v>
+        <v>2167</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>2181</v>
+        <v>2168</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>2182</v>
+        <v>2169</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>2183</v>
+        <v>2170</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>2184</v>
+        <v>2171</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>2185</v>
+        <v>2172</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="C58" t="s">
-        <v>2186</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>2187</v>
+        <v>2174</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="C59" t="s">
-        <v>2188</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>2189</v>
+        <v>2176</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="C60" t="s">
-        <v>2190</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>2193</v>
+        <v>2180</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>2194</v>
+        <v>2181</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>2195</v>
+        <v>2182</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>2196</v>
+        <v>2183</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>2197</v>
+        <v>2184</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>2198</v>
+        <v>2812</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>2201</v>
+        <v>2187</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>2199</v>
+        <v>2185</v>
       </c>
       <c r="C67" t="s">
-        <v>2200</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>2203</v>
+        <v>2189</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="C68" t="s">
-        <v>2202</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>2204</v>
+        <v>2190</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="C70" t="s">
-        <v>2205</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>2207</v>
+        <v>2193</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="C71" t="s">
-        <v>2206</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>1929</v>
+        <v>2194</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>2209</v>
+        <v>2195</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>2212</v>
+        <v>2198</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="C75" t="s">
-        <v>2213</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>2211</v>
+        <v>2197</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>2215</v>
+        <v>2201</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="C78" t="s">
-        <v>2216</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>2217</v>
+        <v>2203</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>2218</v>
+        <v>2204</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>2219</v>
+        <v>2205</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>2220</v>
+        <v>2206</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>2221</v>
+        <v>2207</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>2222</v>
+        <v>2208</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>2223</v>
+        <v>2209</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>2224</v>
+        <v>2210</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="C86" t="s">
-        <v>2225</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>2226</v>
+        <v>2212</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="C87" t="s">
-        <v>2227</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>2228</v>
+        <v>2214</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>2229</v>
+        <v>2215</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>2095</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>2096</v>
+        <v>2216</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>2084</v>
       </c>
       <c r="C90" t="s">
-        <v>2231</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>2232</v>
+        <v>2218</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>2233</v>
+        <v>2220</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>2219</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>2235</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>2236</v>
+        <v>2222</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>2098</v>
+        <v>2086</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>2237</v>
+        <v>2223</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>2099</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>2238</v>
+        <v>2224</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>2240</v>
+        <v>2226</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>2239</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>2241</v>
+        <v>2227</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>2242</v>
+        <v>2228</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>2243</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>2244</v>
+        <v>2230</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>2245</v>
+        <v>2231</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>2246</v>
+        <v>2232</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>2105</v>
+        <v>2093</v>
       </c>
       <c r="C101" t="s">
-        <v>2247</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>2106</v>
+        <v>2234</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>2094</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>2249</v>
+        <v>2235</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>2107</v>
+        <v>2095</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>2250</v>
+        <v>2236</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>2108</v>
+        <v>2096</v>
       </c>
       <c r="C104" t="s">
-        <v>2251</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>2252</v>
+        <v>2238</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2109</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>2814</v>
+      </c>
       <c r="B106" s="8" t="s">
-        <v>2192</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>2253</v>
+        <v>2239</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>2110</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>2254</v>
+        <v>2240</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>2255</v>
+        <v>2241</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>2256</v>
+        <v>2242</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>2113</v>
+        <v>2101</v>
       </c>
       <c r="C110" t="s">
-        <v>2257</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>2258</v>
+        <v>2244</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>2114</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>2259</v>
+        <v>2245</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>2260</v>
+        <v>2246</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>2191</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>2261</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>2262</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>2263</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>2264</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>2265</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>2266</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>2267</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>2268</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>2269</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>2270</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>2271</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>2272</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>2273</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="8" t="s">
-        <v>2274</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>2275</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>2276</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>2277</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>2278</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>2280</v>
+        <v>2266</v>
       </c>
       <c r="C133" s="21"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>2281</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="8" t="s">
-        <v>2282</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="8" t="s">
-        <v>2283</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>2284</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>2285</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="8" t="s">
-        <v>2286</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>2287</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>2288</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>2289</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>2290</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>2291</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>2292</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>2293</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>2294</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>2295</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>2296</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>2297</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>2298</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="8" t="s">
-        <v>2299</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>2300</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="8" t="s">
-        <v>2301</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>2302</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>2303</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>2304</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>2305</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>2306</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="8" t="s">
-        <v>2307</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="8" t="s">
-        <v>2308</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>2309</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>2310</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>2311</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>2312</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>2313</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>2314</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>2315</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>2316</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>2317</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>2318</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>2319</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>2320</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>2321</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>2322</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>2323</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>2324</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>2325</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>2326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>2327</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>2328</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>2329</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>2330</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>2331</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>2332</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>2333</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>2334</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>2335</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>2336</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>2337</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>2338</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>2339</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>2340</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>2341</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>2342</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>2343</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>2344</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>2345</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>2346</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>2347</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>2348</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>2349</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>2350</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>2351</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>2352</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>2353</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>2354</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>2355</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>2356</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
-        <v>2357</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>2358</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
-        <v>2359</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>2360</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="8" t="s">
-        <v>2361</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>2362</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
-        <v>2363</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>2364</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>2365</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>2366</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="8" t="s">
-        <v>2367</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>2368</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="8" t="s">
-        <v>2369</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>2370</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>2371</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>2372</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
-        <v>2373</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
-        <v>2374</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
-        <v>2375</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -24200,144 +24167,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I824"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A2:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="81.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="5"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="3"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="3"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="16"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="16"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="16"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="16"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="16"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="12"/>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="5"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="12"/>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="26"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="14"/>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="26"/>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="12"/>
-    </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C618" s="11"/>
-    </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="27"/>
-    </row>
-    <row r="824" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B824" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
